--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_サンプル.xlsx
@@ -6457,6 +6457,72 @@
     <xf numFmtId="31" fontId="14" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -6565,70 +6631,40 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6639,42 +6675,6 @@
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7212,20 +7212,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276223</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="2371725"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2295523" y="2695576"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7243,27 +7243,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7271,27 +7259,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7307,20 +7283,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="2295525"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2095499" y="2143126"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7338,27 +7314,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7366,27 +7330,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7402,20 +7354,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="2362200"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1866900" y="2428875"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7433,27 +7385,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7461,27 +7401,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9210,19 +9138,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4438650" y="7858125"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4572000" y="4448175"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9240,27 +9168,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9268,27 +9184,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9301,18 +9205,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="20259675"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4686300" y="14592300"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9330,27 +9234,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9358,27 +9250,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9390,19 +9270,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1733550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629150" y="12858750"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4533900" y="20231099"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9420,27 +9300,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9448,27 +9316,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9720,19 +9576,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3619500" y="6915150"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4457701" y="4095750"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9750,27 +9606,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9778,27 +9622,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9810,19 +9642,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4638675" y="21116925"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4305300" y="19259549"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9840,27 +9672,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9868,27 +9688,81 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5473999" cy="1871540"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20636203">
+          <a:off x="4057650" y="27936826"/>
+          <a:ext cx="5473999" cy="1871540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
+              <a:ln w="12700" cmpd="sng">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
                   <a:alpha val="30000"/>
                 </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SAMPLE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
+            <a:ln w="12700" cmpd="sng">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -10080,19 +9954,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3467100" y="6962775"/>
+        <a:xfrm rot="20636203">
+          <a:off x="3714750" y="6105525"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10110,27 +9984,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -10138,27 +10000,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -11248,57 +11098,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="331" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="312" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="334" t="s">
         <v>452</v>
       </c>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="318" t="s">
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="340" t="s">
         <v>434</v>
       </c>
-      <c r="P1" s="319"/>
-      <c r="Q1" s="319"/>
-      <c r="R1" s="320"/>
-      <c r="S1" s="327" t="s">
+      <c r="P1" s="341"/>
+      <c r="Q1" s="341"/>
+      <c r="R1" s="342"/>
+      <c r="S1" s="349" t="s">
         <v>454</v>
       </c>
-      <c r="T1" s="328"/>
-      <c r="U1" s="328"/>
-      <c r="V1" s="328"/>
-      <c r="W1" s="328"/>
-      <c r="X1" s="328"/>
-      <c r="Y1" s="328"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="309" t="s">
+      <c r="T1" s="350"/>
+      <c r="U1" s="350"/>
+      <c r="V1" s="350"/>
+      <c r="W1" s="350"/>
+      <c r="X1" s="350"/>
+      <c r="Y1" s="350"/>
+      <c r="Z1" s="351"/>
+      <c r="AA1" s="331" t="s">
         <v>435</v>
       </c>
-      <c r="AB1" s="311"/>
-      <c r="AC1" s="336" t="str">
+      <c r="AB1" s="333"/>
+      <c r="AC1" s="358" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="337"/>
-      <c r="AE1" s="337"/>
-      <c r="AF1" s="338"/>
-      <c r="AG1" s="303">
+      <c r="AD1" s="359"/>
+      <c r="AE1" s="359"/>
+      <c r="AF1" s="360"/>
+      <c r="AG1" s="325">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="304"/>
-      <c r="AI1" s="305"/>
+      <c r="AH1" s="326"/>
+      <c r="AI1" s="327"/>
       <c r="AJ1" s="48"/>
       <c r="AK1" s="48"/>
       <c r="AL1" s="48"/>
@@ -11306,53 +11156,53 @@
       <c r="AN1" s="49"/>
     </row>
     <row r="2" spans="1:40" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="331" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="312" t="s">
+      <c r="B2" s="332"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="334" t="s">
         <v>453</v>
       </c>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="321"/>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="322"/>
-      <c r="R2" s="323"/>
-      <c r="S2" s="330"/>
-      <c r="T2" s="331"/>
-      <c r="U2" s="331"/>
-      <c r="V2" s="331"/>
-      <c r="W2" s="331"/>
-      <c r="X2" s="331"/>
-      <c r="Y2" s="331"/>
-      <c r="Z2" s="332"/>
-      <c r="AA2" s="309" t="s">
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="343"/>
+      <c r="P2" s="344"/>
+      <c r="Q2" s="344"/>
+      <c r="R2" s="345"/>
+      <c r="S2" s="352"/>
+      <c r="T2" s="353"/>
+      <c r="U2" s="353"/>
+      <c r="V2" s="353"/>
+      <c r="W2" s="353"/>
+      <c r="X2" s="353"/>
+      <c r="Y2" s="353"/>
+      <c r="Z2" s="354"/>
+      <c r="AA2" s="331" t="s">
         <v>437</v>
       </c>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="315" t="str">
+      <c r="AB2" s="333"/>
+      <c r="AC2" s="337" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="316"/>
-      <c r="AE2" s="316"/>
-      <c r="AF2" s="317"/>
-      <c r="AG2" s="303" t="str">
+      <c r="AD2" s="338"/>
+      <c r="AE2" s="338"/>
+      <c r="AF2" s="339"/>
+      <c r="AG2" s="325" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="304"/>
-      <c r="AI2" s="305"/>
+      <c r="AH2" s="326"/>
+      <c r="AI2" s="327"/>
       <c r="AJ2" s="48"/>
       <c r="AK2" s="48"/>
       <c r="AL2" s="48"/>
@@ -11360,45 +11210,45 @@
       <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="331" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="332"/>
+      <c r="C3" s="332"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="334" t="s">
         <v>451</v>
       </c>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="324"/>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="325"/>
-      <c r="R3" s="326"/>
-      <c r="S3" s="333"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="335"/>
-      <c r="AA3" s="309"/>
-      <c r="AB3" s="311"/>
-      <c r="AC3" s="336"/>
-      <c r="AD3" s="337"/>
-      <c r="AE3" s="337"/>
-      <c r="AF3" s="338"/>
-      <c r="AG3" s="303"/>
-      <c r="AH3" s="304"/>
-      <c r="AI3" s="305"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="347"/>
+      <c r="Q3" s="347"/>
+      <c r="R3" s="348"/>
+      <c r="S3" s="355"/>
+      <c r="T3" s="356"/>
+      <c r="U3" s="356"/>
+      <c r="V3" s="356"/>
+      <c r="W3" s="356"/>
+      <c r="X3" s="356"/>
+      <c r="Y3" s="356"/>
+      <c r="Z3" s="357"/>
+      <c r="AA3" s="331"/>
+      <c r="AB3" s="333"/>
+      <c r="AC3" s="358"/>
+      <c r="AD3" s="359"/>
+      <c r="AE3" s="359"/>
+      <c r="AF3" s="360"/>
+      <c r="AG3" s="325"/>
+      <c r="AH3" s="326"/>
+      <c r="AI3" s="327"/>
       <c r="AJ3" s="48"/>
       <c r="AK3" s="48"/>
       <c r="AL3" s="48"/>
@@ -11435,97 +11285,97 @@
       <c r="A7" s="56" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="306" t="s">
+      <c r="B7" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="307"/>
-      <c r="D7" s="306" t="s">
+      <c r="C7" s="329"/>
+      <c r="D7" s="328" t="s">
         <v>442</v>
       </c>
-      <c r="E7" s="308"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="306" t="s">
+      <c r="E7" s="330"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="328" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="308"/>
-      <c r="I7" s="307"/>
-      <c r="J7" s="306" t="s">
+      <c r="H7" s="330"/>
+      <c r="I7" s="329"/>
+      <c r="J7" s="328" t="s">
         <v>443</v>
       </c>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="308"/>
-      <c r="N7" s="308"/>
-      <c r="O7" s="308"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="306" t="s">
+      <c r="K7" s="330"/>
+      <c r="L7" s="330"/>
+      <c r="M7" s="330"/>
+      <c r="N7" s="330"/>
+      <c r="O7" s="330"/>
+      <c r="P7" s="329"/>
+      <c r="Q7" s="328" t="s">
         <v>444</v>
       </c>
-      <c r="R7" s="308"/>
-      <c r="S7" s="308"/>
-      <c r="T7" s="308"/>
-      <c r="U7" s="308"/>
-      <c r="V7" s="308"/>
-      <c r="W7" s="308"/>
-      <c r="X7" s="308"/>
-      <c r="Y7" s="308"/>
-      <c r="Z7" s="308"/>
-      <c r="AA7" s="308"/>
-      <c r="AB7" s="308"/>
-      <c r="AC7" s="308"/>
-      <c r="AD7" s="308"/>
-      <c r="AE7" s="307"/>
-      <c r="AF7" s="306" t="s">
+      <c r="R7" s="330"/>
+      <c r="S7" s="330"/>
+      <c r="T7" s="330"/>
+      <c r="U7" s="330"/>
+      <c r="V7" s="330"/>
+      <c r="W7" s="330"/>
+      <c r="X7" s="330"/>
+      <c r="Y7" s="330"/>
+      <c r="Z7" s="330"/>
+      <c r="AA7" s="330"/>
+      <c r="AB7" s="330"/>
+      <c r="AC7" s="330"/>
+      <c r="AD7" s="330"/>
+      <c r="AE7" s="329"/>
+      <c r="AF7" s="328" t="s">
         <v>445</v>
       </c>
-      <c r="AG7" s="308"/>
-      <c r="AH7" s="308"/>
-      <c r="AI7" s="307"/>
+      <c r="AG7" s="330"/>
+      <c r="AH7" s="330"/>
+      <c r="AI7" s="329"/>
     </row>
     <row r="8" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="106">
         <v>1</v>
       </c>
-      <c r="B8" s="351" t="s">
+      <c r="B8" s="316" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="352"/>
-      <c r="D8" s="353">
+      <c r="C8" s="317"/>
+      <c r="D8" s="318">
         <v>43336</v>
       </c>
-      <c r="E8" s="354"/>
-      <c r="F8" s="355"/>
-      <c r="G8" s="351" t="s">
+      <c r="E8" s="319"/>
+      <c r="F8" s="320"/>
+      <c r="G8" s="316" t="s">
         <v>456</v>
       </c>
-      <c r="H8" s="356"/>
-      <c r="I8" s="352"/>
-      <c r="J8" s="357" t="s">
+      <c r="H8" s="321"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="322" t="s">
         <v>457</v>
       </c>
-      <c r="K8" s="358"/>
-      <c r="L8" s="358"/>
-      <c r="M8" s="358"/>
-      <c r="N8" s="358"/>
-      <c r="O8" s="358"/>
-      <c r="P8" s="359"/>
-      <c r="Q8" s="357" t="s">
+      <c r="K8" s="323"/>
+      <c r="L8" s="323"/>
+      <c r="M8" s="323"/>
+      <c r="N8" s="323"/>
+      <c r="O8" s="323"/>
+      <c r="P8" s="324"/>
+      <c r="Q8" s="322" t="s">
         <v>458</v>
       </c>
-      <c r="R8" s="358"/>
-      <c r="S8" s="358"/>
-      <c r="T8" s="358"/>
-      <c r="U8" s="358"/>
-      <c r="V8" s="358"/>
-      <c r="W8" s="358"/>
-      <c r="X8" s="358"/>
-      <c r="Y8" s="358"/>
-      <c r="Z8" s="358"/>
-      <c r="AA8" s="358"/>
-      <c r="AB8" s="358"/>
-      <c r="AC8" s="358"/>
-      <c r="AD8" s="358"/>
-      <c r="AE8" s="359"/>
+      <c r="R8" s="323"/>
+      <c r="S8" s="323"/>
+      <c r="T8" s="323"/>
+      <c r="U8" s="323"/>
+      <c r="V8" s="323"/>
+      <c r="W8" s="323"/>
+      <c r="X8" s="323"/>
+      <c r="Y8" s="323"/>
+      <c r="Z8" s="323"/>
+      <c r="AA8" s="323"/>
+      <c r="AB8" s="323"/>
+      <c r="AC8" s="323"/>
+      <c r="AD8" s="323"/>
+      <c r="AE8" s="324"/>
       <c r="AF8" s="107" t="s">
         <v>459</v>
       </c>
@@ -11535,1089 +11385,934 @@
     </row>
     <row r="9" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="58"/>
-      <c r="B9" s="339"/>
-      <c r="C9" s="340"/>
-      <c r="D9" s="341"/>
-      <c r="E9" s="342"/>
-      <c r="F9" s="343"/>
-      <c r="G9" s="341"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="340"/>
-      <c r="J9" s="345"/>
-      <c r="K9" s="346"/>
-      <c r="L9" s="346"/>
-      <c r="M9" s="346"/>
-      <c r="N9" s="346"/>
-      <c r="O9" s="346"/>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="348"/>
-      <c r="R9" s="349"/>
-      <c r="S9" s="349"/>
-      <c r="T9" s="349"/>
-      <c r="U9" s="349"/>
-      <c r="V9" s="349"/>
-      <c r="W9" s="349"/>
-      <c r="X9" s="349"/>
-      <c r="Y9" s="349"/>
-      <c r="Z9" s="349"/>
-      <c r="AA9" s="349"/>
-      <c r="AB9" s="349"/>
-      <c r="AC9" s="349"/>
-      <c r="AD9" s="349"/>
-      <c r="AE9" s="350"/>
-      <c r="AF9" s="345"/>
-      <c r="AG9" s="346"/>
-      <c r="AH9" s="346"/>
-      <c r="AI9" s="347"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="304"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="307"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="308"/>
+      <c r="I9" s="304"/>
+      <c r="J9" s="309"/>
+      <c r="K9" s="310"/>
+      <c r="L9" s="310"/>
+      <c r="M9" s="310"/>
+      <c r="N9" s="310"/>
+      <c r="O9" s="310"/>
+      <c r="P9" s="311"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="313"/>
+      <c r="S9" s="313"/>
+      <c r="T9" s="313"/>
+      <c r="U9" s="313"/>
+      <c r="V9" s="313"/>
+      <c r="W9" s="313"/>
+      <c r="X9" s="313"/>
+      <c r="Y9" s="313"/>
+      <c r="Z9" s="313"/>
+      <c r="AA9" s="313"/>
+      <c r="AB9" s="313"/>
+      <c r="AC9" s="313"/>
+      <c r="AD9" s="313"/>
+      <c r="AE9" s="314"/>
+      <c r="AF9" s="309"/>
+      <c r="AG9" s="310"/>
+      <c r="AH9" s="310"/>
+      <c r="AI9" s="311"/>
     </row>
     <row r="10" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="58"/>
-      <c r="B10" s="339"/>
-      <c r="C10" s="340"/>
-      <c r="D10" s="341"/>
-      <c r="E10" s="342"/>
-      <c r="F10" s="343"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="344"/>
-      <c r="I10" s="340"/>
-      <c r="J10" s="345"/>
-      <c r="K10" s="346"/>
-      <c r="L10" s="346"/>
-      <c r="M10" s="346"/>
-      <c r="N10" s="346"/>
-      <c r="O10" s="346"/>
-      <c r="P10" s="347"/>
-      <c r="Q10" s="348"/>
-      <c r="R10" s="349"/>
-      <c r="S10" s="349"/>
-      <c r="T10" s="349"/>
-      <c r="U10" s="349"/>
-      <c r="V10" s="349"/>
-      <c r="W10" s="349"/>
-      <c r="X10" s="349"/>
-      <c r="Y10" s="349"/>
-      <c r="Z10" s="349"/>
-      <c r="AA10" s="349"/>
-      <c r="AB10" s="349"/>
-      <c r="AC10" s="349"/>
-      <c r="AD10" s="349"/>
-      <c r="AE10" s="350"/>
-      <c r="AF10" s="345"/>
-      <c r="AG10" s="346"/>
-      <c r="AH10" s="346"/>
-      <c r="AI10" s="347"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="308"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="309"/>
+      <c r="K10" s="310"/>
+      <c r="L10" s="310"/>
+      <c r="M10" s="310"/>
+      <c r="N10" s="310"/>
+      <c r="O10" s="310"/>
+      <c r="P10" s="311"/>
+      <c r="Q10" s="312"/>
+      <c r="R10" s="313"/>
+      <c r="S10" s="313"/>
+      <c r="T10" s="313"/>
+      <c r="U10" s="313"/>
+      <c r="V10" s="313"/>
+      <c r="W10" s="313"/>
+      <c r="X10" s="313"/>
+      <c r="Y10" s="313"/>
+      <c r="Z10" s="313"/>
+      <c r="AA10" s="313"/>
+      <c r="AB10" s="313"/>
+      <c r="AC10" s="313"/>
+      <c r="AD10" s="313"/>
+      <c r="AE10" s="314"/>
+      <c r="AF10" s="309"/>
+      <c r="AG10" s="310"/>
+      <c r="AH10" s="310"/>
+      <c r="AI10" s="311"/>
     </row>
     <row r="11" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="58"/>
-      <c r="B11" s="339"/>
-      <c r="C11" s="340"/>
-      <c r="D11" s="341"/>
-      <c r="E11" s="342"/>
-      <c r="F11" s="343"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="344"/>
-      <c r="I11" s="340"/>
-      <c r="J11" s="345"/>
-      <c r="K11" s="346"/>
-      <c r="L11" s="346"/>
-      <c r="M11" s="346"/>
-      <c r="N11" s="346"/>
-      <c r="O11" s="346"/>
-      <c r="P11" s="347"/>
-      <c r="Q11" s="348"/>
-      <c r="R11" s="349"/>
-      <c r="S11" s="349"/>
-      <c r="T11" s="349"/>
-      <c r="U11" s="349"/>
-      <c r="V11" s="349"/>
-      <c r="W11" s="349"/>
-      <c r="X11" s="349"/>
-      <c r="Y11" s="349"/>
-      <c r="Z11" s="349"/>
-      <c r="AA11" s="349"/>
-      <c r="AB11" s="349"/>
-      <c r="AC11" s="349"/>
-      <c r="AD11" s="349"/>
-      <c r="AE11" s="350"/>
-      <c r="AF11" s="345"/>
-      <c r="AG11" s="346"/>
-      <c r="AH11" s="346"/>
-      <c r="AI11" s="347"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="305"/>
+      <c r="E11" s="306"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="308"/>
+      <c r="I11" s="304"/>
+      <c r="J11" s="309"/>
+      <c r="K11" s="310"/>
+      <c r="L11" s="310"/>
+      <c r="M11" s="310"/>
+      <c r="N11" s="310"/>
+      <c r="O11" s="310"/>
+      <c r="P11" s="311"/>
+      <c r="Q11" s="312"/>
+      <c r="R11" s="313"/>
+      <c r="S11" s="313"/>
+      <c r="T11" s="313"/>
+      <c r="U11" s="313"/>
+      <c r="V11" s="313"/>
+      <c r="W11" s="313"/>
+      <c r="X11" s="313"/>
+      <c r="Y11" s="313"/>
+      <c r="Z11" s="313"/>
+      <c r="AA11" s="313"/>
+      <c r="AB11" s="313"/>
+      <c r="AC11" s="313"/>
+      <c r="AD11" s="313"/>
+      <c r="AE11" s="314"/>
+      <c r="AF11" s="309"/>
+      <c r="AG11" s="310"/>
+      <c r="AH11" s="310"/>
+      <c r="AI11" s="311"/>
     </row>
     <row r="12" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="58"/>
-      <c r="B12" s="339"/>
-      <c r="C12" s="340"/>
-      <c r="D12" s="341"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="343"/>
-      <c r="G12" s="339"/>
-      <c r="H12" s="344"/>
-      <c r="I12" s="340"/>
-      <c r="J12" s="345"/>
-      <c r="K12" s="346"/>
-      <c r="L12" s="346"/>
-      <c r="M12" s="346"/>
-      <c r="N12" s="346"/>
-      <c r="O12" s="346"/>
-      <c r="P12" s="347"/>
-      <c r="Q12" s="348"/>
-      <c r="R12" s="349"/>
-      <c r="S12" s="349"/>
-      <c r="T12" s="349"/>
-      <c r="U12" s="349"/>
-      <c r="V12" s="349"/>
-      <c r="W12" s="349"/>
-      <c r="X12" s="349"/>
-      <c r="Y12" s="349"/>
-      <c r="Z12" s="349"/>
-      <c r="AA12" s="349"/>
-      <c r="AB12" s="349"/>
-      <c r="AC12" s="349"/>
-      <c r="AD12" s="349"/>
-      <c r="AE12" s="350"/>
-      <c r="AF12" s="345"/>
-      <c r="AG12" s="346"/>
-      <c r="AH12" s="346"/>
-      <c r="AI12" s="347"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="304"/>
+      <c r="D12" s="305"/>
+      <c r="E12" s="306"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="303"/>
+      <c r="H12" s="308"/>
+      <c r="I12" s="304"/>
+      <c r="J12" s="309"/>
+      <c r="K12" s="310"/>
+      <c r="L12" s="310"/>
+      <c r="M12" s="310"/>
+      <c r="N12" s="310"/>
+      <c r="O12" s="310"/>
+      <c r="P12" s="311"/>
+      <c r="Q12" s="312"/>
+      <c r="R12" s="313"/>
+      <c r="S12" s="313"/>
+      <c r="T12" s="313"/>
+      <c r="U12" s="313"/>
+      <c r="V12" s="313"/>
+      <c r="W12" s="313"/>
+      <c r="X12" s="313"/>
+      <c r="Y12" s="313"/>
+      <c r="Z12" s="313"/>
+      <c r="AA12" s="313"/>
+      <c r="AB12" s="313"/>
+      <c r="AC12" s="313"/>
+      <c r="AD12" s="313"/>
+      <c r="AE12" s="314"/>
+      <c r="AF12" s="309"/>
+      <c r="AG12" s="310"/>
+      <c r="AH12" s="310"/>
+      <c r="AI12" s="311"/>
     </row>
     <row r="13" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="58"/>
-      <c r="B13" s="339"/>
-      <c r="C13" s="340"/>
-      <c r="D13" s="341"/>
-      <c r="E13" s="342"/>
-      <c r="F13" s="343"/>
-      <c r="G13" s="339"/>
-      <c r="H13" s="344"/>
-      <c r="I13" s="340"/>
-      <c r="J13" s="345"/>
-      <c r="K13" s="346"/>
-      <c r="L13" s="346"/>
-      <c r="M13" s="346"/>
-      <c r="N13" s="346"/>
-      <c r="O13" s="346"/>
-      <c r="P13" s="347"/>
-      <c r="Q13" s="348"/>
-      <c r="R13" s="349"/>
-      <c r="S13" s="349"/>
-      <c r="T13" s="349"/>
-      <c r="U13" s="349"/>
-      <c r="V13" s="349"/>
-      <c r="W13" s="349"/>
-      <c r="X13" s="349"/>
-      <c r="Y13" s="349"/>
-      <c r="Z13" s="349"/>
-      <c r="AA13" s="349"/>
-      <c r="AB13" s="349"/>
-      <c r="AC13" s="349"/>
-      <c r="AD13" s="349"/>
-      <c r="AE13" s="350"/>
-      <c r="AF13" s="345"/>
-      <c r="AG13" s="346"/>
-      <c r="AH13" s="346"/>
-      <c r="AI13" s="347"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="305"/>
+      <c r="E13" s="306"/>
+      <c r="F13" s="307"/>
+      <c r="G13" s="303"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="304"/>
+      <c r="J13" s="309"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="310"/>
+      <c r="M13" s="310"/>
+      <c r="N13" s="310"/>
+      <c r="O13" s="310"/>
+      <c r="P13" s="311"/>
+      <c r="Q13" s="312"/>
+      <c r="R13" s="313"/>
+      <c r="S13" s="313"/>
+      <c r="T13" s="313"/>
+      <c r="U13" s="313"/>
+      <c r="V13" s="313"/>
+      <c r="W13" s="313"/>
+      <c r="X13" s="313"/>
+      <c r="Y13" s="313"/>
+      <c r="Z13" s="313"/>
+      <c r="AA13" s="313"/>
+      <c r="AB13" s="313"/>
+      <c r="AC13" s="313"/>
+      <c r="AD13" s="313"/>
+      <c r="AE13" s="314"/>
+      <c r="AF13" s="309"/>
+      <c r="AG13" s="310"/>
+      <c r="AH13" s="310"/>
+      <c r="AI13" s="311"/>
     </row>
     <row r="14" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="339"/>
-      <c r="C14" s="340"/>
-      <c r="D14" s="341"/>
-      <c r="E14" s="342"/>
-      <c r="F14" s="343"/>
-      <c r="G14" s="339"/>
-      <c r="H14" s="344"/>
-      <c r="I14" s="340"/>
-      <c r="J14" s="345"/>
-      <c r="K14" s="346"/>
-      <c r="L14" s="346"/>
-      <c r="M14" s="346"/>
-      <c r="N14" s="346"/>
-      <c r="O14" s="346"/>
-      <c r="P14" s="347"/>
-      <c r="Q14" s="348"/>
-      <c r="R14" s="349"/>
-      <c r="S14" s="349"/>
-      <c r="T14" s="349"/>
-      <c r="U14" s="349"/>
-      <c r="V14" s="349"/>
-      <c r="W14" s="349"/>
-      <c r="X14" s="349"/>
-      <c r="Y14" s="349"/>
-      <c r="Z14" s="349"/>
-      <c r="AA14" s="349"/>
-      <c r="AB14" s="349"/>
-      <c r="AC14" s="349"/>
-      <c r="AD14" s="349"/>
-      <c r="AE14" s="350"/>
-      <c r="AF14" s="345"/>
-      <c r="AG14" s="346"/>
-      <c r="AH14" s="346"/>
-      <c r="AI14" s="347"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="304"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="307"/>
+      <c r="G14" s="303"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="304"/>
+      <c r="J14" s="309"/>
+      <c r="K14" s="310"/>
+      <c r="L14" s="310"/>
+      <c r="M14" s="310"/>
+      <c r="N14" s="310"/>
+      <c r="O14" s="310"/>
+      <c r="P14" s="311"/>
+      <c r="Q14" s="312"/>
+      <c r="R14" s="313"/>
+      <c r="S14" s="313"/>
+      <c r="T14" s="313"/>
+      <c r="U14" s="313"/>
+      <c r="V14" s="313"/>
+      <c r="W14" s="313"/>
+      <c r="X14" s="313"/>
+      <c r="Y14" s="313"/>
+      <c r="Z14" s="313"/>
+      <c r="AA14" s="313"/>
+      <c r="AB14" s="313"/>
+      <c r="AC14" s="313"/>
+      <c r="AD14" s="313"/>
+      <c r="AE14" s="314"/>
+      <c r="AF14" s="309"/>
+      <c r="AG14" s="310"/>
+      <c r="AH14" s="310"/>
+      <c r="AI14" s="311"/>
     </row>
     <row r="15" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="339"/>
-      <c r="C15" s="340"/>
-      <c r="D15" s="341"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="343"/>
-      <c r="G15" s="339"/>
-      <c r="H15" s="344"/>
-      <c r="I15" s="340"/>
-      <c r="J15" s="345"/>
-      <c r="K15" s="346"/>
-      <c r="L15" s="346"/>
-      <c r="M15" s="346"/>
-      <c r="N15" s="346"/>
-      <c r="O15" s="346"/>
-      <c r="P15" s="347"/>
-      <c r="Q15" s="348"/>
-      <c r="R15" s="349"/>
-      <c r="S15" s="349"/>
-      <c r="T15" s="349"/>
-      <c r="U15" s="349"/>
-      <c r="V15" s="349"/>
-      <c r="W15" s="349"/>
-      <c r="X15" s="349"/>
-      <c r="Y15" s="349"/>
-      <c r="Z15" s="349"/>
-      <c r="AA15" s="349"/>
-      <c r="AB15" s="349"/>
-      <c r="AC15" s="349"/>
-      <c r="AD15" s="349"/>
-      <c r="AE15" s="350"/>
-      <c r="AF15" s="345"/>
-      <c r="AG15" s="346"/>
-      <c r="AH15" s="346"/>
-      <c r="AI15" s="347"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="305"/>
+      <c r="E15" s="306"/>
+      <c r="F15" s="307"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="304"/>
+      <c r="J15" s="309"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
+      <c r="M15" s="310"/>
+      <c r="N15" s="310"/>
+      <c r="O15" s="310"/>
+      <c r="P15" s="311"/>
+      <c r="Q15" s="312"/>
+      <c r="R15" s="313"/>
+      <c r="S15" s="313"/>
+      <c r="T15" s="313"/>
+      <c r="U15" s="313"/>
+      <c r="V15" s="313"/>
+      <c r="W15" s="313"/>
+      <c r="X15" s="313"/>
+      <c r="Y15" s="313"/>
+      <c r="Z15" s="313"/>
+      <c r="AA15" s="313"/>
+      <c r="AB15" s="313"/>
+      <c r="AC15" s="313"/>
+      <c r="AD15" s="313"/>
+      <c r="AE15" s="314"/>
+      <c r="AF15" s="309"/>
+      <c r="AG15" s="310"/>
+      <c r="AH15" s="310"/>
+      <c r="AI15" s="311"/>
     </row>
     <row r="16" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="58"/>
-      <c r="B16" s="339"/>
-      <c r="C16" s="340"/>
-      <c r="D16" s="341"/>
-      <c r="E16" s="342"/>
-      <c r="F16" s="343"/>
-      <c r="G16" s="339"/>
-      <c r="H16" s="344"/>
-      <c r="I16" s="340"/>
-      <c r="J16" s="345"/>
-      <c r="K16" s="346"/>
-      <c r="L16" s="346"/>
-      <c r="M16" s="346"/>
-      <c r="N16" s="346"/>
-      <c r="O16" s="346"/>
-      <c r="P16" s="347"/>
-      <c r="Q16" s="348"/>
-      <c r="R16" s="349"/>
-      <c r="S16" s="349"/>
-      <c r="T16" s="349"/>
-      <c r="U16" s="349"/>
-      <c r="V16" s="349"/>
-      <c r="W16" s="349"/>
-      <c r="X16" s="349"/>
-      <c r="Y16" s="349"/>
-      <c r="Z16" s="349"/>
-      <c r="AA16" s="349"/>
-      <c r="AB16" s="349"/>
-      <c r="AC16" s="349"/>
-      <c r="AD16" s="349"/>
-      <c r="AE16" s="350"/>
-      <c r="AF16" s="345"/>
-      <c r="AG16" s="346"/>
-      <c r="AH16" s="346"/>
-      <c r="AI16" s="347"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="305"/>
+      <c r="E16" s="306"/>
+      <c r="F16" s="307"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="304"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
+      <c r="M16" s="310"/>
+      <c r="N16" s="310"/>
+      <c r="O16" s="310"/>
+      <c r="P16" s="311"/>
+      <c r="Q16" s="312"/>
+      <c r="R16" s="313"/>
+      <c r="S16" s="313"/>
+      <c r="T16" s="313"/>
+      <c r="U16" s="313"/>
+      <c r="V16" s="313"/>
+      <c r="W16" s="313"/>
+      <c r="X16" s="313"/>
+      <c r="Y16" s="313"/>
+      <c r="Z16" s="313"/>
+      <c r="AA16" s="313"/>
+      <c r="AB16" s="313"/>
+      <c r="AC16" s="313"/>
+      <c r="AD16" s="313"/>
+      <c r="AE16" s="314"/>
+      <c r="AF16" s="309"/>
+      <c r="AG16" s="310"/>
+      <c r="AH16" s="310"/>
+      <c r="AI16" s="311"/>
     </row>
     <row r="17" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="58"/>
-      <c r="B17" s="339"/>
-      <c r="C17" s="340"/>
-      <c r="D17" s="341"/>
-      <c r="E17" s="342"/>
-      <c r="F17" s="343"/>
-      <c r="G17" s="339"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="340"/>
-      <c r="J17" s="345"/>
-      <c r="K17" s="346"/>
-      <c r="L17" s="346"/>
-      <c r="M17" s="346"/>
-      <c r="N17" s="346"/>
-      <c r="O17" s="346"/>
-      <c r="P17" s="347"/>
-      <c r="Q17" s="348"/>
-      <c r="R17" s="349"/>
-      <c r="S17" s="349"/>
-      <c r="T17" s="349"/>
-      <c r="U17" s="349"/>
-      <c r="V17" s="349"/>
-      <c r="W17" s="349"/>
-      <c r="X17" s="349"/>
-      <c r="Y17" s="349"/>
-      <c r="Z17" s="349"/>
-      <c r="AA17" s="349"/>
-      <c r="AB17" s="349"/>
-      <c r="AC17" s="349"/>
-      <c r="AD17" s="349"/>
-      <c r="AE17" s="350"/>
-      <c r="AF17" s="345"/>
-      <c r="AG17" s="346"/>
-      <c r="AH17" s="346"/>
-      <c r="AI17" s="347"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="305"/>
+      <c r="E17" s="306"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="308"/>
+      <c r="I17" s="304"/>
+      <c r="J17" s="309"/>
+      <c r="K17" s="310"/>
+      <c r="L17" s="310"/>
+      <c r="M17" s="310"/>
+      <c r="N17" s="310"/>
+      <c r="O17" s="310"/>
+      <c r="P17" s="311"/>
+      <c r="Q17" s="312"/>
+      <c r="R17" s="313"/>
+      <c r="S17" s="313"/>
+      <c r="T17" s="313"/>
+      <c r="U17" s="313"/>
+      <c r="V17" s="313"/>
+      <c r="W17" s="313"/>
+      <c r="X17" s="313"/>
+      <c r="Y17" s="313"/>
+      <c r="Z17" s="313"/>
+      <c r="AA17" s="313"/>
+      <c r="AB17" s="313"/>
+      <c r="AC17" s="313"/>
+      <c r="AD17" s="313"/>
+      <c r="AE17" s="314"/>
+      <c r="AF17" s="309"/>
+      <c r="AG17" s="310"/>
+      <c r="AH17" s="310"/>
+      <c r="AI17" s="311"/>
     </row>
     <row r="18" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="339"/>
-      <c r="C18" s="340"/>
-      <c r="D18" s="341"/>
-      <c r="E18" s="342"/>
-      <c r="F18" s="343"/>
-      <c r="G18" s="339"/>
-      <c r="H18" s="344"/>
-      <c r="I18" s="340"/>
-      <c r="J18" s="345"/>
-      <c r="K18" s="346"/>
-      <c r="L18" s="346"/>
-      <c r="M18" s="346"/>
-      <c r="N18" s="346"/>
-      <c r="O18" s="346"/>
-      <c r="P18" s="347"/>
-      <c r="Q18" s="348"/>
-      <c r="R18" s="349"/>
-      <c r="S18" s="349"/>
-      <c r="T18" s="349"/>
-      <c r="U18" s="349"/>
-      <c r="V18" s="349"/>
-      <c r="W18" s="349"/>
-      <c r="X18" s="349"/>
-      <c r="Y18" s="349"/>
-      <c r="Z18" s="349"/>
-      <c r="AA18" s="349"/>
-      <c r="AB18" s="349"/>
-      <c r="AC18" s="349"/>
-      <c r="AD18" s="349"/>
-      <c r="AE18" s="350"/>
-      <c r="AF18" s="345"/>
-      <c r="AG18" s="346"/>
-      <c r="AH18" s="346"/>
-      <c r="AI18" s="347"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="305"/>
+      <c r="E18" s="306"/>
+      <c r="F18" s="307"/>
+      <c r="G18" s="303"/>
+      <c r="H18" s="308"/>
+      <c r="I18" s="304"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="310"/>
+      <c r="L18" s="310"/>
+      <c r="M18" s="310"/>
+      <c r="N18" s="310"/>
+      <c r="O18" s="310"/>
+      <c r="P18" s="311"/>
+      <c r="Q18" s="312"/>
+      <c r="R18" s="313"/>
+      <c r="S18" s="313"/>
+      <c r="T18" s="313"/>
+      <c r="U18" s="313"/>
+      <c r="V18" s="313"/>
+      <c r="W18" s="313"/>
+      <c r="X18" s="313"/>
+      <c r="Y18" s="313"/>
+      <c r="Z18" s="313"/>
+      <c r="AA18" s="313"/>
+      <c r="AB18" s="313"/>
+      <c r="AC18" s="313"/>
+      <c r="AD18" s="313"/>
+      <c r="AE18" s="314"/>
+      <c r="AF18" s="309"/>
+      <c r="AG18" s="310"/>
+      <c r="AH18" s="310"/>
+      <c r="AI18" s="311"/>
     </row>
     <row r="19" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="58"/>
-      <c r="B19" s="339"/>
-      <c r="C19" s="340"/>
-      <c r="D19" s="341"/>
-      <c r="E19" s="342"/>
-      <c r="F19" s="343"/>
-      <c r="G19" s="339"/>
-      <c r="H19" s="344"/>
-      <c r="I19" s="340"/>
-      <c r="J19" s="345"/>
-      <c r="K19" s="346"/>
-      <c r="L19" s="346"/>
-      <c r="M19" s="346"/>
-      <c r="N19" s="346"/>
-      <c r="O19" s="346"/>
-      <c r="P19" s="347"/>
-      <c r="Q19" s="348"/>
-      <c r="R19" s="349"/>
-      <c r="S19" s="349"/>
-      <c r="T19" s="349"/>
-      <c r="U19" s="349"/>
-      <c r="V19" s="349"/>
-      <c r="W19" s="349"/>
-      <c r="X19" s="349"/>
-      <c r="Y19" s="349"/>
-      <c r="Z19" s="349"/>
-      <c r="AA19" s="349"/>
-      <c r="AB19" s="349"/>
-      <c r="AC19" s="349"/>
-      <c r="AD19" s="349"/>
-      <c r="AE19" s="350"/>
-      <c r="AF19" s="345"/>
-      <c r="AG19" s="346"/>
-      <c r="AH19" s="346"/>
-      <c r="AI19" s="347"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="304"/>
+      <c r="D19" s="305"/>
+      <c r="E19" s="306"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="308"/>
+      <c r="I19" s="304"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="310"/>
+      <c r="L19" s="310"/>
+      <c r="M19" s="310"/>
+      <c r="N19" s="310"/>
+      <c r="O19" s="310"/>
+      <c r="P19" s="311"/>
+      <c r="Q19" s="312"/>
+      <c r="R19" s="313"/>
+      <c r="S19" s="313"/>
+      <c r="T19" s="313"/>
+      <c r="U19" s="313"/>
+      <c r="V19" s="313"/>
+      <c r="W19" s="313"/>
+      <c r="X19" s="313"/>
+      <c r="Y19" s="313"/>
+      <c r="Z19" s="313"/>
+      <c r="AA19" s="313"/>
+      <c r="AB19" s="313"/>
+      <c r="AC19" s="313"/>
+      <c r="AD19" s="313"/>
+      <c r="AE19" s="314"/>
+      <c r="AF19" s="309"/>
+      <c r="AG19" s="310"/>
+      <c r="AH19" s="310"/>
+      <c r="AI19" s="311"/>
     </row>
     <row r="20" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="58"/>
-      <c r="B20" s="339"/>
-      <c r="C20" s="340"/>
-      <c r="D20" s="341"/>
-      <c r="E20" s="342"/>
-      <c r="F20" s="343"/>
-      <c r="G20" s="339"/>
-      <c r="H20" s="344"/>
-      <c r="I20" s="340"/>
-      <c r="J20" s="345"/>
-      <c r="K20" s="346"/>
-      <c r="L20" s="346"/>
-      <c r="M20" s="346"/>
-      <c r="N20" s="346"/>
-      <c r="O20" s="346"/>
-      <c r="P20" s="347"/>
-      <c r="Q20" s="348"/>
-      <c r="R20" s="349"/>
-      <c r="S20" s="349"/>
-      <c r="T20" s="349"/>
-      <c r="U20" s="349"/>
-      <c r="V20" s="349"/>
-      <c r="W20" s="349"/>
-      <c r="X20" s="349"/>
-      <c r="Y20" s="349"/>
-      <c r="Z20" s="349"/>
-      <c r="AA20" s="349"/>
-      <c r="AB20" s="349"/>
-      <c r="AC20" s="349"/>
-      <c r="AD20" s="349"/>
-      <c r="AE20" s="350"/>
-      <c r="AF20" s="345"/>
-      <c r="AG20" s="346"/>
-      <c r="AH20" s="346"/>
-      <c r="AI20" s="347"/>
+      <c r="B20" s="303"/>
+      <c r="C20" s="304"/>
+      <c r="D20" s="305"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="307"/>
+      <c r="G20" s="303"/>
+      <c r="H20" s="308"/>
+      <c r="I20" s="304"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="310"/>
+      <c r="L20" s="310"/>
+      <c r="M20" s="310"/>
+      <c r="N20" s="310"/>
+      <c r="O20" s="310"/>
+      <c r="P20" s="311"/>
+      <c r="Q20" s="312"/>
+      <c r="R20" s="313"/>
+      <c r="S20" s="313"/>
+      <c r="T20" s="313"/>
+      <c r="U20" s="313"/>
+      <c r="V20" s="313"/>
+      <c r="W20" s="313"/>
+      <c r="X20" s="313"/>
+      <c r="Y20" s="313"/>
+      <c r="Z20" s="313"/>
+      <c r="AA20" s="313"/>
+      <c r="AB20" s="313"/>
+      <c r="AC20" s="313"/>
+      <c r="AD20" s="313"/>
+      <c r="AE20" s="314"/>
+      <c r="AF20" s="309"/>
+      <c r="AG20" s="310"/>
+      <c r="AH20" s="310"/>
+      <c r="AI20" s="311"/>
     </row>
     <row r="21" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="58"/>
-      <c r="B21" s="339"/>
-      <c r="C21" s="340"/>
-      <c r="D21" s="341"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="343"/>
-      <c r="G21" s="339"/>
-      <c r="H21" s="344"/>
-      <c r="I21" s="340"/>
-      <c r="J21" s="345"/>
-      <c r="K21" s="346"/>
-      <c r="L21" s="346"/>
-      <c r="M21" s="346"/>
-      <c r="N21" s="346"/>
-      <c r="O21" s="346"/>
-      <c r="P21" s="347"/>
-      <c r="Q21" s="348"/>
-      <c r="R21" s="349"/>
-      <c r="S21" s="349"/>
-      <c r="T21" s="349"/>
-      <c r="U21" s="349"/>
-      <c r="V21" s="349"/>
-      <c r="W21" s="349"/>
-      <c r="X21" s="349"/>
-      <c r="Y21" s="349"/>
-      <c r="Z21" s="349"/>
-      <c r="AA21" s="349"/>
-      <c r="AB21" s="349"/>
-      <c r="AC21" s="349"/>
-      <c r="AD21" s="349"/>
-      <c r="AE21" s="350"/>
-      <c r="AF21" s="345"/>
-      <c r="AG21" s="346"/>
-      <c r="AH21" s="346"/>
-      <c r="AI21" s="347"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="304"/>
+      <c r="D21" s="305"/>
+      <c r="E21" s="306"/>
+      <c r="F21" s="307"/>
+      <c r="G21" s="303"/>
+      <c r="H21" s="308"/>
+      <c r="I21" s="304"/>
+      <c r="J21" s="309"/>
+      <c r="K21" s="310"/>
+      <c r="L21" s="310"/>
+      <c r="M21" s="310"/>
+      <c r="N21" s="310"/>
+      <c r="O21" s="310"/>
+      <c r="P21" s="311"/>
+      <c r="Q21" s="312"/>
+      <c r="R21" s="313"/>
+      <c r="S21" s="313"/>
+      <c r="T21" s="313"/>
+      <c r="U21" s="313"/>
+      <c r="V21" s="313"/>
+      <c r="W21" s="313"/>
+      <c r="X21" s="313"/>
+      <c r="Y21" s="313"/>
+      <c r="Z21" s="313"/>
+      <c r="AA21" s="313"/>
+      <c r="AB21" s="313"/>
+      <c r="AC21" s="313"/>
+      <c r="AD21" s="313"/>
+      <c r="AE21" s="314"/>
+      <c r="AF21" s="309"/>
+      <c r="AG21" s="310"/>
+      <c r="AH21" s="310"/>
+      <c r="AI21" s="311"/>
     </row>
     <row r="22" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="339"/>
-      <c r="C22" s="340"/>
-      <c r="D22" s="341"/>
-      <c r="E22" s="342"/>
-      <c r="F22" s="343"/>
-      <c r="G22" s="339"/>
-      <c r="H22" s="344"/>
-      <c r="I22" s="340"/>
-      <c r="J22" s="345"/>
-      <c r="K22" s="346"/>
-      <c r="L22" s="346"/>
-      <c r="M22" s="346"/>
-      <c r="N22" s="346"/>
-      <c r="O22" s="346"/>
-      <c r="P22" s="347"/>
-      <c r="Q22" s="348"/>
-      <c r="R22" s="349"/>
-      <c r="S22" s="349"/>
-      <c r="T22" s="349"/>
-      <c r="U22" s="349"/>
-      <c r="V22" s="349"/>
-      <c r="W22" s="349"/>
-      <c r="X22" s="349"/>
-      <c r="Y22" s="349"/>
-      <c r="Z22" s="349"/>
-      <c r="AA22" s="349"/>
-      <c r="AB22" s="349"/>
-      <c r="AC22" s="349"/>
-      <c r="AD22" s="349"/>
-      <c r="AE22" s="350"/>
-      <c r="AF22" s="345"/>
-      <c r="AG22" s="346"/>
-      <c r="AH22" s="346"/>
-      <c r="AI22" s="347"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="304"/>
+      <c r="D22" s="305"/>
+      <c r="E22" s="306"/>
+      <c r="F22" s="307"/>
+      <c r="G22" s="303"/>
+      <c r="H22" s="308"/>
+      <c r="I22" s="304"/>
+      <c r="J22" s="309"/>
+      <c r="K22" s="310"/>
+      <c r="L22" s="310"/>
+      <c r="M22" s="310"/>
+      <c r="N22" s="310"/>
+      <c r="O22" s="310"/>
+      <c r="P22" s="311"/>
+      <c r="Q22" s="312"/>
+      <c r="R22" s="313"/>
+      <c r="S22" s="313"/>
+      <c r="T22" s="313"/>
+      <c r="U22" s="313"/>
+      <c r="V22" s="313"/>
+      <c r="W22" s="313"/>
+      <c r="X22" s="313"/>
+      <c r="Y22" s="313"/>
+      <c r="Z22" s="313"/>
+      <c r="AA22" s="313"/>
+      <c r="AB22" s="313"/>
+      <c r="AC22" s="313"/>
+      <c r="AD22" s="313"/>
+      <c r="AE22" s="314"/>
+      <c r="AF22" s="309"/>
+      <c r="AG22" s="310"/>
+      <c r="AH22" s="310"/>
+      <c r="AI22" s="311"/>
     </row>
     <row r="23" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="339"/>
-      <c r="C23" s="340"/>
-      <c r="D23" s="341"/>
-      <c r="E23" s="342"/>
-      <c r="F23" s="343"/>
-      <c r="G23" s="339"/>
-      <c r="H23" s="344"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="345"/>
-      <c r="K23" s="346"/>
-      <c r="L23" s="346"/>
-      <c r="M23" s="346"/>
-      <c r="N23" s="346"/>
-      <c r="O23" s="346"/>
-      <c r="P23" s="347"/>
-      <c r="Q23" s="348"/>
-      <c r="R23" s="349"/>
-      <c r="S23" s="349"/>
-      <c r="T23" s="349"/>
-      <c r="U23" s="349"/>
-      <c r="V23" s="349"/>
-      <c r="W23" s="349"/>
-      <c r="X23" s="349"/>
-      <c r="Y23" s="349"/>
-      <c r="Z23" s="349"/>
-      <c r="AA23" s="349"/>
-      <c r="AB23" s="349"/>
-      <c r="AC23" s="349"/>
-      <c r="AD23" s="349"/>
-      <c r="AE23" s="350"/>
-      <c r="AF23" s="345"/>
-      <c r="AG23" s="346"/>
-      <c r="AH23" s="346"/>
-      <c r="AI23" s="347"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="304"/>
+      <c r="D23" s="305"/>
+      <c r="E23" s="306"/>
+      <c r="F23" s="307"/>
+      <c r="G23" s="303"/>
+      <c r="H23" s="308"/>
+      <c r="I23" s="304"/>
+      <c r="J23" s="309"/>
+      <c r="K23" s="310"/>
+      <c r="L23" s="310"/>
+      <c r="M23" s="310"/>
+      <c r="N23" s="310"/>
+      <c r="O23" s="310"/>
+      <c r="P23" s="311"/>
+      <c r="Q23" s="312"/>
+      <c r="R23" s="313"/>
+      <c r="S23" s="313"/>
+      <c r="T23" s="313"/>
+      <c r="U23" s="313"/>
+      <c r="V23" s="313"/>
+      <c r="W23" s="313"/>
+      <c r="X23" s="313"/>
+      <c r="Y23" s="313"/>
+      <c r="Z23" s="313"/>
+      <c r="AA23" s="313"/>
+      <c r="AB23" s="313"/>
+      <c r="AC23" s="313"/>
+      <c r="AD23" s="313"/>
+      <c r="AE23" s="314"/>
+      <c r="AF23" s="309"/>
+      <c r="AG23" s="310"/>
+      <c r="AH23" s="310"/>
+      <c r="AI23" s="311"/>
     </row>
     <row r="24" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="339"/>
-      <c r="C24" s="340"/>
-      <c r="D24" s="341"/>
-      <c r="E24" s="342"/>
-      <c r="F24" s="343"/>
-      <c r="G24" s="339"/>
-      <c r="H24" s="344"/>
-      <c r="I24" s="340"/>
-      <c r="J24" s="345"/>
-      <c r="K24" s="346"/>
-      <c r="L24" s="346"/>
-      <c r="M24" s="346"/>
-      <c r="N24" s="346"/>
-      <c r="O24" s="346"/>
-      <c r="P24" s="347"/>
-      <c r="Q24" s="348"/>
-      <c r="R24" s="349"/>
-      <c r="S24" s="349"/>
-      <c r="T24" s="349"/>
-      <c r="U24" s="349"/>
-      <c r="V24" s="349"/>
-      <c r="W24" s="349"/>
-      <c r="X24" s="349"/>
-      <c r="Y24" s="349"/>
-      <c r="Z24" s="349"/>
-      <c r="AA24" s="349"/>
-      <c r="AB24" s="349"/>
-      <c r="AC24" s="349"/>
-      <c r="AD24" s="349"/>
-      <c r="AE24" s="350"/>
-      <c r="AF24" s="345"/>
-      <c r="AG24" s="346"/>
-      <c r="AH24" s="346"/>
-      <c r="AI24" s="347"/>
+      <c r="B24" s="303"/>
+      <c r="C24" s="304"/>
+      <c r="D24" s="305"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="307"/>
+      <c r="G24" s="303"/>
+      <c r="H24" s="308"/>
+      <c r="I24" s="304"/>
+      <c r="J24" s="309"/>
+      <c r="K24" s="310"/>
+      <c r="L24" s="310"/>
+      <c r="M24" s="310"/>
+      <c r="N24" s="310"/>
+      <c r="O24" s="310"/>
+      <c r="P24" s="311"/>
+      <c r="Q24" s="312"/>
+      <c r="R24" s="313"/>
+      <c r="S24" s="313"/>
+      <c r="T24" s="313"/>
+      <c r="U24" s="313"/>
+      <c r="V24" s="313"/>
+      <c r="W24" s="313"/>
+      <c r="X24" s="313"/>
+      <c r="Y24" s="313"/>
+      <c r="Z24" s="313"/>
+      <c r="AA24" s="313"/>
+      <c r="AB24" s="313"/>
+      <c r="AC24" s="313"/>
+      <c r="AD24" s="313"/>
+      <c r="AE24" s="314"/>
+      <c r="AF24" s="309"/>
+      <c r="AG24" s="310"/>
+      <c r="AH24" s="310"/>
+      <c r="AI24" s="311"/>
     </row>
     <row r="25" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="58"/>
-      <c r="B25" s="339"/>
-      <c r="C25" s="340"/>
-      <c r="D25" s="341"/>
-      <c r="E25" s="342"/>
-      <c r="F25" s="343"/>
-      <c r="G25" s="339"/>
-      <c r="H25" s="344"/>
-      <c r="I25" s="340"/>
-      <c r="J25" s="345"/>
-      <c r="K25" s="346"/>
-      <c r="L25" s="346"/>
-      <c r="M25" s="346"/>
-      <c r="N25" s="346"/>
-      <c r="O25" s="346"/>
-      <c r="P25" s="347"/>
-      <c r="Q25" s="348"/>
-      <c r="R25" s="349"/>
-      <c r="S25" s="349"/>
-      <c r="T25" s="349"/>
-      <c r="U25" s="349"/>
-      <c r="V25" s="349"/>
-      <c r="W25" s="349"/>
-      <c r="X25" s="349"/>
-      <c r="Y25" s="349"/>
-      <c r="Z25" s="349"/>
-      <c r="AA25" s="349"/>
-      <c r="AB25" s="349"/>
-      <c r="AC25" s="349"/>
-      <c r="AD25" s="349"/>
-      <c r="AE25" s="350"/>
-      <c r="AF25" s="345"/>
-      <c r="AG25" s="346"/>
-      <c r="AH25" s="346"/>
-      <c r="AI25" s="347"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="304"/>
+      <c r="D25" s="305"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="307"/>
+      <c r="G25" s="303"/>
+      <c r="H25" s="308"/>
+      <c r="I25" s="304"/>
+      <c r="J25" s="309"/>
+      <c r="K25" s="310"/>
+      <c r="L25" s="310"/>
+      <c r="M25" s="310"/>
+      <c r="N25" s="310"/>
+      <c r="O25" s="310"/>
+      <c r="P25" s="311"/>
+      <c r="Q25" s="312"/>
+      <c r="R25" s="313"/>
+      <c r="S25" s="313"/>
+      <c r="T25" s="313"/>
+      <c r="U25" s="313"/>
+      <c r="V25" s="313"/>
+      <c r="W25" s="313"/>
+      <c r="X25" s="313"/>
+      <c r="Y25" s="313"/>
+      <c r="Z25" s="313"/>
+      <c r="AA25" s="313"/>
+      <c r="AB25" s="313"/>
+      <c r="AC25" s="313"/>
+      <c r="AD25" s="313"/>
+      <c r="AE25" s="314"/>
+      <c r="AF25" s="309"/>
+      <c r="AG25" s="310"/>
+      <c r="AH25" s="310"/>
+      <c r="AI25" s="311"/>
     </row>
     <row r="26" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="58"/>
-      <c r="B26" s="339"/>
-      <c r="C26" s="340"/>
-      <c r="D26" s="341"/>
-      <c r="E26" s="342"/>
-      <c r="F26" s="343"/>
-      <c r="G26" s="339"/>
-      <c r="H26" s="344"/>
-      <c r="I26" s="340"/>
-      <c r="J26" s="345"/>
-      <c r="K26" s="346"/>
-      <c r="L26" s="346"/>
-      <c r="M26" s="346"/>
-      <c r="N26" s="346"/>
-      <c r="O26" s="346"/>
-      <c r="P26" s="347"/>
-      <c r="Q26" s="348"/>
-      <c r="R26" s="349"/>
-      <c r="S26" s="349"/>
-      <c r="T26" s="349"/>
-      <c r="U26" s="349"/>
-      <c r="V26" s="349"/>
-      <c r="W26" s="349"/>
-      <c r="X26" s="349"/>
-      <c r="Y26" s="349"/>
-      <c r="Z26" s="349"/>
-      <c r="AA26" s="349"/>
-      <c r="AB26" s="349"/>
-      <c r="AC26" s="349"/>
-      <c r="AD26" s="349"/>
-      <c r="AE26" s="350"/>
-      <c r="AF26" s="345"/>
-      <c r="AG26" s="346"/>
-      <c r="AH26" s="346"/>
-      <c r="AI26" s="347"/>
+      <c r="B26" s="303"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="305"/>
+      <c r="E26" s="306"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="303"/>
+      <c r="H26" s="308"/>
+      <c r="I26" s="304"/>
+      <c r="J26" s="309"/>
+      <c r="K26" s="310"/>
+      <c r="L26" s="310"/>
+      <c r="M26" s="310"/>
+      <c r="N26" s="310"/>
+      <c r="O26" s="310"/>
+      <c r="P26" s="311"/>
+      <c r="Q26" s="312"/>
+      <c r="R26" s="313"/>
+      <c r="S26" s="313"/>
+      <c r="T26" s="313"/>
+      <c r="U26" s="313"/>
+      <c r="V26" s="313"/>
+      <c r="W26" s="313"/>
+      <c r="X26" s="313"/>
+      <c r="Y26" s="313"/>
+      <c r="Z26" s="313"/>
+      <c r="AA26" s="313"/>
+      <c r="AB26" s="313"/>
+      <c r="AC26" s="313"/>
+      <c r="AD26" s="313"/>
+      <c r="AE26" s="314"/>
+      <c r="AF26" s="309"/>
+      <c r="AG26" s="310"/>
+      <c r="AH26" s="310"/>
+      <c r="AI26" s="311"/>
     </row>
     <row r="27" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="339"/>
-      <c r="C27" s="340"/>
-      <c r="D27" s="341"/>
-      <c r="E27" s="342"/>
-      <c r="F27" s="343"/>
-      <c r="G27" s="339"/>
-      <c r="H27" s="344"/>
-      <c r="I27" s="340"/>
-      <c r="J27" s="345"/>
-      <c r="K27" s="346"/>
-      <c r="L27" s="346"/>
-      <c r="M27" s="346"/>
-      <c r="N27" s="346"/>
-      <c r="O27" s="346"/>
-      <c r="P27" s="347"/>
-      <c r="Q27" s="348"/>
-      <c r="R27" s="349"/>
-      <c r="S27" s="349"/>
-      <c r="T27" s="349"/>
-      <c r="U27" s="349"/>
-      <c r="V27" s="349"/>
-      <c r="W27" s="349"/>
-      <c r="X27" s="349"/>
-      <c r="Y27" s="349"/>
-      <c r="Z27" s="349"/>
-      <c r="AA27" s="349"/>
-      <c r="AB27" s="349"/>
-      <c r="AC27" s="349"/>
-      <c r="AD27" s="349"/>
-      <c r="AE27" s="350"/>
-      <c r="AF27" s="345"/>
-      <c r="AG27" s="346"/>
-      <c r="AH27" s="346"/>
-      <c r="AI27" s="347"/>
+      <c r="B27" s="303"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="307"/>
+      <c r="G27" s="303"/>
+      <c r="H27" s="308"/>
+      <c r="I27" s="304"/>
+      <c r="J27" s="309"/>
+      <c r="K27" s="310"/>
+      <c r="L27" s="310"/>
+      <c r="M27" s="310"/>
+      <c r="N27" s="310"/>
+      <c r="O27" s="310"/>
+      <c r="P27" s="311"/>
+      <c r="Q27" s="312"/>
+      <c r="R27" s="313"/>
+      <c r="S27" s="313"/>
+      <c r="T27" s="313"/>
+      <c r="U27" s="313"/>
+      <c r="V27" s="313"/>
+      <c r="W27" s="313"/>
+      <c r="X27" s="313"/>
+      <c r="Y27" s="313"/>
+      <c r="Z27" s="313"/>
+      <c r="AA27" s="313"/>
+      <c r="AB27" s="313"/>
+      <c r="AC27" s="313"/>
+      <c r="AD27" s="313"/>
+      <c r="AE27" s="314"/>
+      <c r="AF27" s="309"/>
+      <c r="AG27" s="310"/>
+      <c r="AH27" s="310"/>
+      <c r="AI27" s="311"/>
     </row>
     <row r="28" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="339"/>
-      <c r="C28" s="340"/>
-      <c r="D28" s="341"/>
-      <c r="E28" s="342"/>
-      <c r="F28" s="343"/>
-      <c r="G28" s="339"/>
-      <c r="H28" s="344"/>
-      <c r="I28" s="340"/>
-      <c r="J28" s="345"/>
-      <c r="K28" s="346"/>
-      <c r="L28" s="346"/>
-      <c r="M28" s="346"/>
-      <c r="N28" s="346"/>
-      <c r="O28" s="346"/>
-      <c r="P28" s="347"/>
-      <c r="Q28" s="348"/>
-      <c r="R28" s="349"/>
-      <c r="S28" s="349"/>
-      <c r="T28" s="349"/>
-      <c r="U28" s="349"/>
-      <c r="V28" s="349"/>
-      <c r="W28" s="349"/>
-      <c r="X28" s="349"/>
-      <c r="Y28" s="349"/>
-      <c r="Z28" s="349"/>
-      <c r="AA28" s="349"/>
-      <c r="AB28" s="349"/>
-      <c r="AC28" s="349"/>
-      <c r="AD28" s="349"/>
-      <c r="AE28" s="350"/>
-      <c r="AF28" s="345"/>
-      <c r="AG28" s="346"/>
-      <c r="AH28" s="346"/>
-      <c r="AI28" s="347"/>
+      <c r="B28" s="303"/>
+      <c r="C28" s="304"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="303"/>
+      <c r="H28" s="308"/>
+      <c r="I28" s="304"/>
+      <c r="J28" s="309"/>
+      <c r="K28" s="310"/>
+      <c r="L28" s="310"/>
+      <c r="M28" s="310"/>
+      <c r="N28" s="310"/>
+      <c r="O28" s="310"/>
+      <c r="P28" s="311"/>
+      <c r="Q28" s="312"/>
+      <c r="R28" s="313"/>
+      <c r="S28" s="313"/>
+      <c r="T28" s="313"/>
+      <c r="U28" s="313"/>
+      <c r="V28" s="313"/>
+      <c r="W28" s="313"/>
+      <c r="X28" s="313"/>
+      <c r="Y28" s="313"/>
+      <c r="Z28" s="313"/>
+      <c r="AA28" s="313"/>
+      <c r="AB28" s="313"/>
+      <c r="AC28" s="313"/>
+      <c r="AD28" s="313"/>
+      <c r="AE28" s="314"/>
+      <c r="AF28" s="309"/>
+      <c r="AG28" s="310"/>
+      <c r="AH28" s="310"/>
+      <c r="AI28" s="311"/>
     </row>
     <row r="29" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="58"/>
-      <c r="B29" s="339"/>
-      <c r="C29" s="340"/>
-      <c r="D29" s="341"/>
-      <c r="E29" s="342"/>
-      <c r="F29" s="343"/>
-      <c r="G29" s="339"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="340"/>
-      <c r="J29" s="345"/>
-      <c r="K29" s="346"/>
-      <c r="L29" s="346"/>
-      <c r="M29" s="346"/>
-      <c r="N29" s="346"/>
-      <c r="O29" s="346"/>
-      <c r="P29" s="347"/>
-      <c r="Q29" s="348"/>
-      <c r="R29" s="349"/>
-      <c r="S29" s="349"/>
-      <c r="T29" s="349"/>
-      <c r="U29" s="349"/>
-      <c r="V29" s="349"/>
-      <c r="W29" s="349"/>
-      <c r="X29" s="349"/>
-      <c r="Y29" s="349"/>
-      <c r="Z29" s="349"/>
-      <c r="AA29" s="349"/>
-      <c r="AB29" s="349"/>
-      <c r="AC29" s="349"/>
-      <c r="AD29" s="349"/>
-      <c r="AE29" s="350"/>
-      <c r="AF29" s="345"/>
-      <c r="AG29" s="346"/>
-      <c r="AH29" s="346"/>
-      <c r="AI29" s="347"/>
+      <c r="B29" s="303"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="305"/>
+      <c r="E29" s="306"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="303"/>
+      <c r="H29" s="308"/>
+      <c r="I29" s="304"/>
+      <c r="J29" s="309"/>
+      <c r="K29" s="310"/>
+      <c r="L29" s="310"/>
+      <c r="M29" s="310"/>
+      <c r="N29" s="310"/>
+      <c r="O29" s="310"/>
+      <c r="P29" s="311"/>
+      <c r="Q29" s="312"/>
+      <c r="R29" s="313"/>
+      <c r="S29" s="313"/>
+      <c r="T29" s="313"/>
+      <c r="U29" s="313"/>
+      <c r="V29" s="313"/>
+      <c r="W29" s="313"/>
+      <c r="X29" s="313"/>
+      <c r="Y29" s="313"/>
+      <c r="Z29" s="313"/>
+      <c r="AA29" s="313"/>
+      <c r="AB29" s="313"/>
+      <c r="AC29" s="313"/>
+      <c r="AD29" s="313"/>
+      <c r="AE29" s="314"/>
+      <c r="AF29" s="309"/>
+      <c r="AG29" s="310"/>
+      <c r="AH29" s="310"/>
+      <c r="AI29" s="311"/>
     </row>
     <row r="30" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="58"/>
-      <c r="B30" s="339"/>
-      <c r="C30" s="340"/>
-      <c r="D30" s="341"/>
-      <c r="E30" s="342"/>
-      <c r="F30" s="343"/>
-      <c r="G30" s="339"/>
-      <c r="H30" s="344"/>
-      <c r="I30" s="340"/>
-      <c r="J30" s="345"/>
-      <c r="K30" s="346"/>
-      <c r="L30" s="346"/>
-      <c r="M30" s="346"/>
-      <c r="N30" s="346"/>
-      <c r="O30" s="346"/>
-      <c r="P30" s="347"/>
-      <c r="Q30" s="348"/>
-      <c r="R30" s="349"/>
-      <c r="S30" s="349"/>
-      <c r="T30" s="349"/>
-      <c r="U30" s="349"/>
-      <c r="V30" s="349"/>
-      <c r="W30" s="349"/>
-      <c r="X30" s="349"/>
-      <c r="Y30" s="349"/>
-      <c r="Z30" s="349"/>
-      <c r="AA30" s="349"/>
-      <c r="AB30" s="349"/>
-      <c r="AC30" s="349"/>
-      <c r="AD30" s="349"/>
-      <c r="AE30" s="350"/>
-      <c r="AF30" s="345"/>
-      <c r="AG30" s="346"/>
-      <c r="AH30" s="346"/>
-      <c r="AI30" s="347"/>
+      <c r="B30" s="303"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="305"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="307"/>
+      <c r="G30" s="303"/>
+      <c r="H30" s="308"/>
+      <c r="I30" s="304"/>
+      <c r="J30" s="309"/>
+      <c r="K30" s="310"/>
+      <c r="L30" s="310"/>
+      <c r="M30" s="310"/>
+      <c r="N30" s="310"/>
+      <c r="O30" s="310"/>
+      <c r="P30" s="311"/>
+      <c r="Q30" s="312"/>
+      <c r="R30" s="313"/>
+      <c r="S30" s="313"/>
+      <c r="T30" s="313"/>
+      <c r="U30" s="313"/>
+      <c r="V30" s="313"/>
+      <c r="W30" s="313"/>
+      <c r="X30" s="313"/>
+      <c r="Y30" s="313"/>
+      <c r="Z30" s="313"/>
+      <c r="AA30" s="313"/>
+      <c r="AB30" s="313"/>
+      <c r="AC30" s="313"/>
+      <c r="AD30" s="313"/>
+      <c r="AE30" s="314"/>
+      <c r="AF30" s="309"/>
+      <c r="AG30" s="310"/>
+      <c r="AH30" s="310"/>
+      <c r="AI30" s="311"/>
     </row>
     <row r="31" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="58"/>
-      <c r="B31" s="339"/>
-      <c r="C31" s="340"/>
-      <c r="D31" s="341"/>
-      <c r="E31" s="342"/>
-      <c r="F31" s="343"/>
-      <c r="G31" s="339"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="340"/>
-      <c r="J31" s="345"/>
-      <c r="K31" s="346"/>
-      <c r="L31" s="346"/>
-      <c r="M31" s="346"/>
-      <c r="N31" s="346"/>
-      <c r="O31" s="346"/>
-      <c r="P31" s="347"/>
-      <c r="Q31" s="348"/>
-      <c r="R31" s="349"/>
-      <c r="S31" s="349"/>
-      <c r="T31" s="349"/>
-      <c r="U31" s="349"/>
-      <c r="V31" s="349"/>
-      <c r="W31" s="349"/>
-      <c r="X31" s="349"/>
-      <c r="Y31" s="349"/>
-      <c r="Z31" s="349"/>
-      <c r="AA31" s="349"/>
-      <c r="AB31" s="349"/>
-      <c r="AC31" s="349"/>
-      <c r="AD31" s="349"/>
-      <c r="AE31" s="350"/>
-      <c r="AF31" s="345"/>
-      <c r="AG31" s="346"/>
-      <c r="AH31" s="346"/>
-      <c r="AI31" s="347"/>
+      <c r="B31" s="303"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="305"/>
+      <c r="E31" s="306"/>
+      <c r="F31" s="307"/>
+      <c r="G31" s="303"/>
+      <c r="H31" s="308"/>
+      <c r="I31" s="304"/>
+      <c r="J31" s="309"/>
+      <c r="K31" s="310"/>
+      <c r="L31" s="310"/>
+      <c r="M31" s="310"/>
+      <c r="N31" s="310"/>
+      <c r="O31" s="310"/>
+      <c r="P31" s="311"/>
+      <c r="Q31" s="312"/>
+      <c r="R31" s="313"/>
+      <c r="S31" s="313"/>
+      <c r="T31" s="313"/>
+      <c r="U31" s="313"/>
+      <c r="V31" s="313"/>
+      <c r="W31" s="313"/>
+      <c r="X31" s="313"/>
+      <c r="Y31" s="313"/>
+      <c r="Z31" s="313"/>
+      <c r="AA31" s="313"/>
+      <c r="AB31" s="313"/>
+      <c r="AC31" s="313"/>
+      <c r="AD31" s="313"/>
+      <c r="AE31" s="314"/>
+      <c r="AF31" s="309"/>
+      <c r="AG31" s="310"/>
+      <c r="AH31" s="310"/>
+      <c r="AI31" s="311"/>
     </row>
     <row r="32" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="339"/>
-      <c r="C32" s="340"/>
-      <c r="D32" s="341"/>
-      <c r="E32" s="342"/>
-      <c r="F32" s="343"/>
-      <c r="G32" s="339"/>
-      <c r="H32" s="344"/>
-      <c r="I32" s="340"/>
-      <c r="J32" s="345"/>
-      <c r="K32" s="360"/>
-      <c r="L32" s="346"/>
-      <c r="M32" s="346"/>
-      <c r="N32" s="346"/>
-      <c r="O32" s="346"/>
-      <c r="P32" s="347"/>
-      <c r="Q32" s="348"/>
-      <c r="R32" s="349"/>
-      <c r="S32" s="349"/>
-      <c r="T32" s="349"/>
-      <c r="U32" s="349"/>
-      <c r="V32" s="349"/>
-      <c r="W32" s="349"/>
-      <c r="X32" s="349"/>
-      <c r="Y32" s="349"/>
-      <c r="Z32" s="349"/>
-      <c r="AA32" s="349"/>
-      <c r="AB32" s="349"/>
-      <c r="AC32" s="349"/>
-      <c r="AD32" s="349"/>
-      <c r="AE32" s="350"/>
-      <c r="AF32" s="345"/>
-      <c r="AG32" s="346"/>
-      <c r="AH32" s="346"/>
-      <c r="AI32" s="347"/>
+      <c r="B32" s="303"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="305"/>
+      <c r="E32" s="306"/>
+      <c r="F32" s="307"/>
+      <c r="G32" s="303"/>
+      <c r="H32" s="308"/>
+      <c r="I32" s="304"/>
+      <c r="J32" s="309"/>
+      <c r="K32" s="315"/>
+      <c r="L32" s="310"/>
+      <c r="M32" s="310"/>
+      <c r="N32" s="310"/>
+      <c r="O32" s="310"/>
+      <c r="P32" s="311"/>
+      <c r="Q32" s="312"/>
+      <c r="R32" s="313"/>
+      <c r="S32" s="313"/>
+      <c r="T32" s="313"/>
+      <c r="U32" s="313"/>
+      <c r="V32" s="313"/>
+      <c r="W32" s="313"/>
+      <c r="X32" s="313"/>
+      <c r="Y32" s="313"/>
+      <c r="Z32" s="313"/>
+      <c r="AA32" s="313"/>
+      <c r="AB32" s="313"/>
+      <c r="AC32" s="313"/>
+      <c r="AD32" s="313"/>
+      <c r="AE32" s="314"/>
+      <c r="AF32" s="309"/>
+      <c r="AG32" s="310"/>
+      <c r="AH32" s="310"/>
+      <c r="AI32" s="311"/>
     </row>
     <row r="33" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="58"/>
-      <c r="B33" s="339"/>
-      <c r="C33" s="340"/>
-      <c r="D33" s="341"/>
-      <c r="E33" s="342"/>
-      <c r="F33" s="343"/>
-      <c r="G33" s="339"/>
-      <c r="H33" s="344"/>
-      <c r="I33" s="340"/>
-      <c r="J33" s="345"/>
-      <c r="K33" s="346"/>
-      <c r="L33" s="346"/>
-      <c r="M33" s="346"/>
-      <c r="N33" s="346"/>
-      <c r="O33" s="346"/>
-      <c r="P33" s="347"/>
-      <c r="Q33" s="348"/>
-      <c r="R33" s="349"/>
-      <c r="S33" s="349"/>
-      <c r="T33" s="349"/>
-      <c r="U33" s="349"/>
-      <c r="V33" s="349"/>
-      <c r="W33" s="349"/>
-      <c r="X33" s="349"/>
-      <c r="Y33" s="349"/>
-      <c r="Z33" s="349"/>
-      <c r="AA33" s="349"/>
-      <c r="AB33" s="349"/>
-      <c r="AC33" s="349"/>
-      <c r="AD33" s="349"/>
-      <c r="AE33" s="350"/>
-      <c r="AF33" s="345"/>
-      <c r="AG33" s="346"/>
-      <c r="AH33" s="346"/>
-      <c r="AI33" s="347"/>
+      <c r="B33" s="303"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="305"/>
+      <c r="E33" s="306"/>
+      <c r="F33" s="307"/>
+      <c r="G33" s="303"/>
+      <c r="H33" s="308"/>
+      <c r="I33" s="304"/>
+      <c r="J33" s="309"/>
+      <c r="K33" s="310"/>
+      <c r="L33" s="310"/>
+      <c r="M33" s="310"/>
+      <c r="N33" s="310"/>
+      <c r="O33" s="310"/>
+      <c r="P33" s="311"/>
+      <c r="Q33" s="312"/>
+      <c r="R33" s="313"/>
+      <c r="S33" s="313"/>
+      <c r="T33" s="313"/>
+      <c r="U33" s="313"/>
+      <c r="V33" s="313"/>
+      <c r="W33" s="313"/>
+      <c r="X33" s="313"/>
+      <c r="Y33" s="313"/>
+      <c r="Z33" s="313"/>
+      <c r="AA33" s="313"/>
+      <c r="AB33" s="313"/>
+      <c r="AC33" s="313"/>
+      <c r="AD33" s="313"/>
+      <c r="AE33" s="314"/>
+      <c r="AF33" s="309"/>
+      <c r="AG33" s="310"/>
+      <c r="AH33" s="310"/>
+      <c r="AI33" s="311"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12641,6 +12336,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -12798,164 +12648,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="364" t="s">
+      <c r="A1" s="361" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="366"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="312" t="str">
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="334" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="367" t="s">
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="364" t="s">
         <v>434</v>
       </c>
-      <c r="P1" s="368"/>
-      <c r="Q1" s="368"/>
-      <c r="R1" s="369"/>
-      <c r="S1" s="327" t="str">
+      <c r="P1" s="365"/>
+      <c r="Q1" s="365"/>
+      <c r="R1" s="366"/>
+      <c r="S1" s="349" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト仕様書(画面)
 サンプル取引/WXXXXXXX</v>
       </c>
-      <c r="T1" s="328"/>
-      <c r="U1" s="328"/>
-      <c r="V1" s="328"/>
-      <c r="W1" s="328"/>
-      <c r="X1" s="328"/>
-      <c r="Y1" s="328"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="364" t="s">
+      <c r="T1" s="350"/>
+      <c r="U1" s="350"/>
+      <c r="V1" s="350"/>
+      <c r="W1" s="350"/>
+      <c r="X1" s="350"/>
+      <c r="Y1" s="350"/>
+      <c r="Z1" s="351"/>
+      <c r="AA1" s="361" t="s">
         <v>435</v>
       </c>
-      <c r="AB1" s="365"/>
-      <c r="AC1" s="336" t="str">
+      <c r="AB1" s="363"/>
+      <c r="AC1" s="358" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="337"/>
-      <c r="AE1" s="337"/>
-      <c r="AF1" s="338"/>
-      <c r="AG1" s="361">
+      <c r="AD1" s="359"/>
+      <c r="AE1" s="359"/>
+      <c r="AF1" s="360"/>
+      <c r="AG1" s="373">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="362"/>
-      <c r="AI1" s="363"/>
+      <c r="AH1" s="374"/>
+      <c r="AI1" s="375"/>
       <c r="AJ1" s="48"/>
       <c r="AK1" s="48"/>
       <c r="AL1" s="49"/>
     </row>
     <row r="2" spans="1:38" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="361" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="366"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="312" t="str">
+      <c r="B2" s="362"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="363"/>
+      <c r="E2" s="334" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="370"/>
-      <c r="P2" s="371"/>
-      <c r="Q2" s="371"/>
-      <c r="R2" s="372"/>
-      <c r="S2" s="330"/>
-      <c r="T2" s="331"/>
-      <c r="U2" s="331"/>
-      <c r="V2" s="331"/>
-      <c r="W2" s="331"/>
-      <c r="X2" s="331"/>
-      <c r="Y2" s="331"/>
-      <c r="Z2" s="332"/>
-      <c r="AA2" s="364" t="s">
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="367"/>
+      <c r="P2" s="368"/>
+      <c r="Q2" s="368"/>
+      <c r="R2" s="369"/>
+      <c r="S2" s="352"/>
+      <c r="T2" s="353"/>
+      <c r="U2" s="353"/>
+      <c r="V2" s="353"/>
+      <c r="W2" s="353"/>
+      <c r="X2" s="353"/>
+      <c r="Y2" s="353"/>
+      <c r="Z2" s="354"/>
+      <c r="AA2" s="361" t="s">
         <v>437</v>
       </c>
-      <c r="AB2" s="365"/>
-      <c r="AC2" s="336" t="str">
+      <c r="AB2" s="363"/>
+      <c r="AC2" s="358" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="337"/>
-      <c r="AE2" s="337"/>
-      <c r="AF2" s="338"/>
-      <c r="AG2" s="361" t="str">
+      <c r="AD2" s="359"/>
+      <c r="AE2" s="359"/>
+      <c r="AF2" s="360"/>
+      <c r="AG2" s="373" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="362"/>
-      <c r="AI2" s="363"/>
+      <c r="AH2" s="374"/>
+      <c r="AI2" s="375"/>
       <c r="AJ2" s="48"/>
       <c r="AK2" s="48"/>
       <c r="AL2" s="48"/>
     </row>
     <row r="3" spans="1:38" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="364" t="s">
+      <c r="A3" s="361" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="366"/>
-      <c r="C3" s="366"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="312" t="str">
+      <c r="B3" s="362"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="334" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="373"/>
-      <c r="P3" s="374"/>
-      <c r="Q3" s="374"/>
-      <c r="R3" s="375"/>
-      <c r="S3" s="333"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="335"/>
-      <c r="AA3" s="364"/>
-      <c r="AB3" s="365"/>
-      <c r="AC3" s="336" t="str">
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="370"/>
+      <c r="P3" s="371"/>
+      <c r="Q3" s="371"/>
+      <c r="R3" s="372"/>
+      <c r="S3" s="355"/>
+      <c r="T3" s="356"/>
+      <c r="U3" s="356"/>
+      <c r="V3" s="356"/>
+      <c r="W3" s="356"/>
+      <c r="X3" s="356"/>
+      <c r="Y3" s="356"/>
+      <c r="Z3" s="357"/>
+      <c r="AA3" s="361"/>
+      <c r="AB3" s="363"/>
+      <c r="AC3" s="358" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="337"/>
-      <c r="AE3" s="337"/>
-      <c r="AF3" s="338"/>
-      <c r="AG3" s="361" t="str">
+      <c r="AD3" s="359"/>
+      <c r="AE3" s="359"/>
+      <c r="AF3" s="360"/>
+      <c r="AG3" s="373" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="362"/>
-      <c r="AI3" s="363"/>
+      <c r="AH3" s="374"/>
+      <c r="AI3" s="375"/>
       <c r="AJ3" s="48"/>
       <c r="AK3" s="48"/>
       <c r="AL3" s="48"/>
@@ -14424,6 +14274,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14433,14 +14291,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_サンプル.xlsx
@@ -4642,29 +4642,6 @@
 (b)レコード構成</t>
   </si>
   <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-  </si>
-  <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="45" eb="50">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>(a)作成条件
 (b)作成条件
 (c)処理詳細、イベント詳細</t>
@@ -4721,6 +4698,29 @@
     <t>(a)データレイアウト
 (b)データレイアウト
 (c)処理詳細、出力データ定義、イベント詳細</t>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -6457,6 +6457,114 @@
     <xf numFmtId="31" fontId="14" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6493,153 +6601,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6666,15 +6675,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -11098,57 +11098,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="309" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="334" t="s">
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="312" t="s">
         <v>452</v>
       </c>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="340" t="s">
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="314"/>
+      <c r="O1" s="318" t="s">
         <v>434</v>
       </c>
-      <c r="P1" s="341"/>
-      <c r="Q1" s="341"/>
-      <c r="R1" s="342"/>
-      <c r="S1" s="349" t="s">
+      <c r="P1" s="319"/>
+      <c r="Q1" s="319"/>
+      <c r="R1" s="320"/>
+      <c r="S1" s="327" t="s">
         <v>454</v>
       </c>
-      <c r="T1" s="350"/>
-      <c r="U1" s="350"/>
-      <c r="V1" s="350"/>
-      <c r="W1" s="350"/>
-      <c r="X1" s="350"/>
-      <c r="Y1" s="350"/>
-      <c r="Z1" s="351"/>
-      <c r="AA1" s="331" t="s">
+      <c r="T1" s="328"/>
+      <c r="U1" s="328"/>
+      <c r="V1" s="328"/>
+      <c r="W1" s="328"/>
+      <c r="X1" s="328"/>
+      <c r="Y1" s="328"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="309" t="s">
         <v>435</v>
       </c>
-      <c r="AB1" s="333"/>
-      <c r="AC1" s="358" t="str">
+      <c r="AB1" s="311"/>
+      <c r="AC1" s="336" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="359"/>
-      <c r="AE1" s="359"/>
-      <c r="AF1" s="360"/>
-      <c r="AG1" s="325">
+      <c r="AD1" s="337"/>
+      <c r="AE1" s="337"/>
+      <c r="AF1" s="338"/>
+      <c r="AG1" s="303">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="326"/>
-      <c r="AI1" s="327"/>
+      <c r="AH1" s="304"/>
+      <c r="AI1" s="305"/>
       <c r="AJ1" s="48"/>
       <c r="AK1" s="48"/>
       <c r="AL1" s="48"/>
@@ -11156,53 +11156,53 @@
       <c r="AN1" s="49"/>
     </row>
     <row r="2" spans="1:40" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="331" t="s">
+      <c r="A2" s="309" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="334" t="s">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="312" t="s">
         <v>453</v>
       </c>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="343"/>
-      <c r="P2" s="344"/>
-      <c r="Q2" s="344"/>
-      <c r="R2" s="345"/>
-      <c r="S2" s="352"/>
-      <c r="T2" s="353"/>
-      <c r="U2" s="353"/>
-      <c r="V2" s="353"/>
-      <c r="W2" s="353"/>
-      <c r="X2" s="353"/>
-      <c r="Y2" s="353"/>
-      <c r="Z2" s="354"/>
-      <c r="AA2" s="331" t="s">
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="314"/>
+      <c r="O2" s="321"/>
+      <c r="P2" s="322"/>
+      <c r="Q2" s="322"/>
+      <c r="R2" s="323"/>
+      <c r="S2" s="330"/>
+      <c r="T2" s="331"/>
+      <c r="U2" s="331"/>
+      <c r="V2" s="331"/>
+      <c r="W2" s="331"/>
+      <c r="X2" s="331"/>
+      <c r="Y2" s="331"/>
+      <c r="Z2" s="332"/>
+      <c r="AA2" s="309" t="s">
         <v>437</v>
       </c>
-      <c r="AB2" s="333"/>
-      <c r="AC2" s="337" t="str">
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="315" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="338"/>
-      <c r="AE2" s="338"/>
-      <c r="AF2" s="339"/>
-      <c r="AG2" s="325" t="str">
+      <c r="AD2" s="316"/>
+      <c r="AE2" s="316"/>
+      <c r="AF2" s="317"/>
+      <c r="AG2" s="303" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="326"/>
-      <c r="AI2" s="327"/>
+      <c r="AH2" s="304"/>
+      <c r="AI2" s="305"/>
       <c r="AJ2" s="48"/>
       <c r="AK2" s="48"/>
       <c r="AL2" s="48"/>
@@ -11210,45 +11210,45 @@
       <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="331" t="s">
+      <c r="A3" s="309" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="332"/>
-      <c r="C3" s="332"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="334" t="s">
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="312" t="s">
         <v>451</v>
       </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="347"/>
-      <c r="Q3" s="347"/>
-      <c r="R3" s="348"/>
-      <c r="S3" s="355"/>
-      <c r="T3" s="356"/>
-      <c r="U3" s="356"/>
-      <c r="V3" s="356"/>
-      <c r="W3" s="356"/>
-      <c r="X3" s="356"/>
-      <c r="Y3" s="356"/>
-      <c r="Z3" s="357"/>
-      <c r="AA3" s="331"/>
-      <c r="AB3" s="333"/>
-      <c r="AC3" s="358"/>
-      <c r="AD3" s="359"/>
-      <c r="AE3" s="359"/>
-      <c r="AF3" s="360"/>
-      <c r="AG3" s="325"/>
-      <c r="AH3" s="326"/>
-      <c r="AI3" s="327"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="324"/>
+      <c r="P3" s="325"/>
+      <c r="Q3" s="325"/>
+      <c r="R3" s="326"/>
+      <c r="S3" s="333"/>
+      <c r="T3" s="334"/>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="334"/>
+      <c r="Y3" s="334"/>
+      <c r="Z3" s="335"/>
+      <c r="AA3" s="309"/>
+      <c r="AB3" s="311"/>
+      <c r="AC3" s="336"/>
+      <c r="AD3" s="337"/>
+      <c r="AE3" s="337"/>
+      <c r="AF3" s="338"/>
+      <c r="AG3" s="303"/>
+      <c r="AH3" s="304"/>
+      <c r="AI3" s="305"/>
       <c r="AJ3" s="48"/>
       <c r="AK3" s="48"/>
       <c r="AL3" s="48"/>
@@ -11285,97 +11285,97 @@
       <c r="A7" s="56" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="328" t="s">
+      <c r="B7" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="329"/>
-      <c r="D7" s="328" t="s">
+      <c r="C7" s="307"/>
+      <c r="D7" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="E7" s="330"/>
-      <c r="F7" s="329"/>
-      <c r="G7" s="328" t="s">
+      <c r="E7" s="308"/>
+      <c r="F7" s="307"/>
+      <c r="G7" s="306" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="330"/>
-      <c r="I7" s="329"/>
-      <c r="J7" s="328" t="s">
+      <c r="H7" s="308"/>
+      <c r="I7" s="307"/>
+      <c r="J7" s="306" t="s">
         <v>443</v>
       </c>
-      <c r="K7" s="330"/>
-      <c r="L7" s="330"/>
-      <c r="M7" s="330"/>
-      <c r="N7" s="330"/>
-      <c r="O7" s="330"/>
-      <c r="P7" s="329"/>
-      <c r="Q7" s="328" t="s">
+      <c r="K7" s="308"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="308"/>
+      <c r="N7" s="308"/>
+      <c r="O7" s="308"/>
+      <c r="P7" s="307"/>
+      <c r="Q7" s="306" t="s">
         <v>444</v>
       </c>
-      <c r="R7" s="330"/>
-      <c r="S7" s="330"/>
-      <c r="T7" s="330"/>
-      <c r="U7" s="330"/>
-      <c r="V7" s="330"/>
-      <c r="W7" s="330"/>
-      <c r="X7" s="330"/>
-      <c r="Y7" s="330"/>
-      <c r="Z7" s="330"/>
-      <c r="AA7" s="330"/>
-      <c r="AB7" s="330"/>
-      <c r="AC7" s="330"/>
-      <c r="AD7" s="330"/>
-      <c r="AE7" s="329"/>
-      <c r="AF7" s="328" t="s">
+      <c r="R7" s="308"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="308"/>
+      <c r="U7" s="308"/>
+      <c r="V7" s="308"/>
+      <c r="W7" s="308"/>
+      <c r="X7" s="308"/>
+      <c r="Y7" s="308"/>
+      <c r="Z7" s="308"/>
+      <c r="AA7" s="308"/>
+      <c r="AB7" s="308"/>
+      <c r="AC7" s="308"/>
+      <c r="AD7" s="308"/>
+      <c r="AE7" s="307"/>
+      <c r="AF7" s="306" t="s">
         <v>445</v>
       </c>
-      <c r="AG7" s="330"/>
-      <c r="AH7" s="330"/>
-      <c r="AI7" s="329"/>
+      <c r="AG7" s="308"/>
+      <c r="AH7" s="308"/>
+      <c r="AI7" s="307"/>
     </row>
     <row r="8" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="106">
         <v>1</v>
       </c>
-      <c r="B8" s="316" t="s">
+      <c r="B8" s="351" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="317"/>
-      <c r="D8" s="318">
+      <c r="C8" s="352"/>
+      <c r="D8" s="353">
         <v>43336</v>
       </c>
-      <c r="E8" s="319"/>
-      <c r="F8" s="320"/>
-      <c r="G8" s="316" t="s">
+      <c r="E8" s="354"/>
+      <c r="F8" s="355"/>
+      <c r="G8" s="351" t="s">
         <v>456</v>
       </c>
-      <c r="H8" s="321"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="322" t="s">
+      <c r="H8" s="356"/>
+      <c r="I8" s="352"/>
+      <c r="J8" s="357" t="s">
         <v>457</v>
       </c>
-      <c r="K8" s="323"/>
-      <c r="L8" s="323"/>
-      <c r="M8" s="323"/>
-      <c r="N8" s="323"/>
-      <c r="O8" s="323"/>
-      <c r="P8" s="324"/>
-      <c r="Q8" s="322" t="s">
+      <c r="K8" s="358"/>
+      <c r="L8" s="358"/>
+      <c r="M8" s="358"/>
+      <c r="N8" s="358"/>
+      <c r="O8" s="358"/>
+      <c r="P8" s="359"/>
+      <c r="Q8" s="357" t="s">
         <v>458</v>
       </c>
-      <c r="R8" s="323"/>
-      <c r="S8" s="323"/>
-      <c r="T8" s="323"/>
-      <c r="U8" s="323"/>
-      <c r="V8" s="323"/>
-      <c r="W8" s="323"/>
-      <c r="X8" s="323"/>
-      <c r="Y8" s="323"/>
-      <c r="Z8" s="323"/>
-      <c r="AA8" s="323"/>
-      <c r="AB8" s="323"/>
-      <c r="AC8" s="323"/>
-      <c r="AD8" s="323"/>
-      <c r="AE8" s="324"/>
+      <c r="R8" s="358"/>
+      <c r="S8" s="358"/>
+      <c r="T8" s="358"/>
+      <c r="U8" s="358"/>
+      <c r="V8" s="358"/>
+      <c r="W8" s="358"/>
+      <c r="X8" s="358"/>
+      <c r="Y8" s="358"/>
+      <c r="Z8" s="358"/>
+      <c r="AA8" s="358"/>
+      <c r="AB8" s="358"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="358"/>
+      <c r="AE8" s="359"/>
       <c r="AF8" s="107" t="s">
         <v>459</v>
       </c>
@@ -11385,934 +11385,1089 @@
     </row>
     <row r="9" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="58"/>
-      <c r="B9" s="303"/>
-      <c r="C9" s="304"/>
-      <c r="D9" s="305"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="307"/>
-      <c r="G9" s="305"/>
-      <c r="H9" s="308"/>
-      <c r="I9" s="304"/>
-      <c r="J9" s="309"/>
-      <c r="K9" s="310"/>
-      <c r="L9" s="310"/>
-      <c r="M9" s="310"/>
-      <c r="N9" s="310"/>
-      <c r="O9" s="310"/>
-      <c r="P9" s="311"/>
-      <c r="Q9" s="312"/>
-      <c r="R9" s="313"/>
-      <c r="S9" s="313"/>
-      <c r="T9" s="313"/>
-      <c r="U9" s="313"/>
-      <c r="V9" s="313"/>
-      <c r="W9" s="313"/>
-      <c r="X9" s="313"/>
-      <c r="Y9" s="313"/>
-      <c r="Z9" s="313"/>
-      <c r="AA9" s="313"/>
-      <c r="AB9" s="313"/>
-      <c r="AC9" s="313"/>
-      <c r="AD9" s="313"/>
-      <c r="AE9" s="314"/>
-      <c r="AF9" s="309"/>
-      <c r="AG9" s="310"/>
-      <c r="AH9" s="310"/>
-      <c r="AI9" s="311"/>
+      <c r="B9" s="339"/>
+      <c r="C9" s="340"/>
+      <c r="D9" s="341"/>
+      <c r="E9" s="342"/>
+      <c r="F9" s="343"/>
+      <c r="G9" s="341"/>
+      <c r="H9" s="344"/>
+      <c r="I9" s="340"/>
+      <c r="J9" s="345"/>
+      <c r="K9" s="346"/>
+      <c r="L9" s="346"/>
+      <c r="M9" s="346"/>
+      <c r="N9" s="346"/>
+      <c r="O9" s="346"/>
+      <c r="P9" s="347"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="349"/>
+      <c r="S9" s="349"/>
+      <c r="T9" s="349"/>
+      <c r="U9" s="349"/>
+      <c r="V9" s="349"/>
+      <c r="W9" s="349"/>
+      <c r="X9" s="349"/>
+      <c r="Y9" s="349"/>
+      <c r="Z9" s="349"/>
+      <c r="AA9" s="349"/>
+      <c r="AB9" s="349"/>
+      <c r="AC9" s="349"/>
+      <c r="AD9" s="349"/>
+      <c r="AE9" s="350"/>
+      <c r="AF9" s="345"/>
+      <c r="AG9" s="346"/>
+      <c r="AH9" s="346"/>
+      <c r="AI9" s="347"/>
     </row>
     <row r="10" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="58"/>
-      <c r="B10" s="303"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="305"/>
-      <c r="E10" s="306"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="308"/>
-      <c r="I10" s="304"/>
-      <c r="J10" s="309"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="310"/>
-      <c r="M10" s="310"/>
-      <c r="N10" s="310"/>
-      <c r="O10" s="310"/>
-      <c r="P10" s="311"/>
-      <c r="Q10" s="312"/>
-      <c r="R10" s="313"/>
-      <c r="S10" s="313"/>
-      <c r="T10" s="313"/>
-      <c r="U10" s="313"/>
-      <c r="V10" s="313"/>
-      <c r="W10" s="313"/>
-      <c r="X10" s="313"/>
-      <c r="Y10" s="313"/>
-      <c r="Z10" s="313"/>
-      <c r="AA10" s="313"/>
-      <c r="AB10" s="313"/>
-      <c r="AC10" s="313"/>
-      <c r="AD10" s="313"/>
-      <c r="AE10" s="314"/>
-      <c r="AF10" s="309"/>
-      <c r="AG10" s="310"/>
-      <c r="AH10" s="310"/>
-      <c r="AI10" s="311"/>
+      <c r="B10" s="339"/>
+      <c r="C10" s="340"/>
+      <c r="D10" s="341"/>
+      <c r="E10" s="342"/>
+      <c r="F10" s="343"/>
+      <c r="G10" s="339"/>
+      <c r="H10" s="344"/>
+      <c r="I10" s="340"/>
+      <c r="J10" s="345"/>
+      <c r="K10" s="346"/>
+      <c r="L10" s="346"/>
+      <c r="M10" s="346"/>
+      <c r="N10" s="346"/>
+      <c r="O10" s="346"/>
+      <c r="P10" s="347"/>
+      <c r="Q10" s="348"/>
+      <c r="R10" s="349"/>
+      <c r="S10" s="349"/>
+      <c r="T10" s="349"/>
+      <c r="U10" s="349"/>
+      <c r="V10" s="349"/>
+      <c r="W10" s="349"/>
+      <c r="X10" s="349"/>
+      <c r="Y10" s="349"/>
+      <c r="Z10" s="349"/>
+      <c r="AA10" s="349"/>
+      <c r="AB10" s="349"/>
+      <c r="AC10" s="349"/>
+      <c r="AD10" s="349"/>
+      <c r="AE10" s="350"/>
+      <c r="AF10" s="345"/>
+      <c r="AG10" s="346"/>
+      <c r="AH10" s="346"/>
+      <c r="AI10" s="347"/>
     </row>
     <row r="11" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="58"/>
-      <c r="B11" s="303"/>
-      <c r="C11" s="304"/>
-      <c r="D11" s="305"/>
-      <c r="E11" s="306"/>
-      <c r="F11" s="307"/>
-      <c r="G11" s="303"/>
-      <c r="H11" s="308"/>
-      <c r="I11" s="304"/>
-      <c r="J11" s="309"/>
-      <c r="K11" s="310"/>
-      <c r="L11" s="310"/>
-      <c r="M11" s="310"/>
-      <c r="N11" s="310"/>
-      <c r="O11" s="310"/>
-      <c r="P11" s="311"/>
-      <c r="Q11" s="312"/>
-      <c r="R11" s="313"/>
-      <c r="S11" s="313"/>
-      <c r="T11" s="313"/>
-      <c r="U11" s="313"/>
-      <c r="V11" s="313"/>
-      <c r="W11" s="313"/>
-      <c r="X11" s="313"/>
-      <c r="Y11" s="313"/>
-      <c r="Z11" s="313"/>
-      <c r="AA11" s="313"/>
-      <c r="AB11" s="313"/>
-      <c r="AC11" s="313"/>
-      <c r="AD11" s="313"/>
-      <c r="AE11" s="314"/>
-      <c r="AF11" s="309"/>
-      <c r="AG11" s="310"/>
-      <c r="AH11" s="310"/>
-      <c r="AI11" s="311"/>
+      <c r="B11" s="339"/>
+      <c r="C11" s="340"/>
+      <c r="D11" s="341"/>
+      <c r="E11" s="342"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="339"/>
+      <c r="H11" s="344"/>
+      <c r="I11" s="340"/>
+      <c r="J11" s="345"/>
+      <c r="K11" s="346"/>
+      <c r="L11" s="346"/>
+      <c r="M11" s="346"/>
+      <c r="N11" s="346"/>
+      <c r="O11" s="346"/>
+      <c r="P11" s="347"/>
+      <c r="Q11" s="348"/>
+      <c r="R11" s="349"/>
+      <c r="S11" s="349"/>
+      <c r="T11" s="349"/>
+      <c r="U11" s="349"/>
+      <c r="V11" s="349"/>
+      <c r="W11" s="349"/>
+      <c r="X11" s="349"/>
+      <c r="Y11" s="349"/>
+      <c r="Z11" s="349"/>
+      <c r="AA11" s="349"/>
+      <c r="AB11" s="349"/>
+      <c r="AC11" s="349"/>
+      <c r="AD11" s="349"/>
+      <c r="AE11" s="350"/>
+      <c r="AF11" s="345"/>
+      <c r="AG11" s="346"/>
+      <c r="AH11" s="346"/>
+      <c r="AI11" s="347"/>
     </row>
     <row r="12" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="58"/>
-      <c r="B12" s="303"/>
-      <c r="C12" s="304"/>
-      <c r="D12" s="305"/>
-      <c r="E12" s="306"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="308"/>
-      <c r="I12" s="304"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="310"/>
-      <c r="L12" s="310"/>
-      <c r="M12" s="310"/>
-      <c r="N12" s="310"/>
-      <c r="O12" s="310"/>
-      <c r="P12" s="311"/>
-      <c r="Q12" s="312"/>
-      <c r="R12" s="313"/>
-      <c r="S12" s="313"/>
-      <c r="T12" s="313"/>
-      <c r="U12" s="313"/>
-      <c r="V12" s="313"/>
-      <c r="W12" s="313"/>
-      <c r="X12" s="313"/>
-      <c r="Y12" s="313"/>
-      <c r="Z12" s="313"/>
-      <c r="AA12" s="313"/>
-      <c r="AB12" s="313"/>
-      <c r="AC12" s="313"/>
-      <c r="AD12" s="313"/>
-      <c r="AE12" s="314"/>
-      <c r="AF12" s="309"/>
-      <c r="AG12" s="310"/>
-      <c r="AH12" s="310"/>
-      <c r="AI12" s="311"/>
+      <c r="B12" s="339"/>
+      <c r="C12" s="340"/>
+      <c r="D12" s="341"/>
+      <c r="E12" s="342"/>
+      <c r="F12" s="343"/>
+      <c r="G12" s="339"/>
+      <c r="H12" s="344"/>
+      <c r="I12" s="340"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="346"/>
+      <c r="L12" s="346"/>
+      <c r="M12" s="346"/>
+      <c r="N12" s="346"/>
+      <c r="O12" s="346"/>
+      <c r="P12" s="347"/>
+      <c r="Q12" s="348"/>
+      <c r="R12" s="349"/>
+      <c r="S12" s="349"/>
+      <c r="T12" s="349"/>
+      <c r="U12" s="349"/>
+      <c r="V12" s="349"/>
+      <c r="W12" s="349"/>
+      <c r="X12" s="349"/>
+      <c r="Y12" s="349"/>
+      <c r="Z12" s="349"/>
+      <c r="AA12" s="349"/>
+      <c r="AB12" s="349"/>
+      <c r="AC12" s="349"/>
+      <c r="AD12" s="349"/>
+      <c r="AE12" s="350"/>
+      <c r="AF12" s="345"/>
+      <c r="AG12" s="346"/>
+      <c r="AH12" s="346"/>
+      <c r="AI12" s="347"/>
     </row>
     <row r="13" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="58"/>
-      <c r="B13" s="303"/>
-      <c r="C13" s="304"/>
-      <c r="D13" s="305"/>
-      <c r="E13" s="306"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="309"/>
-      <c r="K13" s="310"/>
-      <c r="L13" s="310"/>
-      <c r="M13" s="310"/>
-      <c r="N13" s="310"/>
-      <c r="O13" s="310"/>
-      <c r="P13" s="311"/>
-      <c r="Q13" s="312"/>
-      <c r="R13" s="313"/>
-      <c r="S13" s="313"/>
-      <c r="T13" s="313"/>
-      <c r="U13" s="313"/>
-      <c r="V13" s="313"/>
-      <c r="W13" s="313"/>
-      <c r="X13" s="313"/>
-      <c r="Y13" s="313"/>
-      <c r="Z13" s="313"/>
-      <c r="AA13" s="313"/>
-      <c r="AB13" s="313"/>
-      <c r="AC13" s="313"/>
-      <c r="AD13" s="313"/>
-      <c r="AE13" s="314"/>
-      <c r="AF13" s="309"/>
-      <c r="AG13" s="310"/>
-      <c r="AH13" s="310"/>
-      <c r="AI13" s="311"/>
+      <c r="B13" s="339"/>
+      <c r="C13" s="340"/>
+      <c r="D13" s="341"/>
+      <c r="E13" s="342"/>
+      <c r="F13" s="343"/>
+      <c r="G13" s="339"/>
+      <c r="H13" s="344"/>
+      <c r="I13" s="340"/>
+      <c r="J13" s="345"/>
+      <c r="K13" s="346"/>
+      <c r="L13" s="346"/>
+      <c r="M13" s="346"/>
+      <c r="N13" s="346"/>
+      <c r="O13" s="346"/>
+      <c r="P13" s="347"/>
+      <c r="Q13" s="348"/>
+      <c r="R13" s="349"/>
+      <c r="S13" s="349"/>
+      <c r="T13" s="349"/>
+      <c r="U13" s="349"/>
+      <c r="V13" s="349"/>
+      <c r="W13" s="349"/>
+      <c r="X13" s="349"/>
+      <c r="Y13" s="349"/>
+      <c r="Z13" s="349"/>
+      <c r="AA13" s="349"/>
+      <c r="AB13" s="349"/>
+      <c r="AC13" s="349"/>
+      <c r="AD13" s="349"/>
+      <c r="AE13" s="350"/>
+      <c r="AF13" s="345"/>
+      <c r="AG13" s="346"/>
+      <c r="AH13" s="346"/>
+      <c r="AI13" s="347"/>
     </row>
     <row r="14" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="303"/>
-      <c r="C14" s="304"/>
-      <c r="D14" s="305"/>
-      <c r="E14" s="306"/>
-      <c r="F14" s="307"/>
-      <c r="G14" s="303"/>
-      <c r="H14" s="308"/>
-      <c r="I14" s="304"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
-      <c r="M14" s="310"/>
-      <c r="N14" s="310"/>
-      <c r="O14" s="310"/>
-      <c r="P14" s="311"/>
-      <c r="Q14" s="312"/>
-      <c r="R14" s="313"/>
-      <c r="S14" s="313"/>
-      <c r="T14" s="313"/>
-      <c r="U14" s="313"/>
-      <c r="V14" s="313"/>
-      <c r="W14" s="313"/>
-      <c r="X14" s="313"/>
-      <c r="Y14" s="313"/>
-      <c r="Z14" s="313"/>
-      <c r="AA14" s="313"/>
-      <c r="AB14" s="313"/>
-      <c r="AC14" s="313"/>
-      <c r="AD14" s="313"/>
-      <c r="AE14" s="314"/>
-      <c r="AF14" s="309"/>
-      <c r="AG14" s="310"/>
-      <c r="AH14" s="310"/>
-      <c r="AI14" s="311"/>
+      <c r="B14" s="339"/>
+      <c r="C14" s="340"/>
+      <c r="D14" s="341"/>
+      <c r="E14" s="342"/>
+      <c r="F14" s="343"/>
+      <c r="G14" s="339"/>
+      <c r="H14" s="344"/>
+      <c r="I14" s="340"/>
+      <c r="J14" s="345"/>
+      <c r="K14" s="346"/>
+      <c r="L14" s="346"/>
+      <c r="M14" s="346"/>
+      <c r="N14" s="346"/>
+      <c r="O14" s="346"/>
+      <c r="P14" s="347"/>
+      <c r="Q14" s="348"/>
+      <c r="R14" s="349"/>
+      <c r="S14" s="349"/>
+      <c r="T14" s="349"/>
+      <c r="U14" s="349"/>
+      <c r="V14" s="349"/>
+      <c r="W14" s="349"/>
+      <c r="X14" s="349"/>
+      <c r="Y14" s="349"/>
+      <c r="Z14" s="349"/>
+      <c r="AA14" s="349"/>
+      <c r="AB14" s="349"/>
+      <c r="AC14" s="349"/>
+      <c r="AD14" s="349"/>
+      <c r="AE14" s="350"/>
+      <c r="AF14" s="345"/>
+      <c r="AG14" s="346"/>
+      <c r="AH14" s="346"/>
+      <c r="AI14" s="347"/>
     </row>
     <row r="15" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="303"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="305"/>
-      <c r="E15" s="306"/>
-      <c r="F15" s="307"/>
-      <c r="G15" s="303"/>
-      <c r="H15" s="308"/>
-      <c r="I15" s="304"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
-      <c r="M15" s="310"/>
-      <c r="N15" s="310"/>
-      <c r="O15" s="310"/>
-      <c r="P15" s="311"/>
-      <c r="Q15" s="312"/>
-      <c r="R15" s="313"/>
-      <c r="S15" s="313"/>
-      <c r="T15" s="313"/>
-      <c r="U15" s="313"/>
-      <c r="V15" s="313"/>
-      <c r="W15" s="313"/>
-      <c r="X15" s="313"/>
-      <c r="Y15" s="313"/>
-      <c r="Z15" s="313"/>
-      <c r="AA15" s="313"/>
-      <c r="AB15" s="313"/>
-      <c r="AC15" s="313"/>
-      <c r="AD15" s="313"/>
-      <c r="AE15" s="314"/>
-      <c r="AF15" s="309"/>
-      <c r="AG15" s="310"/>
-      <c r="AH15" s="310"/>
-      <c r="AI15" s="311"/>
+      <c r="B15" s="339"/>
+      <c r="C15" s="340"/>
+      <c r="D15" s="341"/>
+      <c r="E15" s="342"/>
+      <c r="F15" s="343"/>
+      <c r="G15" s="339"/>
+      <c r="H15" s="344"/>
+      <c r="I15" s="340"/>
+      <c r="J15" s="345"/>
+      <c r="K15" s="346"/>
+      <c r="L15" s="346"/>
+      <c r="M15" s="346"/>
+      <c r="N15" s="346"/>
+      <c r="O15" s="346"/>
+      <c r="P15" s="347"/>
+      <c r="Q15" s="348"/>
+      <c r="R15" s="349"/>
+      <c r="S15" s="349"/>
+      <c r="T15" s="349"/>
+      <c r="U15" s="349"/>
+      <c r="V15" s="349"/>
+      <c r="W15" s="349"/>
+      <c r="X15" s="349"/>
+      <c r="Y15" s="349"/>
+      <c r="Z15" s="349"/>
+      <c r="AA15" s="349"/>
+      <c r="AB15" s="349"/>
+      <c r="AC15" s="349"/>
+      <c r="AD15" s="349"/>
+      <c r="AE15" s="350"/>
+      <c r="AF15" s="345"/>
+      <c r="AG15" s="346"/>
+      <c r="AH15" s="346"/>
+      <c r="AI15" s="347"/>
     </row>
     <row r="16" spans="1:40" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="58"/>
-      <c r="B16" s="303"/>
-      <c r="C16" s="304"/>
-      <c r="D16" s="305"/>
-      <c r="E16" s="306"/>
-      <c r="F16" s="307"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="304"/>
-      <c r="J16" s="309"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
-      <c r="M16" s="310"/>
-      <c r="N16" s="310"/>
-      <c r="O16" s="310"/>
-      <c r="P16" s="311"/>
-      <c r="Q16" s="312"/>
-      <c r="R16" s="313"/>
-      <c r="S16" s="313"/>
-      <c r="T16" s="313"/>
-      <c r="U16" s="313"/>
-      <c r="V16" s="313"/>
-      <c r="W16" s="313"/>
-      <c r="X16" s="313"/>
-      <c r="Y16" s="313"/>
-      <c r="Z16" s="313"/>
-      <c r="AA16" s="313"/>
-      <c r="AB16" s="313"/>
-      <c r="AC16" s="313"/>
-      <c r="AD16" s="313"/>
-      <c r="AE16" s="314"/>
-      <c r="AF16" s="309"/>
-      <c r="AG16" s="310"/>
-      <c r="AH16" s="310"/>
-      <c r="AI16" s="311"/>
+      <c r="B16" s="339"/>
+      <c r="C16" s="340"/>
+      <c r="D16" s="341"/>
+      <c r="E16" s="342"/>
+      <c r="F16" s="343"/>
+      <c r="G16" s="339"/>
+      <c r="H16" s="344"/>
+      <c r="I16" s="340"/>
+      <c r="J16" s="345"/>
+      <c r="K16" s="346"/>
+      <c r="L16" s="346"/>
+      <c r="M16" s="346"/>
+      <c r="N16" s="346"/>
+      <c r="O16" s="346"/>
+      <c r="P16" s="347"/>
+      <c r="Q16" s="348"/>
+      <c r="R16" s="349"/>
+      <c r="S16" s="349"/>
+      <c r="T16" s="349"/>
+      <c r="U16" s="349"/>
+      <c r="V16" s="349"/>
+      <c r="W16" s="349"/>
+      <c r="X16" s="349"/>
+      <c r="Y16" s="349"/>
+      <c r="Z16" s="349"/>
+      <c r="AA16" s="349"/>
+      <c r="AB16" s="349"/>
+      <c r="AC16" s="349"/>
+      <c r="AD16" s="349"/>
+      <c r="AE16" s="350"/>
+      <c r="AF16" s="345"/>
+      <c r="AG16" s="346"/>
+      <c r="AH16" s="346"/>
+      <c r="AI16" s="347"/>
     </row>
     <row r="17" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="58"/>
-      <c r="B17" s="303"/>
-      <c r="C17" s="304"/>
-      <c r="D17" s="305"/>
-      <c r="E17" s="306"/>
-      <c r="F17" s="307"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="308"/>
-      <c r="I17" s="304"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="310"/>
-      <c r="L17" s="310"/>
-      <c r="M17" s="310"/>
-      <c r="N17" s="310"/>
-      <c r="O17" s="310"/>
-      <c r="P17" s="311"/>
-      <c r="Q17" s="312"/>
-      <c r="R17" s="313"/>
-      <c r="S17" s="313"/>
-      <c r="T17" s="313"/>
-      <c r="U17" s="313"/>
-      <c r="V17" s="313"/>
-      <c r="W17" s="313"/>
-      <c r="X17" s="313"/>
-      <c r="Y17" s="313"/>
-      <c r="Z17" s="313"/>
-      <c r="AA17" s="313"/>
-      <c r="AB17" s="313"/>
-      <c r="AC17" s="313"/>
-      <c r="AD17" s="313"/>
-      <c r="AE17" s="314"/>
-      <c r="AF17" s="309"/>
-      <c r="AG17" s="310"/>
-      <c r="AH17" s="310"/>
-      <c r="AI17" s="311"/>
+      <c r="B17" s="339"/>
+      <c r="C17" s="340"/>
+      <c r="D17" s="341"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="343"/>
+      <c r="G17" s="339"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="340"/>
+      <c r="J17" s="345"/>
+      <c r="K17" s="346"/>
+      <c r="L17" s="346"/>
+      <c r="M17" s="346"/>
+      <c r="N17" s="346"/>
+      <c r="O17" s="346"/>
+      <c r="P17" s="347"/>
+      <c r="Q17" s="348"/>
+      <c r="R17" s="349"/>
+      <c r="S17" s="349"/>
+      <c r="T17" s="349"/>
+      <c r="U17" s="349"/>
+      <c r="V17" s="349"/>
+      <c r="W17" s="349"/>
+      <c r="X17" s="349"/>
+      <c r="Y17" s="349"/>
+      <c r="Z17" s="349"/>
+      <c r="AA17" s="349"/>
+      <c r="AB17" s="349"/>
+      <c r="AC17" s="349"/>
+      <c r="AD17" s="349"/>
+      <c r="AE17" s="350"/>
+      <c r="AF17" s="345"/>
+      <c r="AG17" s="346"/>
+      <c r="AH17" s="346"/>
+      <c r="AI17" s="347"/>
     </row>
     <row r="18" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="303"/>
-      <c r="C18" s="304"/>
-      <c r="D18" s="305"/>
-      <c r="E18" s="306"/>
-      <c r="F18" s="307"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="308"/>
-      <c r="I18" s="304"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="310"/>
-      <c r="L18" s="310"/>
-      <c r="M18" s="310"/>
-      <c r="N18" s="310"/>
-      <c r="O18" s="310"/>
-      <c r="P18" s="311"/>
-      <c r="Q18" s="312"/>
-      <c r="R18" s="313"/>
-      <c r="S18" s="313"/>
-      <c r="T18" s="313"/>
-      <c r="U18" s="313"/>
-      <c r="V18" s="313"/>
-      <c r="W18" s="313"/>
-      <c r="X18" s="313"/>
-      <c r="Y18" s="313"/>
-      <c r="Z18" s="313"/>
-      <c r="AA18" s="313"/>
-      <c r="AB18" s="313"/>
-      <c r="AC18" s="313"/>
-      <c r="AD18" s="313"/>
-      <c r="AE18" s="314"/>
-      <c r="AF18" s="309"/>
-      <c r="AG18" s="310"/>
-      <c r="AH18" s="310"/>
-      <c r="AI18" s="311"/>
+      <c r="B18" s="339"/>
+      <c r="C18" s="340"/>
+      <c r="D18" s="341"/>
+      <c r="E18" s="342"/>
+      <c r="F18" s="343"/>
+      <c r="G18" s="339"/>
+      <c r="H18" s="344"/>
+      <c r="I18" s="340"/>
+      <c r="J18" s="345"/>
+      <c r="K18" s="346"/>
+      <c r="L18" s="346"/>
+      <c r="M18" s="346"/>
+      <c r="N18" s="346"/>
+      <c r="O18" s="346"/>
+      <c r="P18" s="347"/>
+      <c r="Q18" s="348"/>
+      <c r="R18" s="349"/>
+      <c r="S18" s="349"/>
+      <c r="T18" s="349"/>
+      <c r="U18" s="349"/>
+      <c r="V18" s="349"/>
+      <c r="W18" s="349"/>
+      <c r="X18" s="349"/>
+      <c r="Y18" s="349"/>
+      <c r="Z18" s="349"/>
+      <c r="AA18" s="349"/>
+      <c r="AB18" s="349"/>
+      <c r="AC18" s="349"/>
+      <c r="AD18" s="349"/>
+      <c r="AE18" s="350"/>
+      <c r="AF18" s="345"/>
+      <c r="AG18" s="346"/>
+      <c r="AH18" s="346"/>
+      <c r="AI18" s="347"/>
     </row>
     <row r="19" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="58"/>
-      <c r="B19" s="303"/>
-      <c r="C19" s="304"/>
-      <c r="D19" s="305"/>
-      <c r="E19" s="306"/>
-      <c r="F19" s="307"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="308"/>
-      <c r="I19" s="304"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="310"/>
-      <c r="L19" s="310"/>
-      <c r="M19" s="310"/>
-      <c r="N19" s="310"/>
-      <c r="O19" s="310"/>
-      <c r="P19" s="311"/>
-      <c r="Q19" s="312"/>
-      <c r="R19" s="313"/>
-      <c r="S19" s="313"/>
-      <c r="T19" s="313"/>
-      <c r="U19" s="313"/>
-      <c r="V19" s="313"/>
-      <c r="W19" s="313"/>
-      <c r="X19" s="313"/>
-      <c r="Y19" s="313"/>
-      <c r="Z19" s="313"/>
-      <c r="AA19" s="313"/>
-      <c r="AB19" s="313"/>
-      <c r="AC19" s="313"/>
-      <c r="AD19" s="313"/>
-      <c r="AE19" s="314"/>
-      <c r="AF19" s="309"/>
-      <c r="AG19" s="310"/>
-      <c r="AH19" s="310"/>
-      <c r="AI19" s="311"/>
+      <c r="B19" s="339"/>
+      <c r="C19" s="340"/>
+      <c r="D19" s="341"/>
+      <c r="E19" s="342"/>
+      <c r="F19" s="343"/>
+      <c r="G19" s="339"/>
+      <c r="H19" s="344"/>
+      <c r="I19" s="340"/>
+      <c r="J19" s="345"/>
+      <c r="K19" s="346"/>
+      <c r="L19" s="346"/>
+      <c r="M19" s="346"/>
+      <c r="N19" s="346"/>
+      <c r="O19" s="346"/>
+      <c r="P19" s="347"/>
+      <c r="Q19" s="348"/>
+      <c r="R19" s="349"/>
+      <c r="S19" s="349"/>
+      <c r="T19" s="349"/>
+      <c r="U19" s="349"/>
+      <c r="V19" s="349"/>
+      <c r="W19" s="349"/>
+      <c r="X19" s="349"/>
+      <c r="Y19" s="349"/>
+      <c r="Z19" s="349"/>
+      <c r="AA19" s="349"/>
+      <c r="AB19" s="349"/>
+      <c r="AC19" s="349"/>
+      <c r="AD19" s="349"/>
+      <c r="AE19" s="350"/>
+      <c r="AF19" s="345"/>
+      <c r="AG19" s="346"/>
+      <c r="AH19" s="346"/>
+      <c r="AI19" s="347"/>
     </row>
     <row r="20" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="58"/>
-      <c r="B20" s="303"/>
-      <c r="C20" s="304"/>
-      <c r="D20" s="305"/>
-      <c r="E20" s="306"/>
-      <c r="F20" s="307"/>
-      <c r="G20" s="303"/>
-      <c r="H20" s="308"/>
-      <c r="I20" s="304"/>
-      <c r="J20" s="309"/>
-      <c r="K20" s="310"/>
-      <c r="L20" s="310"/>
-      <c r="M20" s="310"/>
-      <c r="N20" s="310"/>
-      <c r="O20" s="310"/>
-      <c r="P20" s="311"/>
-      <c r="Q20" s="312"/>
-      <c r="R20" s="313"/>
-      <c r="S20" s="313"/>
-      <c r="T20" s="313"/>
-      <c r="U20" s="313"/>
-      <c r="V20" s="313"/>
-      <c r="W20" s="313"/>
-      <c r="X20" s="313"/>
-      <c r="Y20" s="313"/>
-      <c r="Z20" s="313"/>
-      <c r="AA20" s="313"/>
-      <c r="AB20" s="313"/>
-      <c r="AC20" s="313"/>
-      <c r="AD20" s="313"/>
-      <c r="AE20" s="314"/>
-      <c r="AF20" s="309"/>
-      <c r="AG20" s="310"/>
-      <c r="AH20" s="310"/>
-      <c r="AI20" s="311"/>
+      <c r="B20" s="339"/>
+      <c r="C20" s="340"/>
+      <c r="D20" s="341"/>
+      <c r="E20" s="342"/>
+      <c r="F20" s="343"/>
+      <c r="G20" s="339"/>
+      <c r="H20" s="344"/>
+      <c r="I20" s="340"/>
+      <c r="J20" s="345"/>
+      <c r="K20" s="346"/>
+      <c r="L20" s="346"/>
+      <c r="M20" s="346"/>
+      <c r="N20" s="346"/>
+      <c r="O20" s="346"/>
+      <c r="P20" s="347"/>
+      <c r="Q20" s="348"/>
+      <c r="R20" s="349"/>
+      <c r="S20" s="349"/>
+      <c r="T20" s="349"/>
+      <c r="U20" s="349"/>
+      <c r="V20" s="349"/>
+      <c r="W20" s="349"/>
+      <c r="X20" s="349"/>
+      <c r="Y20" s="349"/>
+      <c r="Z20" s="349"/>
+      <c r="AA20" s="349"/>
+      <c r="AB20" s="349"/>
+      <c r="AC20" s="349"/>
+      <c r="AD20" s="349"/>
+      <c r="AE20" s="350"/>
+      <c r="AF20" s="345"/>
+      <c r="AG20" s="346"/>
+      <c r="AH20" s="346"/>
+      <c r="AI20" s="347"/>
     </row>
     <row r="21" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="58"/>
-      <c r="B21" s="303"/>
-      <c r="C21" s="304"/>
-      <c r="D21" s="305"/>
-      <c r="E21" s="306"/>
-      <c r="F21" s="307"/>
-      <c r="G21" s="303"/>
-      <c r="H21" s="308"/>
-      <c r="I21" s="304"/>
-      <c r="J21" s="309"/>
-      <c r="K21" s="310"/>
-      <c r="L21" s="310"/>
-      <c r="M21" s="310"/>
-      <c r="N21" s="310"/>
-      <c r="O21" s="310"/>
-      <c r="P21" s="311"/>
-      <c r="Q21" s="312"/>
-      <c r="R21" s="313"/>
-      <c r="S21" s="313"/>
-      <c r="T21" s="313"/>
-      <c r="U21" s="313"/>
-      <c r="V21" s="313"/>
-      <c r="W21" s="313"/>
-      <c r="X21" s="313"/>
-      <c r="Y21" s="313"/>
-      <c r="Z21" s="313"/>
-      <c r="AA21" s="313"/>
-      <c r="AB21" s="313"/>
-      <c r="AC21" s="313"/>
-      <c r="AD21" s="313"/>
-      <c r="AE21" s="314"/>
-      <c r="AF21" s="309"/>
-      <c r="AG21" s="310"/>
-      <c r="AH21" s="310"/>
-      <c r="AI21" s="311"/>
+      <c r="B21" s="339"/>
+      <c r="C21" s="340"/>
+      <c r="D21" s="341"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="343"/>
+      <c r="G21" s="339"/>
+      <c r="H21" s="344"/>
+      <c r="I21" s="340"/>
+      <c r="J21" s="345"/>
+      <c r="K21" s="346"/>
+      <c r="L21" s="346"/>
+      <c r="M21" s="346"/>
+      <c r="N21" s="346"/>
+      <c r="O21" s="346"/>
+      <c r="P21" s="347"/>
+      <c r="Q21" s="348"/>
+      <c r="R21" s="349"/>
+      <c r="S21" s="349"/>
+      <c r="T21" s="349"/>
+      <c r="U21" s="349"/>
+      <c r="V21" s="349"/>
+      <c r="W21" s="349"/>
+      <c r="X21" s="349"/>
+      <c r="Y21" s="349"/>
+      <c r="Z21" s="349"/>
+      <c r="AA21" s="349"/>
+      <c r="AB21" s="349"/>
+      <c r="AC21" s="349"/>
+      <c r="AD21" s="349"/>
+      <c r="AE21" s="350"/>
+      <c r="AF21" s="345"/>
+      <c r="AG21" s="346"/>
+      <c r="AH21" s="346"/>
+      <c r="AI21" s="347"/>
     </row>
     <row r="22" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="303"/>
-      <c r="C22" s="304"/>
-      <c r="D22" s="305"/>
-      <c r="E22" s="306"/>
-      <c r="F22" s="307"/>
-      <c r="G22" s="303"/>
-      <c r="H22" s="308"/>
-      <c r="I22" s="304"/>
-      <c r="J22" s="309"/>
-      <c r="K22" s="310"/>
-      <c r="L22" s="310"/>
-      <c r="M22" s="310"/>
-      <c r="N22" s="310"/>
-      <c r="O22" s="310"/>
-      <c r="P22" s="311"/>
-      <c r="Q22" s="312"/>
-      <c r="R22" s="313"/>
-      <c r="S22" s="313"/>
-      <c r="T22" s="313"/>
-      <c r="U22" s="313"/>
-      <c r="V22" s="313"/>
-      <c r="W22" s="313"/>
-      <c r="X22" s="313"/>
-      <c r="Y22" s="313"/>
-      <c r="Z22" s="313"/>
-      <c r="AA22" s="313"/>
-      <c r="AB22" s="313"/>
-      <c r="AC22" s="313"/>
-      <c r="AD22" s="313"/>
-      <c r="AE22" s="314"/>
-      <c r="AF22" s="309"/>
-      <c r="AG22" s="310"/>
-      <c r="AH22" s="310"/>
-      <c r="AI22" s="311"/>
+      <c r="B22" s="339"/>
+      <c r="C22" s="340"/>
+      <c r="D22" s="341"/>
+      <c r="E22" s="342"/>
+      <c r="F22" s="343"/>
+      <c r="G22" s="339"/>
+      <c r="H22" s="344"/>
+      <c r="I22" s="340"/>
+      <c r="J22" s="345"/>
+      <c r="K22" s="346"/>
+      <c r="L22" s="346"/>
+      <c r="M22" s="346"/>
+      <c r="N22" s="346"/>
+      <c r="O22" s="346"/>
+      <c r="P22" s="347"/>
+      <c r="Q22" s="348"/>
+      <c r="R22" s="349"/>
+      <c r="S22" s="349"/>
+      <c r="T22" s="349"/>
+      <c r="U22" s="349"/>
+      <c r="V22" s="349"/>
+      <c r="W22" s="349"/>
+      <c r="X22" s="349"/>
+      <c r="Y22" s="349"/>
+      <c r="Z22" s="349"/>
+      <c r="AA22" s="349"/>
+      <c r="AB22" s="349"/>
+      <c r="AC22" s="349"/>
+      <c r="AD22" s="349"/>
+      <c r="AE22" s="350"/>
+      <c r="AF22" s="345"/>
+      <c r="AG22" s="346"/>
+      <c r="AH22" s="346"/>
+      <c r="AI22" s="347"/>
     </row>
     <row r="23" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="303"/>
-      <c r="C23" s="304"/>
-      <c r="D23" s="305"/>
-      <c r="E23" s="306"/>
-      <c r="F23" s="307"/>
-      <c r="G23" s="303"/>
-      <c r="H23" s="308"/>
-      <c r="I23" s="304"/>
-      <c r="J23" s="309"/>
-      <c r="K23" s="310"/>
-      <c r="L23" s="310"/>
-      <c r="M23" s="310"/>
-      <c r="N23" s="310"/>
-      <c r="O23" s="310"/>
-      <c r="P23" s="311"/>
-      <c r="Q23" s="312"/>
-      <c r="R23" s="313"/>
-      <c r="S23" s="313"/>
-      <c r="T23" s="313"/>
-      <c r="U23" s="313"/>
-      <c r="V23" s="313"/>
-      <c r="W23" s="313"/>
-      <c r="X23" s="313"/>
-      <c r="Y23" s="313"/>
-      <c r="Z23" s="313"/>
-      <c r="AA23" s="313"/>
-      <c r="AB23" s="313"/>
-      <c r="AC23" s="313"/>
-      <c r="AD23" s="313"/>
-      <c r="AE23" s="314"/>
-      <c r="AF23" s="309"/>
-      <c r="AG23" s="310"/>
-      <c r="AH23" s="310"/>
-      <c r="AI23" s="311"/>
+      <c r="B23" s="339"/>
+      <c r="C23" s="340"/>
+      <c r="D23" s="341"/>
+      <c r="E23" s="342"/>
+      <c r="F23" s="343"/>
+      <c r="G23" s="339"/>
+      <c r="H23" s="344"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="345"/>
+      <c r="K23" s="346"/>
+      <c r="L23" s="346"/>
+      <c r="M23" s="346"/>
+      <c r="N23" s="346"/>
+      <c r="O23" s="346"/>
+      <c r="P23" s="347"/>
+      <c r="Q23" s="348"/>
+      <c r="R23" s="349"/>
+      <c r="S23" s="349"/>
+      <c r="T23" s="349"/>
+      <c r="U23" s="349"/>
+      <c r="V23" s="349"/>
+      <c r="W23" s="349"/>
+      <c r="X23" s="349"/>
+      <c r="Y23" s="349"/>
+      <c r="Z23" s="349"/>
+      <c r="AA23" s="349"/>
+      <c r="AB23" s="349"/>
+      <c r="AC23" s="349"/>
+      <c r="AD23" s="349"/>
+      <c r="AE23" s="350"/>
+      <c r="AF23" s="345"/>
+      <c r="AG23" s="346"/>
+      <c r="AH23" s="346"/>
+      <c r="AI23" s="347"/>
     </row>
     <row r="24" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="303"/>
-      <c r="C24" s="304"/>
-      <c r="D24" s="305"/>
-      <c r="E24" s="306"/>
-      <c r="F24" s="307"/>
-      <c r="G24" s="303"/>
-      <c r="H24" s="308"/>
-      <c r="I24" s="304"/>
-      <c r="J24" s="309"/>
-      <c r="K24" s="310"/>
-      <c r="L24" s="310"/>
-      <c r="M24" s="310"/>
-      <c r="N24" s="310"/>
-      <c r="O24" s="310"/>
-      <c r="P24" s="311"/>
-      <c r="Q24" s="312"/>
-      <c r="R24" s="313"/>
-      <c r="S24" s="313"/>
-      <c r="T24" s="313"/>
-      <c r="U24" s="313"/>
-      <c r="V24" s="313"/>
-      <c r="W24" s="313"/>
-      <c r="X24" s="313"/>
-      <c r="Y24" s="313"/>
-      <c r="Z24" s="313"/>
-      <c r="AA24" s="313"/>
-      <c r="AB24" s="313"/>
-      <c r="AC24" s="313"/>
-      <c r="AD24" s="313"/>
-      <c r="AE24" s="314"/>
-      <c r="AF24" s="309"/>
-      <c r="AG24" s="310"/>
-      <c r="AH24" s="310"/>
-      <c r="AI24" s="311"/>
+      <c r="B24" s="339"/>
+      <c r="C24" s="340"/>
+      <c r="D24" s="341"/>
+      <c r="E24" s="342"/>
+      <c r="F24" s="343"/>
+      <c r="G24" s="339"/>
+      <c r="H24" s="344"/>
+      <c r="I24" s="340"/>
+      <c r="J24" s="345"/>
+      <c r="K24" s="346"/>
+      <c r="L24" s="346"/>
+      <c r="M24" s="346"/>
+      <c r="N24" s="346"/>
+      <c r="O24" s="346"/>
+      <c r="P24" s="347"/>
+      <c r="Q24" s="348"/>
+      <c r="R24" s="349"/>
+      <c r="S24" s="349"/>
+      <c r="T24" s="349"/>
+      <c r="U24" s="349"/>
+      <c r="V24" s="349"/>
+      <c r="W24" s="349"/>
+      <c r="X24" s="349"/>
+      <c r="Y24" s="349"/>
+      <c r="Z24" s="349"/>
+      <c r="AA24" s="349"/>
+      <c r="AB24" s="349"/>
+      <c r="AC24" s="349"/>
+      <c r="AD24" s="349"/>
+      <c r="AE24" s="350"/>
+      <c r="AF24" s="345"/>
+      <c r="AG24" s="346"/>
+      <c r="AH24" s="346"/>
+      <c r="AI24" s="347"/>
     </row>
     <row r="25" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="58"/>
-      <c r="B25" s="303"/>
-      <c r="C25" s="304"/>
-      <c r="D25" s="305"/>
-      <c r="E25" s="306"/>
-      <c r="F25" s="307"/>
-      <c r="G25" s="303"/>
-      <c r="H25" s="308"/>
-      <c r="I25" s="304"/>
-      <c r="J25" s="309"/>
-      <c r="K25" s="310"/>
-      <c r="L25" s="310"/>
-      <c r="M25" s="310"/>
-      <c r="N25" s="310"/>
-      <c r="O25" s="310"/>
-      <c r="P25" s="311"/>
-      <c r="Q25" s="312"/>
-      <c r="R25" s="313"/>
-      <c r="S25" s="313"/>
-      <c r="T25" s="313"/>
-      <c r="U25" s="313"/>
-      <c r="V25" s="313"/>
-      <c r="W25" s="313"/>
-      <c r="X25" s="313"/>
-      <c r="Y25" s="313"/>
-      <c r="Z25" s="313"/>
-      <c r="AA25" s="313"/>
-      <c r="AB25" s="313"/>
-      <c r="AC25" s="313"/>
-      <c r="AD25" s="313"/>
-      <c r="AE25" s="314"/>
-      <c r="AF25" s="309"/>
-      <c r="AG25" s="310"/>
-      <c r="AH25" s="310"/>
-      <c r="AI25" s="311"/>
+      <c r="B25" s="339"/>
+      <c r="C25" s="340"/>
+      <c r="D25" s="341"/>
+      <c r="E25" s="342"/>
+      <c r="F25" s="343"/>
+      <c r="G25" s="339"/>
+      <c r="H25" s="344"/>
+      <c r="I25" s="340"/>
+      <c r="J25" s="345"/>
+      <c r="K25" s="346"/>
+      <c r="L25" s="346"/>
+      <c r="M25" s="346"/>
+      <c r="N25" s="346"/>
+      <c r="O25" s="346"/>
+      <c r="P25" s="347"/>
+      <c r="Q25" s="348"/>
+      <c r="R25" s="349"/>
+      <c r="S25" s="349"/>
+      <c r="T25" s="349"/>
+      <c r="U25" s="349"/>
+      <c r="V25" s="349"/>
+      <c r="W25" s="349"/>
+      <c r="X25" s="349"/>
+      <c r="Y25" s="349"/>
+      <c r="Z25" s="349"/>
+      <c r="AA25" s="349"/>
+      <c r="AB25" s="349"/>
+      <c r="AC25" s="349"/>
+      <c r="AD25" s="349"/>
+      <c r="AE25" s="350"/>
+      <c r="AF25" s="345"/>
+      <c r="AG25" s="346"/>
+      <c r="AH25" s="346"/>
+      <c r="AI25" s="347"/>
     </row>
     <row r="26" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="58"/>
-      <c r="B26" s="303"/>
-      <c r="C26" s="304"/>
-      <c r="D26" s="305"/>
-      <c r="E26" s="306"/>
-      <c r="F26" s="307"/>
-      <c r="G26" s="303"/>
-      <c r="H26" s="308"/>
-      <c r="I26" s="304"/>
-      <c r="J26" s="309"/>
-      <c r="K26" s="310"/>
-      <c r="L26" s="310"/>
-      <c r="M26" s="310"/>
-      <c r="N26" s="310"/>
-      <c r="O26" s="310"/>
-      <c r="P26" s="311"/>
-      <c r="Q26" s="312"/>
-      <c r="R26" s="313"/>
-      <c r="S26" s="313"/>
-      <c r="T26" s="313"/>
-      <c r="U26" s="313"/>
-      <c r="V26" s="313"/>
-      <c r="W26" s="313"/>
-      <c r="X26" s="313"/>
-      <c r="Y26" s="313"/>
-      <c r="Z26" s="313"/>
-      <c r="AA26" s="313"/>
-      <c r="AB26" s="313"/>
-      <c r="AC26" s="313"/>
-      <c r="AD26" s="313"/>
-      <c r="AE26" s="314"/>
-      <c r="AF26" s="309"/>
-      <c r="AG26" s="310"/>
-      <c r="AH26" s="310"/>
-      <c r="AI26" s="311"/>
+      <c r="B26" s="339"/>
+      <c r="C26" s="340"/>
+      <c r="D26" s="341"/>
+      <c r="E26" s="342"/>
+      <c r="F26" s="343"/>
+      <c r="G26" s="339"/>
+      <c r="H26" s="344"/>
+      <c r="I26" s="340"/>
+      <c r="J26" s="345"/>
+      <c r="K26" s="346"/>
+      <c r="L26" s="346"/>
+      <c r="M26" s="346"/>
+      <c r="N26" s="346"/>
+      <c r="O26" s="346"/>
+      <c r="P26" s="347"/>
+      <c r="Q26" s="348"/>
+      <c r="R26" s="349"/>
+      <c r="S26" s="349"/>
+      <c r="T26" s="349"/>
+      <c r="U26" s="349"/>
+      <c r="V26" s="349"/>
+      <c r="W26" s="349"/>
+      <c r="X26" s="349"/>
+      <c r="Y26" s="349"/>
+      <c r="Z26" s="349"/>
+      <c r="AA26" s="349"/>
+      <c r="AB26" s="349"/>
+      <c r="AC26" s="349"/>
+      <c r="AD26" s="349"/>
+      <c r="AE26" s="350"/>
+      <c r="AF26" s="345"/>
+      <c r="AG26" s="346"/>
+      <c r="AH26" s="346"/>
+      <c r="AI26" s="347"/>
     </row>
     <row r="27" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="303"/>
-      <c r="C27" s="304"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="307"/>
-      <c r="G27" s="303"/>
-      <c r="H27" s="308"/>
-      <c r="I27" s="304"/>
-      <c r="J27" s="309"/>
-      <c r="K27" s="310"/>
-      <c r="L27" s="310"/>
-      <c r="M27" s="310"/>
-      <c r="N27" s="310"/>
-      <c r="O27" s="310"/>
-      <c r="P27" s="311"/>
-      <c r="Q27" s="312"/>
-      <c r="R27" s="313"/>
-      <c r="S27" s="313"/>
-      <c r="T27" s="313"/>
-      <c r="U27" s="313"/>
-      <c r="V27" s="313"/>
-      <c r="W27" s="313"/>
-      <c r="X27" s="313"/>
-      <c r="Y27" s="313"/>
-      <c r="Z27" s="313"/>
-      <c r="AA27" s="313"/>
-      <c r="AB27" s="313"/>
-      <c r="AC27" s="313"/>
-      <c r="AD27" s="313"/>
-      <c r="AE27" s="314"/>
-      <c r="AF27" s="309"/>
-      <c r="AG27" s="310"/>
-      <c r="AH27" s="310"/>
-      <c r="AI27" s="311"/>
+      <c r="B27" s="339"/>
+      <c r="C27" s="340"/>
+      <c r="D27" s="341"/>
+      <c r="E27" s="342"/>
+      <c r="F27" s="343"/>
+      <c r="G27" s="339"/>
+      <c r="H27" s="344"/>
+      <c r="I27" s="340"/>
+      <c r="J27" s="345"/>
+      <c r="K27" s="346"/>
+      <c r="L27" s="346"/>
+      <c r="M27" s="346"/>
+      <c r="N27" s="346"/>
+      <c r="O27" s="346"/>
+      <c r="P27" s="347"/>
+      <c r="Q27" s="348"/>
+      <c r="R27" s="349"/>
+      <c r="S27" s="349"/>
+      <c r="T27" s="349"/>
+      <c r="U27" s="349"/>
+      <c r="V27" s="349"/>
+      <c r="W27" s="349"/>
+      <c r="X27" s="349"/>
+      <c r="Y27" s="349"/>
+      <c r="Z27" s="349"/>
+      <c r="AA27" s="349"/>
+      <c r="AB27" s="349"/>
+      <c r="AC27" s="349"/>
+      <c r="AD27" s="349"/>
+      <c r="AE27" s="350"/>
+      <c r="AF27" s="345"/>
+      <c r="AG27" s="346"/>
+      <c r="AH27" s="346"/>
+      <c r="AI27" s="347"/>
     </row>
     <row r="28" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="303"/>
-      <c r="C28" s="304"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="306"/>
-      <c r="F28" s="307"/>
-      <c r="G28" s="303"/>
-      <c r="H28" s="308"/>
-      <c r="I28" s="304"/>
-      <c r="J28" s="309"/>
-      <c r="K28" s="310"/>
-      <c r="L28" s="310"/>
-      <c r="M28" s="310"/>
-      <c r="N28" s="310"/>
-      <c r="O28" s="310"/>
-      <c r="P28" s="311"/>
-      <c r="Q28" s="312"/>
-      <c r="R28" s="313"/>
-      <c r="S28" s="313"/>
-      <c r="T28" s="313"/>
-      <c r="U28" s="313"/>
-      <c r="V28" s="313"/>
-      <c r="W28" s="313"/>
-      <c r="X28" s="313"/>
-      <c r="Y28" s="313"/>
-      <c r="Z28" s="313"/>
-      <c r="AA28" s="313"/>
-      <c r="AB28" s="313"/>
-      <c r="AC28" s="313"/>
-      <c r="AD28" s="313"/>
-      <c r="AE28" s="314"/>
-      <c r="AF28" s="309"/>
-      <c r="AG28" s="310"/>
-      <c r="AH28" s="310"/>
-      <c r="AI28" s="311"/>
+      <c r="B28" s="339"/>
+      <c r="C28" s="340"/>
+      <c r="D28" s="341"/>
+      <c r="E28" s="342"/>
+      <c r="F28" s="343"/>
+      <c r="G28" s="339"/>
+      <c r="H28" s="344"/>
+      <c r="I28" s="340"/>
+      <c r="J28" s="345"/>
+      <c r="K28" s="346"/>
+      <c r="L28" s="346"/>
+      <c r="M28" s="346"/>
+      <c r="N28" s="346"/>
+      <c r="O28" s="346"/>
+      <c r="P28" s="347"/>
+      <c r="Q28" s="348"/>
+      <c r="R28" s="349"/>
+      <c r="S28" s="349"/>
+      <c r="T28" s="349"/>
+      <c r="U28" s="349"/>
+      <c r="V28" s="349"/>
+      <c r="W28" s="349"/>
+      <c r="X28" s="349"/>
+      <c r="Y28" s="349"/>
+      <c r="Z28" s="349"/>
+      <c r="AA28" s="349"/>
+      <c r="AB28" s="349"/>
+      <c r="AC28" s="349"/>
+      <c r="AD28" s="349"/>
+      <c r="AE28" s="350"/>
+      <c r="AF28" s="345"/>
+      <c r="AG28" s="346"/>
+      <c r="AH28" s="346"/>
+      <c r="AI28" s="347"/>
     </row>
     <row r="29" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="58"/>
-      <c r="B29" s="303"/>
-      <c r="C29" s="304"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="306"/>
-      <c r="F29" s="307"/>
-      <c r="G29" s="303"/>
-      <c r="H29" s="308"/>
-      <c r="I29" s="304"/>
-      <c r="J29" s="309"/>
-      <c r="K29" s="310"/>
-      <c r="L29" s="310"/>
-      <c r="M29" s="310"/>
-      <c r="N29" s="310"/>
-      <c r="O29" s="310"/>
-      <c r="P29" s="311"/>
-      <c r="Q29" s="312"/>
-      <c r="R29" s="313"/>
-      <c r="S29" s="313"/>
-      <c r="T29" s="313"/>
-      <c r="U29" s="313"/>
-      <c r="V29" s="313"/>
-      <c r="W29" s="313"/>
-      <c r="X29" s="313"/>
-      <c r="Y29" s="313"/>
-      <c r="Z29" s="313"/>
-      <c r="AA29" s="313"/>
-      <c r="AB29" s="313"/>
-      <c r="AC29" s="313"/>
-      <c r="AD29" s="313"/>
-      <c r="AE29" s="314"/>
-      <c r="AF29" s="309"/>
-      <c r="AG29" s="310"/>
-      <c r="AH29" s="310"/>
-      <c r="AI29" s="311"/>
+      <c r="B29" s="339"/>
+      <c r="C29" s="340"/>
+      <c r="D29" s="341"/>
+      <c r="E29" s="342"/>
+      <c r="F29" s="343"/>
+      <c r="G29" s="339"/>
+      <c r="H29" s="344"/>
+      <c r="I29" s="340"/>
+      <c r="J29" s="345"/>
+      <c r="K29" s="346"/>
+      <c r="L29" s="346"/>
+      <c r="M29" s="346"/>
+      <c r="N29" s="346"/>
+      <c r="O29" s="346"/>
+      <c r="P29" s="347"/>
+      <c r="Q29" s="348"/>
+      <c r="R29" s="349"/>
+      <c r="S29" s="349"/>
+      <c r="T29" s="349"/>
+      <c r="U29" s="349"/>
+      <c r="V29" s="349"/>
+      <c r="W29" s="349"/>
+      <c r="X29" s="349"/>
+      <c r="Y29" s="349"/>
+      <c r="Z29" s="349"/>
+      <c r="AA29" s="349"/>
+      <c r="AB29" s="349"/>
+      <c r="AC29" s="349"/>
+      <c r="AD29" s="349"/>
+      <c r="AE29" s="350"/>
+      <c r="AF29" s="345"/>
+      <c r="AG29" s="346"/>
+      <c r="AH29" s="346"/>
+      <c r="AI29" s="347"/>
     </row>
     <row r="30" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="58"/>
-      <c r="B30" s="303"/>
-      <c r="C30" s="304"/>
-      <c r="D30" s="305"/>
-      <c r="E30" s="306"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="303"/>
-      <c r="H30" s="308"/>
-      <c r="I30" s="304"/>
-      <c r="J30" s="309"/>
-      <c r="K30" s="310"/>
-      <c r="L30" s="310"/>
-      <c r="M30" s="310"/>
-      <c r="N30" s="310"/>
-      <c r="O30" s="310"/>
-      <c r="P30" s="311"/>
-      <c r="Q30" s="312"/>
-      <c r="R30" s="313"/>
-      <c r="S30" s="313"/>
-      <c r="T30" s="313"/>
-      <c r="U30" s="313"/>
-      <c r="V30" s="313"/>
-      <c r="W30" s="313"/>
-      <c r="X30" s="313"/>
-      <c r="Y30" s="313"/>
-      <c r="Z30" s="313"/>
-      <c r="AA30" s="313"/>
-      <c r="AB30" s="313"/>
-      <c r="AC30" s="313"/>
-      <c r="AD30" s="313"/>
-      <c r="AE30" s="314"/>
-      <c r="AF30" s="309"/>
-      <c r="AG30" s="310"/>
-      <c r="AH30" s="310"/>
-      <c r="AI30" s="311"/>
+      <c r="B30" s="339"/>
+      <c r="C30" s="340"/>
+      <c r="D30" s="341"/>
+      <c r="E30" s="342"/>
+      <c r="F30" s="343"/>
+      <c r="G30" s="339"/>
+      <c r="H30" s="344"/>
+      <c r="I30" s="340"/>
+      <c r="J30" s="345"/>
+      <c r="K30" s="346"/>
+      <c r="L30" s="346"/>
+      <c r="M30" s="346"/>
+      <c r="N30" s="346"/>
+      <c r="O30" s="346"/>
+      <c r="P30" s="347"/>
+      <c r="Q30" s="348"/>
+      <c r="R30" s="349"/>
+      <c r="S30" s="349"/>
+      <c r="T30" s="349"/>
+      <c r="U30" s="349"/>
+      <c r="V30" s="349"/>
+      <c r="W30" s="349"/>
+      <c r="X30" s="349"/>
+      <c r="Y30" s="349"/>
+      <c r="Z30" s="349"/>
+      <c r="AA30" s="349"/>
+      <c r="AB30" s="349"/>
+      <c r="AC30" s="349"/>
+      <c r="AD30" s="349"/>
+      <c r="AE30" s="350"/>
+      <c r="AF30" s="345"/>
+      <c r="AG30" s="346"/>
+      <c r="AH30" s="346"/>
+      <c r="AI30" s="347"/>
     </row>
     <row r="31" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="58"/>
-      <c r="B31" s="303"/>
-      <c r="C31" s="304"/>
-      <c r="D31" s="305"/>
-      <c r="E31" s="306"/>
-      <c r="F31" s="307"/>
-      <c r="G31" s="303"/>
-      <c r="H31" s="308"/>
-      <c r="I31" s="304"/>
-      <c r="J31" s="309"/>
-      <c r="K31" s="310"/>
-      <c r="L31" s="310"/>
-      <c r="M31" s="310"/>
-      <c r="N31" s="310"/>
-      <c r="O31" s="310"/>
-      <c r="P31" s="311"/>
-      <c r="Q31" s="312"/>
-      <c r="R31" s="313"/>
-      <c r="S31" s="313"/>
-      <c r="T31" s="313"/>
-      <c r="U31" s="313"/>
-      <c r="V31" s="313"/>
-      <c r="W31" s="313"/>
-      <c r="X31" s="313"/>
-      <c r="Y31" s="313"/>
-      <c r="Z31" s="313"/>
-      <c r="AA31" s="313"/>
-      <c r="AB31" s="313"/>
-      <c r="AC31" s="313"/>
-      <c r="AD31" s="313"/>
-      <c r="AE31" s="314"/>
-      <c r="AF31" s="309"/>
-      <c r="AG31" s="310"/>
-      <c r="AH31" s="310"/>
-      <c r="AI31" s="311"/>
+      <c r="B31" s="339"/>
+      <c r="C31" s="340"/>
+      <c r="D31" s="341"/>
+      <c r="E31" s="342"/>
+      <c r="F31" s="343"/>
+      <c r="G31" s="339"/>
+      <c r="H31" s="344"/>
+      <c r="I31" s="340"/>
+      <c r="J31" s="345"/>
+      <c r="K31" s="346"/>
+      <c r="L31" s="346"/>
+      <c r="M31" s="346"/>
+      <c r="N31" s="346"/>
+      <c r="O31" s="346"/>
+      <c r="P31" s="347"/>
+      <c r="Q31" s="348"/>
+      <c r="R31" s="349"/>
+      <c r="S31" s="349"/>
+      <c r="T31" s="349"/>
+      <c r="U31" s="349"/>
+      <c r="V31" s="349"/>
+      <c r="W31" s="349"/>
+      <c r="X31" s="349"/>
+      <c r="Y31" s="349"/>
+      <c r="Z31" s="349"/>
+      <c r="AA31" s="349"/>
+      <c r="AB31" s="349"/>
+      <c r="AC31" s="349"/>
+      <c r="AD31" s="349"/>
+      <c r="AE31" s="350"/>
+      <c r="AF31" s="345"/>
+      <c r="AG31" s="346"/>
+      <c r="AH31" s="346"/>
+      <c r="AI31" s="347"/>
     </row>
     <row r="32" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="303"/>
-      <c r="C32" s="304"/>
-      <c r="D32" s="305"/>
-      <c r="E32" s="306"/>
-      <c r="F32" s="307"/>
-      <c r="G32" s="303"/>
-      <c r="H32" s="308"/>
-      <c r="I32" s="304"/>
-      <c r="J32" s="309"/>
-      <c r="K32" s="315"/>
-      <c r="L32" s="310"/>
-      <c r="M32" s="310"/>
-      <c r="N32" s="310"/>
-      <c r="O32" s="310"/>
-      <c r="P32" s="311"/>
-      <c r="Q32" s="312"/>
-      <c r="R32" s="313"/>
-      <c r="S32" s="313"/>
-      <c r="T32" s="313"/>
-      <c r="U32" s="313"/>
-      <c r="V32" s="313"/>
-      <c r="W32" s="313"/>
-      <c r="X32" s="313"/>
-      <c r="Y32" s="313"/>
-      <c r="Z32" s="313"/>
-      <c r="AA32" s="313"/>
-      <c r="AB32" s="313"/>
-      <c r="AC32" s="313"/>
-      <c r="AD32" s="313"/>
-      <c r="AE32" s="314"/>
-      <c r="AF32" s="309"/>
-      <c r="AG32" s="310"/>
-      <c r="AH32" s="310"/>
-      <c r="AI32" s="311"/>
+      <c r="B32" s="339"/>
+      <c r="C32" s="340"/>
+      <c r="D32" s="341"/>
+      <c r="E32" s="342"/>
+      <c r="F32" s="343"/>
+      <c r="G32" s="339"/>
+      <c r="H32" s="344"/>
+      <c r="I32" s="340"/>
+      <c r="J32" s="345"/>
+      <c r="K32" s="360"/>
+      <c r="L32" s="346"/>
+      <c r="M32" s="346"/>
+      <c r="N32" s="346"/>
+      <c r="O32" s="346"/>
+      <c r="P32" s="347"/>
+      <c r="Q32" s="348"/>
+      <c r="R32" s="349"/>
+      <c r="S32" s="349"/>
+      <c r="T32" s="349"/>
+      <c r="U32" s="349"/>
+      <c r="V32" s="349"/>
+      <c r="W32" s="349"/>
+      <c r="X32" s="349"/>
+      <c r="Y32" s="349"/>
+      <c r="Z32" s="349"/>
+      <c r="AA32" s="349"/>
+      <c r="AB32" s="349"/>
+      <c r="AC32" s="349"/>
+      <c r="AD32" s="349"/>
+      <c r="AE32" s="350"/>
+      <c r="AF32" s="345"/>
+      <c r="AG32" s="346"/>
+      <c r="AH32" s="346"/>
+      <c r="AI32" s="347"/>
     </row>
     <row r="33" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="58"/>
-      <c r="B33" s="303"/>
-      <c r="C33" s="304"/>
-      <c r="D33" s="305"/>
-      <c r="E33" s="306"/>
-      <c r="F33" s="307"/>
-      <c r="G33" s="303"/>
-      <c r="H33" s="308"/>
-      <c r="I33" s="304"/>
-      <c r="J33" s="309"/>
-      <c r="K33" s="310"/>
-      <c r="L33" s="310"/>
-      <c r="M33" s="310"/>
-      <c r="N33" s="310"/>
-      <c r="O33" s="310"/>
-      <c r="P33" s="311"/>
-      <c r="Q33" s="312"/>
-      <c r="R33" s="313"/>
-      <c r="S33" s="313"/>
-      <c r="T33" s="313"/>
-      <c r="U33" s="313"/>
-      <c r="V33" s="313"/>
-      <c r="W33" s="313"/>
-      <c r="X33" s="313"/>
-      <c r="Y33" s="313"/>
-      <c r="Z33" s="313"/>
-      <c r="AA33" s="313"/>
-      <c r="AB33" s="313"/>
-      <c r="AC33" s="313"/>
-      <c r="AD33" s="313"/>
-      <c r="AE33" s="314"/>
-      <c r="AF33" s="309"/>
-      <c r="AG33" s="310"/>
-      <c r="AH33" s="310"/>
-      <c r="AI33" s="311"/>
+      <c r="B33" s="339"/>
+      <c r="C33" s="340"/>
+      <c r="D33" s="341"/>
+      <c r="E33" s="342"/>
+      <c r="F33" s="343"/>
+      <c r="G33" s="339"/>
+      <c r="H33" s="344"/>
+      <c r="I33" s="340"/>
+      <c r="J33" s="345"/>
+      <c r="K33" s="346"/>
+      <c r="L33" s="346"/>
+      <c r="M33" s="346"/>
+      <c r="N33" s="346"/>
+      <c r="O33" s="346"/>
+      <c r="P33" s="347"/>
+      <c r="Q33" s="348"/>
+      <c r="R33" s="349"/>
+      <c r="S33" s="349"/>
+      <c r="T33" s="349"/>
+      <c r="U33" s="349"/>
+      <c r="V33" s="349"/>
+      <c r="W33" s="349"/>
+      <c r="X33" s="349"/>
+      <c r="Y33" s="349"/>
+      <c r="Z33" s="349"/>
+      <c r="AA33" s="349"/>
+      <c r="AB33" s="349"/>
+      <c r="AC33" s="349"/>
+      <c r="AD33" s="349"/>
+      <c r="AE33" s="350"/>
+      <c r="AF33" s="345"/>
+      <c r="AG33" s="346"/>
+      <c r="AH33" s="346"/>
+      <c r="AI33" s="347"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12336,161 +12491,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -12648,164 +12648,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="361" t="s">
+      <c r="A1" s="364" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="334" t="str">
+      <c r="B1" s="366"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="312" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="364" t="s">
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="314"/>
+      <c r="O1" s="367" t="s">
         <v>434</v>
       </c>
-      <c r="P1" s="365"/>
-      <c r="Q1" s="365"/>
-      <c r="R1" s="366"/>
-      <c r="S1" s="349" t="str">
+      <c r="P1" s="368"/>
+      <c r="Q1" s="368"/>
+      <c r="R1" s="369"/>
+      <c r="S1" s="327" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト仕様書(画面)
 サンプル取引/WXXXXXXX</v>
       </c>
-      <c r="T1" s="350"/>
-      <c r="U1" s="350"/>
-      <c r="V1" s="350"/>
-      <c r="W1" s="350"/>
-      <c r="X1" s="350"/>
-      <c r="Y1" s="350"/>
-      <c r="Z1" s="351"/>
-      <c r="AA1" s="361" t="s">
+      <c r="T1" s="328"/>
+      <c r="U1" s="328"/>
+      <c r="V1" s="328"/>
+      <c r="W1" s="328"/>
+      <c r="X1" s="328"/>
+      <c r="Y1" s="328"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="364" t="s">
         <v>435</v>
       </c>
-      <c r="AB1" s="363"/>
-      <c r="AC1" s="358" t="str">
+      <c r="AB1" s="365"/>
+      <c r="AC1" s="336" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="359"/>
-      <c r="AE1" s="359"/>
-      <c r="AF1" s="360"/>
-      <c r="AG1" s="373">
+      <c r="AD1" s="337"/>
+      <c r="AE1" s="337"/>
+      <c r="AF1" s="338"/>
+      <c r="AG1" s="361">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="374"/>
-      <c r="AI1" s="375"/>
+      <c r="AH1" s="362"/>
+      <c r="AI1" s="363"/>
       <c r="AJ1" s="48"/>
       <c r="AK1" s="48"/>
       <c r="AL1" s="49"/>
     </row>
     <row r="2" spans="1:38" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="364" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="363"/>
-      <c r="E2" s="334" t="str">
+      <c r="B2" s="366"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="312" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="367"/>
-      <c r="P2" s="368"/>
-      <c r="Q2" s="368"/>
-      <c r="R2" s="369"/>
-      <c r="S2" s="352"/>
-      <c r="T2" s="353"/>
-      <c r="U2" s="353"/>
-      <c r="V2" s="353"/>
-      <c r="W2" s="353"/>
-      <c r="X2" s="353"/>
-      <c r="Y2" s="353"/>
-      <c r="Z2" s="354"/>
-      <c r="AA2" s="361" t="s">
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="314"/>
+      <c r="O2" s="370"/>
+      <c r="P2" s="371"/>
+      <c r="Q2" s="371"/>
+      <c r="R2" s="372"/>
+      <c r="S2" s="330"/>
+      <c r="T2" s="331"/>
+      <c r="U2" s="331"/>
+      <c r="V2" s="331"/>
+      <c r="W2" s="331"/>
+      <c r="X2" s="331"/>
+      <c r="Y2" s="331"/>
+      <c r="Z2" s="332"/>
+      <c r="AA2" s="364" t="s">
         <v>437</v>
       </c>
-      <c r="AB2" s="363"/>
-      <c r="AC2" s="358" t="str">
+      <c r="AB2" s="365"/>
+      <c r="AC2" s="336" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="359"/>
-      <c r="AE2" s="359"/>
-      <c r="AF2" s="360"/>
-      <c r="AG2" s="373" t="str">
+      <c r="AD2" s="337"/>
+      <c r="AE2" s="337"/>
+      <c r="AF2" s="338"/>
+      <c r="AG2" s="361" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="374"/>
-      <c r="AI2" s="375"/>
+      <c r="AH2" s="362"/>
+      <c r="AI2" s="363"/>
       <c r="AJ2" s="48"/>
       <c r="AK2" s="48"/>
       <c r="AL2" s="48"/>
     </row>
     <row r="3" spans="1:38" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="364" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="334" t="str">
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="312" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="370"/>
-      <c r="P3" s="371"/>
-      <c r="Q3" s="371"/>
-      <c r="R3" s="372"/>
-      <c r="S3" s="355"/>
-      <c r="T3" s="356"/>
-      <c r="U3" s="356"/>
-      <c r="V3" s="356"/>
-      <c r="W3" s="356"/>
-      <c r="X3" s="356"/>
-      <c r="Y3" s="356"/>
-      <c r="Z3" s="357"/>
-      <c r="AA3" s="361"/>
-      <c r="AB3" s="363"/>
-      <c r="AC3" s="358" t="str">
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="373"/>
+      <c r="P3" s="374"/>
+      <c r="Q3" s="374"/>
+      <c r="R3" s="375"/>
+      <c r="S3" s="333"/>
+      <c r="T3" s="334"/>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="334"/>
+      <c r="Y3" s="334"/>
+      <c r="Z3" s="335"/>
+      <c r="AA3" s="364"/>
+      <c r="AB3" s="365"/>
+      <c r="AC3" s="336" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="359"/>
-      <c r="AE3" s="359"/>
-      <c r="AF3" s="360"/>
-      <c r="AG3" s="373" t="str">
+      <c r="AD3" s="337"/>
+      <c r="AE3" s="337"/>
+      <c r="AF3" s="338"/>
+      <c r="AG3" s="361" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="374"/>
-      <c r="AI3" s="375"/>
+      <c r="AH3" s="362"/>
+      <c r="AI3" s="363"/>
       <c r="AJ3" s="48"/>
       <c r="AK3" s="48"/>
       <c r="AL3" s="48"/>
@@ -14274,14 +14274,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14291,6 +14283,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -14867,10 +14867,10 @@
         <v>29</v>
       </c>
       <c r="D28" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" s="146" t="s">
         <v>469</v>
-      </c>
-      <c r="E28" s="146" t="s">
-        <v>471</v>
       </c>
       <c r="F28" s="121"/>
       <c r="G28" s="121"/>
@@ -14891,10 +14891,10 @@
         <v>30</v>
       </c>
       <c r="D29" s="146" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F29" s="121"/>
       <c r="G29" s="121"/>
@@ -14915,10 +14915,10 @@
         <v>31</v>
       </c>
       <c r="D30" s="146" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E30" s="149" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F30" s="121"/>
       <c r="G30" s="121"/>
@@ -14939,7 +14939,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="146" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E31" s="133" t="s">
         <v>467</v>
@@ -14963,10 +14963,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="146" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E32" s="133" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F32" s="121"/>
       <c r="G32" s="121"/>
@@ -14987,10 +14987,10 @@
         <v>33</v>
       </c>
       <c r="D33" s="150" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E33" s="150" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F33" s="121"/>
       <c r="G33" s="121"/>
@@ -15013,10 +15013,10 @@
         <v>34</v>
       </c>
       <c r="D34" s="149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E34" s="149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F34" s="121"/>
       <c r="G34" s="121"/>
@@ -15037,10 +15037,10 @@
         <v>35</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E35" s="149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F35" s="121"/>
       <c r="G35" s="121"/>
@@ -15061,10 +15061,10 @@
         <v>36</v>
       </c>
       <c r="D36" s="149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E36" s="149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F36" s="121"/>
       <c r="G36" s="121"/>
@@ -15085,10 +15085,10 @@
         <v>37</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E37" s="149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F37" s="121"/>
       <c r="G37" s="121"/>
@@ -15747,10 +15747,10 @@
         <v>193</v>
       </c>
       <c r="F27" s="265" t="s">
+        <v>475</v>
+      </c>
+      <c r="G27" s="265" t="s">
         <v>468</v>
-      </c>
-      <c r="G27" s="265" t="s">
-        <v>470</v>
       </c>
       <c r="H27" s="265"/>
       <c r="I27" s="265"/>
@@ -15773,10 +15773,10 @@
         <v>194</v>
       </c>
       <c r="F28" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G28" s="265" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H28" s="265"/>
       <c r="I28" s="265"/>
@@ -15799,10 +15799,10 @@
         <v>195</v>
       </c>
       <c r="F29" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G29" s="265" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H29" s="265"/>
       <c r="I29" s="265"/>
@@ -15825,7 +15825,7 @@
         <v>196</v>
       </c>
       <c r="F30" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G30" s="265" t="s">
         <v>467</v>
@@ -15851,10 +15851,10 @@
         <v>197</v>
       </c>
       <c r="F31" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G31" s="265" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H31" s="265"/>
       <c r="I31" s="265"/>
@@ -15877,10 +15877,10 @@
         <v>198</v>
       </c>
       <c r="F32" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G32" s="265" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H32" s="265"/>
       <c r="I32" s="265"/>
@@ -15983,10 +15983,10 @@
         <v>203</v>
       </c>
       <c r="F36" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G36" s="265" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H36" s="265"/>
       <c r="I36" s="265"/>
@@ -16009,10 +16009,10 @@
         <v>204</v>
       </c>
       <c r="F37" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G37" s="265" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H37" s="265"/>
       <c r="I37" s="265"/>
@@ -16035,10 +16035,10 @@
         <v>205</v>
       </c>
       <c r="F38" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G38" s="265" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H38" s="265"/>
       <c r="I38" s="265"/>
@@ -16061,10 +16061,10 @@
         <v>206</v>
       </c>
       <c r="F39" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G39" s="265" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H39" s="265"/>
       <c r="I39" s="265"/>
@@ -17461,7 +17461,7 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>

--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_サンプル.xlsx
@@ -4642,29 +4642,6 @@
 (b)レコード構成</t>
   </si>
   <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-  </si>
-  <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="45" eb="50">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>(a)作成条件
 (b)作成条件
 (c)処理詳細、イベント詳細</t>
@@ -4721,6 +4698,29 @@
     <t>(a)データレイアウト
 (b)データレイアウト
 (c)処理詳細、出力データ定義、イベント詳細</t>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -7212,20 +7212,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276223</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="2371725"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2295523" y="2695576"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7243,27 +7243,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7271,27 +7259,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7307,20 +7283,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="2295525"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2095499" y="2143126"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7338,27 +7314,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7366,27 +7330,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7402,20 +7354,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="2362200"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1866900" y="2428875"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7433,27 +7385,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7461,27 +7401,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9210,19 +9138,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4438650" y="7858125"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4572000" y="4448175"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9240,27 +9168,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9268,27 +9184,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9301,18 +9205,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="20259675"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4686300" y="14592300"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9330,27 +9234,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9358,27 +9250,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9390,19 +9270,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1733550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629150" y="12858750"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4533900" y="20231099"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9420,27 +9300,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9448,27 +9316,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9720,19 +9576,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3619500" y="6915150"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4457701" y="4095750"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9750,27 +9606,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9778,27 +9622,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9810,19 +9642,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4638675" y="21116925"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4305300" y="19259549"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9840,27 +9672,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -9868,27 +9688,81 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5473999" cy="1871540"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20636203">
+          <a:off x="4057650" y="27936826"/>
+          <a:ext cx="5473999" cy="1871540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
+              <a:ln w="12700" cmpd="sng">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
                   <a:alpha val="30000"/>
                 </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SAMPLE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
+            <a:ln w="12700" cmpd="sng">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -10080,19 +9954,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3467100" y="6962775"/>
+        <a:xfrm rot="20636203">
+          <a:off x="3714750" y="6105525"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10110,27 +9984,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -10138,27 +10000,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -15017,10 +14867,10 @@
         <v>29</v>
       </c>
       <c r="D28" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" s="146" t="s">
         <v>469</v>
-      </c>
-      <c r="E28" s="146" t="s">
-        <v>471</v>
       </c>
       <c r="F28" s="121"/>
       <c r="G28" s="121"/>
@@ -15041,10 +14891,10 @@
         <v>30</v>
       </c>
       <c r="D29" s="146" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F29" s="121"/>
       <c r="G29" s="121"/>
@@ -15065,10 +14915,10 @@
         <v>31</v>
       </c>
       <c r="D30" s="146" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E30" s="149" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F30" s="121"/>
       <c r="G30" s="121"/>
@@ -15089,7 +14939,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="146" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E31" s="133" t="s">
         <v>467</v>
@@ -15113,10 +14963,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="146" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E32" s="133" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F32" s="121"/>
       <c r="G32" s="121"/>
@@ -15137,10 +14987,10 @@
         <v>33</v>
       </c>
       <c r="D33" s="150" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E33" s="150" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F33" s="121"/>
       <c r="G33" s="121"/>
@@ -15163,10 +15013,10 @@
         <v>34</v>
       </c>
       <c r="D34" s="149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E34" s="149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F34" s="121"/>
       <c r="G34" s="121"/>
@@ -15187,10 +15037,10 @@
         <v>35</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E35" s="149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F35" s="121"/>
       <c r="G35" s="121"/>
@@ -15211,10 +15061,10 @@
         <v>36</v>
       </c>
       <c r="D36" s="149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E36" s="149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F36" s="121"/>
       <c r="G36" s="121"/>
@@ -15235,10 +15085,10 @@
         <v>37</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E37" s="149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F37" s="121"/>
       <c r="G37" s="121"/>
@@ -15897,10 +15747,10 @@
         <v>193</v>
       </c>
       <c r="F27" s="265" t="s">
+        <v>475</v>
+      </c>
+      <c r="G27" s="265" t="s">
         <v>468</v>
-      </c>
-      <c r="G27" s="265" t="s">
-        <v>470</v>
       </c>
       <c r="H27" s="265"/>
       <c r="I27" s="265"/>
@@ -15923,10 +15773,10 @@
         <v>194</v>
       </c>
       <c r="F28" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G28" s="265" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H28" s="265"/>
       <c r="I28" s="265"/>
@@ -15949,10 +15799,10 @@
         <v>195</v>
       </c>
       <c r="F29" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G29" s="265" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H29" s="265"/>
       <c r="I29" s="265"/>
@@ -15975,7 +15825,7 @@
         <v>196</v>
       </c>
       <c r="F30" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G30" s="265" t="s">
         <v>467</v>
@@ -16001,10 +15851,10 @@
         <v>197</v>
       </c>
       <c r="F31" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G31" s="265" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H31" s="265"/>
       <c r="I31" s="265"/>
@@ -16027,10 +15877,10 @@
         <v>198</v>
       </c>
       <c r="F32" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G32" s="265" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H32" s="265"/>
       <c r="I32" s="265"/>
@@ -16133,10 +15983,10 @@
         <v>203</v>
       </c>
       <c r="F36" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G36" s="265" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H36" s="265"/>
       <c r="I36" s="265"/>
@@ -16159,10 +16009,10 @@
         <v>204</v>
       </c>
       <c r="F37" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G37" s="265" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H37" s="265"/>
       <c r="I37" s="265"/>
@@ -16185,10 +16035,10 @@
         <v>205</v>
       </c>
       <c r="F38" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G38" s="265" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H38" s="265"/>
       <c r="I38" s="265"/>
@@ -16211,10 +16061,10 @@
         <v>206</v>
       </c>
       <c r="F39" s="265" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G39" s="265" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H39" s="265"/>
       <c r="I39" s="265"/>
@@ -17611,7 +17461,7 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>

--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_サンプル.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C72BC60-BBDB-47E5-AA2F-0A1A275E2384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366416F-B841-45BC-B7A4-CF3646A8592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="31320" windowHeight="18225" tabRatio="688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13065,8 +13065,134 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -13176,124 +13302,13 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13323,35 +13338,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -14116,6 +14116,78 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3086101</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5473999" cy="1871540"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028EE791-880A-48E4-8D6F-59BDF41821A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20636203">
+          <a:off x="6372226" y="5267325"/>
+          <a:ext cx="5473999" cy="1871540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
+              <a:ln w="12700" cmpd="sng">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SAMPLE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
+            <a:ln w="12700" cmpd="sng">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -14455,7 +14527,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>・確認する内容にOR条件は極力使用しない</a:t>
+            <a:t>・確認する内容にOR条件は極力使用しない。</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14473,7 +14545,32 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>　条件のどちらか一方で確認内容が充足する場合はその旨を記述し、両方の条件の確認が必要な場合は、ケースを分けて記述する</a:t>
+            <a:t>　条件のどちらか一方で確認内容が充足する場合はその旨を記述し、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>　両方の条件の確認が必要な場合は、ケースを分けて記述する</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15700,78 +15797,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3086101</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5473999" cy="1871540"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028EE791-880A-48E4-8D6F-59BDF41821A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20636203">
-          <a:off x="6372226" y="5267325"/>
-          <a:ext cx="5473999" cy="1871540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
-              <a:ln w="12700" cmpd="sng">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>SAMPLE</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
-            <a:ln w="12700" cmpd="sng">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:alpha val="30000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -17110,12 +17135,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="316">
+      <c r="I25" s="324">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44852</v>
       </c>
-      <c r="J25" s="316"/>
-      <c r="K25" s="316"/>
+      <c r="J25" s="324"/>
+      <c r="K25" s="324"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="7"/>
@@ -17671,57 +17696,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="365" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="326" t="s">
+      <c r="B1" s="366"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="368" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="328"/>
-      <c r="O1" s="332" t="s">
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
+      <c r="I1" s="369"/>
+      <c r="J1" s="369"/>
+      <c r="K1" s="369"/>
+      <c r="L1" s="369"/>
+      <c r="M1" s="369"/>
+      <c r="N1" s="370"/>
+      <c r="O1" s="374" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="333"/>
-      <c r="R1" s="334"/>
-      <c r="S1" s="341" t="s">
+      <c r="P1" s="375"/>
+      <c r="Q1" s="375"/>
+      <c r="R1" s="376"/>
+      <c r="S1" s="383" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="342"/>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
-      <c r="X1" s="342"/>
-      <c r="Y1" s="342"/>
-      <c r="Z1" s="343"/>
-      <c r="AA1" s="323" t="s">
+      <c r="T1" s="384"/>
+      <c r="U1" s="384"/>
+      <c r="V1" s="384"/>
+      <c r="W1" s="384"/>
+      <c r="X1" s="384"/>
+      <c r="Y1" s="384"/>
+      <c r="Z1" s="385"/>
+      <c r="AA1" s="365" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="325"/>
-      <c r="AC1" s="350" t="str">
+      <c r="AB1" s="367"/>
+      <c r="AC1" s="392" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="351"/>
-      <c r="AE1" s="351"/>
-      <c r="AF1" s="352"/>
-      <c r="AG1" s="317">
+      <c r="AD1" s="393"/>
+      <c r="AE1" s="393"/>
+      <c r="AF1" s="394"/>
+      <c r="AG1" s="359">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="318"/>
-      <c r="AI1" s="319"/>
+      <c r="AH1" s="360"/>
+      <c r="AI1" s="361"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -17729,53 +17754,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="365" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="326" t="s">
+      <c r="B2" s="366"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="368" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="337"/>
-      <c r="S2" s="344"/>
-      <c r="T2" s="345"/>
-      <c r="U2" s="345"/>
-      <c r="V2" s="345"/>
-      <c r="W2" s="345"/>
-      <c r="X2" s="345"/>
-      <c r="Y2" s="345"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="323" t="s">
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="370"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="378"/>
+      <c r="Q2" s="378"/>
+      <c r="R2" s="379"/>
+      <c r="S2" s="386"/>
+      <c r="T2" s="387"/>
+      <c r="U2" s="387"/>
+      <c r="V2" s="387"/>
+      <c r="W2" s="387"/>
+      <c r="X2" s="387"/>
+      <c r="Y2" s="387"/>
+      <c r="Z2" s="388"/>
+      <c r="AA2" s="365" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="325"/>
-      <c r="AC2" s="329" t="str">
+      <c r="AB2" s="367"/>
+      <c r="AC2" s="371" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="330"/>
-      <c r="AE2" s="330"/>
-      <c r="AF2" s="331"/>
-      <c r="AG2" s="317">
+      <c r="AD2" s="372"/>
+      <c r="AE2" s="372"/>
+      <c r="AF2" s="373"/>
+      <c r="AG2" s="359">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44852</v>
       </c>
-      <c r="AH2" s="318"/>
-      <c r="AI2" s="319"/>
+      <c r="AH2" s="360"/>
+      <c r="AI2" s="361"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -17783,45 +17808,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="323" t="s">
+      <c r="A3" s="365" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="324"/>
-      <c r="C3" s="324"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="326" t="s">
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="367"/>
+      <c r="E3" s="368" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="328"/>
-      <c r="O3" s="338"/>
-      <c r="P3" s="339"/>
-      <c r="Q3" s="339"/>
-      <c r="R3" s="340"/>
-      <c r="S3" s="347"/>
-      <c r="T3" s="348"/>
-      <c r="U3" s="348"/>
-      <c r="V3" s="348"/>
-      <c r="W3" s="348"/>
-      <c r="X3" s="348"/>
-      <c r="Y3" s="348"/>
-      <c r="Z3" s="349"/>
-      <c r="AA3" s="323"/>
-      <c r="AB3" s="325"/>
-      <c r="AC3" s="350"/>
-      <c r="AD3" s="351"/>
-      <c r="AE3" s="351"/>
-      <c r="AF3" s="352"/>
-      <c r="AG3" s="317"/>
-      <c r="AH3" s="318"/>
-      <c r="AI3" s="319"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
+      <c r="K3" s="369"/>
+      <c r="L3" s="369"/>
+      <c r="M3" s="369"/>
+      <c r="N3" s="370"/>
+      <c r="O3" s="380"/>
+      <c r="P3" s="381"/>
+      <c r="Q3" s="381"/>
+      <c r="R3" s="382"/>
+      <c r="S3" s="389"/>
+      <c r="T3" s="390"/>
+      <c r="U3" s="390"/>
+      <c r="V3" s="390"/>
+      <c r="W3" s="390"/>
+      <c r="X3" s="390"/>
+      <c r="Y3" s="390"/>
+      <c r="Z3" s="391"/>
+      <c r="AA3" s="365"/>
+      <c r="AB3" s="367"/>
+      <c r="AC3" s="392"/>
+      <c r="AD3" s="393"/>
+      <c r="AE3" s="393"/>
+      <c r="AF3" s="394"/>
+      <c r="AG3" s="359"/>
+      <c r="AH3" s="360"/>
+      <c r="AI3" s="361"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -17858,97 +17883,97 @@
       <c r="A7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="320" t="s">
+      <c r="B7" s="362" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="321"/>
-      <c r="D7" s="320" t="s">
+      <c r="C7" s="363"/>
+      <c r="D7" s="362" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="322"/>
-      <c r="F7" s="321"/>
-      <c r="G7" s="320" t="s">
+      <c r="E7" s="364"/>
+      <c r="F7" s="363"/>
+      <c r="G7" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="322"/>
-      <c r="I7" s="321"/>
-      <c r="J7" s="320" t="s">
+      <c r="H7" s="364"/>
+      <c r="I7" s="363"/>
+      <c r="J7" s="362" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="322"/>
-      <c r="L7" s="322"/>
-      <c r="M7" s="322"/>
-      <c r="N7" s="322"/>
-      <c r="O7" s="322"/>
-      <c r="P7" s="321"/>
-      <c r="Q7" s="320" t="s">
+      <c r="K7" s="364"/>
+      <c r="L7" s="364"/>
+      <c r="M7" s="364"/>
+      <c r="N7" s="364"/>
+      <c r="O7" s="364"/>
+      <c r="P7" s="363"/>
+      <c r="Q7" s="362" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="322"/>
-      <c r="S7" s="322"/>
-      <c r="T7" s="322"/>
-      <c r="U7" s="322"/>
-      <c r="V7" s="322"/>
-      <c r="W7" s="322"/>
-      <c r="X7" s="322"/>
-      <c r="Y7" s="322"/>
-      <c r="Z7" s="322"/>
-      <c r="AA7" s="322"/>
-      <c r="AB7" s="322"/>
-      <c r="AC7" s="322"/>
-      <c r="AD7" s="322"/>
-      <c r="AE7" s="321"/>
-      <c r="AF7" s="320" t="s">
+      <c r="R7" s="364"/>
+      <c r="S7" s="364"/>
+      <c r="T7" s="364"/>
+      <c r="U7" s="364"/>
+      <c r="V7" s="364"/>
+      <c r="W7" s="364"/>
+      <c r="X7" s="364"/>
+      <c r="Y7" s="364"/>
+      <c r="Z7" s="364"/>
+      <c r="AA7" s="364"/>
+      <c r="AB7" s="364"/>
+      <c r="AC7" s="364"/>
+      <c r="AD7" s="364"/>
+      <c r="AE7" s="363"/>
+      <c r="AF7" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="322"/>
-      <c r="AH7" s="322"/>
-      <c r="AI7" s="321"/>
+      <c r="AG7" s="364"/>
+      <c r="AH7" s="364"/>
+      <c r="AI7" s="363"/>
     </row>
     <row r="8" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="71">
         <v>1</v>
       </c>
-      <c r="B8" s="365" t="s">
+      <c r="B8" s="350" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="366"/>
-      <c r="D8" s="367">
+      <c r="C8" s="351"/>
+      <c r="D8" s="352">
         <v>43336</v>
       </c>
-      <c r="E8" s="368"/>
-      <c r="F8" s="369"/>
-      <c r="G8" s="365" t="s">
+      <c r="E8" s="353"/>
+      <c r="F8" s="354"/>
+      <c r="G8" s="350" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="370"/>
-      <c r="I8" s="366"/>
-      <c r="J8" s="371" t="s">
+      <c r="H8" s="355"/>
+      <c r="I8" s="351"/>
+      <c r="J8" s="356" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="372"/>
-      <c r="L8" s="372"/>
-      <c r="M8" s="372"/>
-      <c r="N8" s="372"/>
-      <c r="O8" s="372"/>
-      <c r="P8" s="373"/>
-      <c r="Q8" s="371" t="s">
+      <c r="K8" s="357"/>
+      <c r="L8" s="357"/>
+      <c r="M8" s="357"/>
+      <c r="N8" s="357"/>
+      <c r="O8" s="357"/>
+      <c r="P8" s="358"/>
+      <c r="Q8" s="356" t="s">
         <v>90</v>
       </c>
-      <c r="R8" s="372"/>
-      <c r="S8" s="372"/>
-      <c r="T8" s="372"/>
-      <c r="U8" s="372"/>
-      <c r="V8" s="372"/>
-      <c r="W8" s="372"/>
-      <c r="X8" s="372"/>
-      <c r="Y8" s="372"/>
-      <c r="Z8" s="372"/>
-      <c r="AA8" s="372"/>
-      <c r="AB8" s="372"/>
-      <c r="AC8" s="372"/>
-      <c r="AD8" s="372"/>
-      <c r="AE8" s="373"/>
+      <c r="R8" s="357"/>
+      <c r="S8" s="357"/>
+      <c r="T8" s="357"/>
+      <c r="U8" s="357"/>
+      <c r="V8" s="357"/>
+      <c r="W8" s="357"/>
+      <c r="X8" s="357"/>
+      <c r="Y8" s="357"/>
+      <c r="Z8" s="357"/>
+      <c r="AA8" s="357"/>
+      <c r="AB8" s="357"/>
+      <c r="AC8" s="357"/>
+      <c r="AD8" s="357"/>
+      <c r="AE8" s="358"/>
       <c r="AF8" s="72" t="s">
         <v>91</v>
       </c>
@@ -17960,1101 +17985,946 @@
       <c r="A9" s="71">
         <v>2</v>
       </c>
-      <c r="B9" s="353" t="s">
+      <c r="B9" s="338" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="354"/>
-      <c r="D9" s="355">
+      <c r="C9" s="339"/>
+      <c r="D9" s="340">
         <v>44852</v>
       </c>
-      <c r="E9" s="356"/>
-      <c r="F9" s="357"/>
-      <c r="G9" s="355" t="s">
+      <c r="E9" s="341"/>
+      <c r="F9" s="342"/>
+      <c r="G9" s="340" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="358"/>
-      <c r="I9" s="354"/>
-      <c r="J9" s="359" t="s">
+      <c r="H9" s="343"/>
+      <c r="I9" s="339"/>
+      <c r="J9" s="344" t="s">
         <v>754</v>
       </c>
-      <c r="K9" s="360"/>
-      <c r="L9" s="360"/>
-      <c r="M9" s="360"/>
-      <c r="N9" s="360"/>
-      <c r="O9" s="360"/>
-      <c r="P9" s="361"/>
-      <c r="Q9" s="359" t="s">
+      <c r="K9" s="345"/>
+      <c r="L9" s="345"/>
+      <c r="M9" s="345"/>
+      <c r="N9" s="345"/>
+      <c r="O9" s="345"/>
+      <c r="P9" s="346"/>
+      <c r="Q9" s="344" t="s">
         <v>755</v>
       </c>
-      <c r="R9" s="362"/>
-      <c r="S9" s="362"/>
-      <c r="T9" s="362"/>
-      <c r="U9" s="362"/>
-      <c r="V9" s="362"/>
-      <c r="W9" s="362"/>
-      <c r="X9" s="362"/>
-      <c r="Y9" s="362"/>
-      <c r="Z9" s="362"/>
-      <c r="AA9" s="362"/>
-      <c r="AB9" s="362"/>
-      <c r="AC9" s="362"/>
-      <c r="AD9" s="362"/>
-      <c r="AE9" s="363"/>
-      <c r="AF9" s="364" t="s">
+      <c r="R9" s="347"/>
+      <c r="S9" s="347"/>
+      <c r="T9" s="347"/>
+      <c r="U9" s="347"/>
+      <c r="V9" s="347"/>
+      <c r="W9" s="347"/>
+      <c r="X9" s="347"/>
+      <c r="Y9" s="347"/>
+      <c r="Z9" s="347"/>
+      <c r="AA9" s="347"/>
+      <c r="AB9" s="347"/>
+      <c r="AC9" s="347"/>
+      <c r="AD9" s="347"/>
+      <c r="AE9" s="348"/>
+      <c r="AF9" s="349" t="s">
         <v>91</v>
       </c>
-      <c r="AG9" s="360"/>
-      <c r="AH9" s="360"/>
-      <c r="AI9" s="361"/>
+      <c r="AG9" s="345"/>
+      <c r="AH9" s="345"/>
+      <c r="AI9" s="346"/>
     </row>
     <row r="10" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="374"/>
-      <c r="C10" s="375"/>
-      <c r="D10" s="376"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="378"/>
-      <c r="G10" s="374"/>
-      <c r="H10" s="379"/>
-      <c r="I10" s="375"/>
-      <c r="J10" s="380"/>
-      <c r="K10" s="381"/>
-      <c r="L10" s="381"/>
-      <c r="M10" s="381"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="381"/>
-      <c r="P10" s="382"/>
-      <c r="Q10" s="383"/>
-      <c r="R10" s="384"/>
-      <c r="S10" s="384"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="384"/>
-      <c r="V10" s="384"/>
-      <c r="W10" s="384"/>
-      <c r="X10" s="384"/>
-      <c r="Y10" s="384"/>
-      <c r="Z10" s="384"/>
-      <c r="AA10" s="384"/>
-      <c r="AB10" s="384"/>
-      <c r="AC10" s="384"/>
-      <c r="AD10" s="384"/>
-      <c r="AE10" s="385"/>
-      <c r="AF10" s="380"/>
-      <c r="AG10" s="381"/>
-      <c r="AH10" s="381"/>
-      <c r="AI10" s="382"/>
+      <c r="B10" s="325"/>
+      <c r="C10" s="326"/>
+      <c r="D10" s="327"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="329"/>
+      <c r="G10" s="325"/>
+      <c r="H10" s="330"/>
+      <c r="I10" s="326"/>
+      <c r="J10" s="331"/>
+      <c r="K10" s="332"/>
+      <c r="L10" s="332"/>
+      <c r="M10" s="332"/>
+      <c r="N10" s="332"/>
+      <c r="O10" s="332"/>
+      <c r="P10" s="333"/>
+      <c r="Q10" s="334"/>
+      <c r="R10" s="335"/>
+      <c r="S10" s="335"/>
+      <c r="T10" s="335"/>
+      <c r="U10" s="335"/>
+      <c r="V10" s="335"/>
+      <c r="W10" s="335"/>
+      <c r="X10" s="335"/>
+      <c r="Y10" s="335"/>
+      <c r="Z10" s="335"/>
+      <c r="AA10" s="335"/>
+      <c r="AB10" s="335"/>
+      <c r="AC10" s="335"/>
+      <c r="AD10" s="335"/>
+      <c r="AE10" s="336"/>
+      <c r="AF10" s="331"/>
+      <c r="AG10" s="332"/>
+      <c r="AH10" s="332"/>
+      <c r="AI10" s="333"/>
     </row>
     <row r="11" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="23"/>
-      <c r="B11" s="374"/>
-      <c r="C11" s="375"/>
-      <c r="D11" s="376"/>
-      <c r="E11" s="377"/>
-      <c r="F11" s="378"/>
-      <c r="G11" s="374"/>
-      <c r="H11" s="379"/>
-      <c r="I11" s="375"/>
-      <c r="J11" s="380"/>
-      <c r="K11" s="381"/>
-      <c r="L11" s="381"/>
-      <c r="M11" s="381"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="381"/>
-      <c r="P11" s="382"/>
-      <c r="Q11" s="383"/>
-      <c r="R11" s="384"/>
-      <c r="S11" s="384"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="384"/>
-      <c r="V11" s="384"/>
-      <c r="W11" s="384"/>
-      <c r="X11" s="384"/>
-      <c r="Y11" s="384"/>
-      <c r="Z11" s="384"/>
-      <c r="AA11" s="384"/>
-      <c r="AB11" s="384"/>
-      <c r="AC11" s="384"/>
-      <c r="AD11" s="384"/>
-      <c r="AE11" s="385"/>
-      <c r="AF11" s="380"/>
-      <c r="AG11" s="381"/>
-      <c r="AH11" s="381"/>
-      <c r="AI11" s="382"/>
+      <c r="B11" s="325"/>
+      <c r="C11" s="326"/>
+      <c r="D11" s="327"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="325"/>
+      <c r="H11" s="330"/>
+      <c r="I11" s="326"/>
+      <c r="J11" s="331"/>
+      <c r="K11" s="332"/>
+      <c r="L11" s="332"/>
+      <c r="M11" s="332"/>
+      <c r="N11" s="332"/>
+      <c r="O11" s="332"/>
+      <c r="P11" s="333"/>
+      <c r="Q11" s="334"/>
+      <c r="R11" s="335"/>
+      <c r="S11" s="335"/>
+      <c r="T11" s="335"/>
+      <c r="U11" s="335"/>
+      <c r="V11" s="335"/>
+      <c r="W11" s="335"/>
+      <c r="X11" s="335"/>
+      <c r="Y11" s="335"/>
+      <c r="Z11" s="335"/>
+      <c r="AA11" s="335"/>
+      <c r="AB11" s="335"/>
+      <c r="AC11" s="335"/>
+      <c r="AD11" s="335"/>
+      <c r="AE11" s="336"/>
+      <c r="AF11" s="331"/>
+      <c r="AG11" s="332"/>
+      <c r="AH11" s="332"/>
+      <c r="AI11" s="333"/>
     </row>
     <row r="12" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="23"/>
-      <c r="B12" s="374"/>
-      <c r="C12" s="375"/>
-      <c r="D12" s="376"/>
-      <c r="E12" s="377"/>
-      <c r="F12" s="378"/>
-      <c r="G12" s="374"/>
-      <c r="H12" s="379"/>
-      <c r="I12" s="375"/>
-      <c r="J12" s="380"/>
-      <c r="K12" s="381"/>
-      <c r="L12" s="381"/>
-      <c r="M12" s="381"/>
-      <c r="N12" s="381"/>
-      <c r="O12" s="381"/>
-      <c r="P12" s="382"/>
-      <c r="Q12" s="383"/>
-      <c r="R12" s="384"/>
-      <c r="S12" s="384"/>
-      <c r="T12" s="384"/>
-      <c r="U12" s="384"/>
-      <c r="V12" s="384"/>
-      <c r="W12" s="384"/>
-      <c r="X12" s="384"/>
-      <c r="Y12" s="384"/>
-      <c r="Z12" s="384"/>
-      <c r="AA12" s="384"/>
-      <c r="AB12" s="384"/>
-      <c r="AC12" s="384"/>
-      <c r="AD12" s="384"/>
-      <c r="AE12" s="385"/>
-      <c r="AF12" s="380"/>
-      <c r="AG12" s="381"/>
-      <c r="AH12" s="381"/>
-      <c r="AI12" s="382"/>
+      <c r="B12" s="325"/>
+      <c r="C12" s="326"/>
+      <c r="D12" s="327"/>
+      <c r="E12" s="328"/>
+      <c r="F12" s="329"/>
+      <c r="G12" s="325"/>
+      <c r="H12" s="330"/>
+      <c r="I12" s="326"/>
+      <c r="J12" s="331"/>
+      <c r="K12" s="332"/>
+      <c r="L12" s="332"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="332"/>
+      <c r="O12" s="332"/>
+      <c r="P12" s="333"/>
+      <c r="Q12" s="334"/>
+      <c r="R12" s="335"/>
+      <c r="S12" s="335"/>
+      <c r="T12" s="335"/>
+      <c r="U12" s="335"/>
+      <c r="V12" s="335"/>
+      <c r="W12" s="335"/>
+      <c r="X12" s="335"/>
+      <c r="Y12" s="335"/>
+      <c r="Z12" s="335"/>
+      <c r="AA12" s="335"/>
+      <c r="AB12" s="335"/>
+      <c r="AC12" s="335"/>
+      <c r="AD12" s="335"/>
+      <c r="AE12" s="336"/>
+      <c r="AF12" s="331"/>
+      <c r="AG12" s="332"/>
+      <c r="AH12" s="332"/>
+      <c r="AI12" s="333"/>
     </row>
     <row r="13" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="23"/>
-      <c r="B13" s="374"/>
-      <c r="C13" s="375"/>
-      <c r="D13" s="376"/>
-      <c r="E13" s="377"/>
-      <c r="F13" s="378"/>
-      <c r="G13" s="374"/>
-      <c r="H13" s="379"/>
-      <c r="I13" s="375"/>
-      <c r="J13" s="380"/>
-      <c r="K13" s="381"/>
-      <c r="L13" s="381"/>
-      <c r="M13" s="381"/>
-      <c r="N13" s="381"/>
-      <c r="O13" s="381"/>
-      <c r="P13" s="382"/>
-      <c r="Q13" s="383"/>
-      <c r="R13" s="384"/>
-      <c r="S13" s="384"/>
-      <c r="T13" s="384"/>
-      <c r="U13" s="384"/>
-      <c r="V13" s="384"/>
-      <c r="W13" s="384"/>
-      <c r="X13" s="384"/>
-      <c r="Y13" s="384"/>
-      <c r="Z13" s="384"/>
-      <c r="AA13" s="384"/>
-      <c r="AB13" s="384"/>
-      <c r="AC13" s="384"/>
-      <c r="AD13" s="384"/>
-      <c r="AE13" s="385"/>
-      <c r="AF13" s="380"/>
-      <c r="AG13" s="381"/>
-      <c r="AH13" s="381"/>
-      <c r="AI13" s="382"/>
+      <c r="B13" s="325"/>
+      <c r="C13" s="326"/>
+      <c r="D13" s="327"/>
+      <c r="E13" s="328"/>
+      <c r="F13" s="329"/>
+      <c r="G13" s="325"/>
+      <c r="H13" s="330"/>
+      <c r="I13" s="326"/>
+      <c r="J13" s="331"/>
+      <c r="K13" s="332"/>
+      <c r="L13" s="332"/>
+      <c r="M13" s="332"/>
+      <c r="N13" s="332"/>
+      <c r="O13" s="332"/>
+      <c r="P13" s="333"/>
+      <c r="Q13" s="334"/>
+      <c r="R13" s="335"/>
+      <c r="S13" s="335"/>
+      <c r="T13" s="335"/>
+      <c r="U13" s="335"/>
+      <c r="V13" s="335"/>
+      <c r="W13" s="335"/>
+      <c r="X13" s="335"/>
+      <c r="Y13" s="335"/>
+      <c r="Z13" s="335"/>
+      <c r="AA13" s="335"/>
+      <c r="AB13" s="335"/>
+      <c r="AC13" s="335"/>
+      <c r="AD13" s="335"/>
+      <c r="AE13" s="336"/>
+      <c r="AF13" s="331"/>
+      <c r="AG13" s="332"/>
+      <c r="AH13" s="332"/>
+      <c r="AI13" s="333"/>
     </row>
     <row r="14" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="23"/>
-      <c r="B14" s="374"/>
-      <c r="C14" s="375"/>
-      <c r="D14" s="376"/>
-      <c r="E14" s="377"/>
-      <c r="F14" s="378"/>
-      <c r="G14" s="374"/>
-      <c r="H14" s="379"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="380"/>
-      <c r="K14" s="381"/>
-      <c r="L14" s="381"/>
-      <c r="M14" s="381"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="381"/>
-      <c r="P14" s="382"/>
-      <c r="Q14" s="383"/>
-      <c r="R14" s="384"/>
-      <c r="S14" s="384"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="384"/>
-      <c r="V14" s="384"/>
-      <c r="W14" s="384"/>
-      <c r="X14" s="384"/>
-      <c r="Y14" s="384"/>
-      <c r="Z14" s="384"/>
-      <c r="AA14" s="384"/>
-      <c r="AB14" s="384"/>
-      <c r="AC14" s="384"/>
-      <c r="AD14" s="384"/>
-      <c r="AE14" s="385"/>
-      <c r="AF14" s="380"/>
-      <c r="AG14" s="381"/>
-      <c r="AH14" s="381"/>
-      <c r="AI14" s="382"/>
+      <c r="B14" s="325"/>
+      <c r="C14" s="326"/>
+      <c r="D14" s="327"/>
+      <c r="E14" s="328"/>
+      <c r="F14" s="329"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="330"/>
+      <c r="I14" s="326"/>
+      <c r="J14" s="331"/>
+      <c r="K14" s="332"/>
+      <c r="L14" s="332"/>
+      <c r="M14" s="332"/>
+      <c r="N14" s="332"/>
+      <c r="O14" s="332"/>
+      <c r="P14" s="333"/>
+      <c r="Q14" s="334"/>
+      <c r="R14" s="335"/>
+      <c r="S14" s="335"/>
+      <c r="T14" s="335"/>
+      <c r="U14" s="335"/>
+      <c r="V14" s="335"/>
+      <c r="W14" s="335"/>
+      <c r="X14" s="335"/>
+      <c r="Y14" s="335"/>
+      <c r="Z14" s="335"/>
+      <c r="AA14" s="335"/>
+      <c r="AB14" s="335"/>
+      <c r="AC14" s="335"/>
+      <c r="AD14" s="335"/>
+      <c r="AE14" s="336"/>
+      <c r="AF14" s="331"/>
+      <c r="AG14" s="332"/>
+      <c r="AH14" s="332"/>
+      <c r="AI14" s="333"/>
     </row>
     <row r="15" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="23"/>
-      <c r="B15" s="374"/>
-      <c r="C15" s="375"/>
-      <c r="D15" s="376"/>
-      <c r="E15" s="377"/>
-      <c r="F15" s="378"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="379"/>
-      <c r="I15" s="375"/>
-      <c r="J15" s="380"/>
-      <c r="K15" s="381"/>
-      <c r="L15" s="381"/>
-      <c r="M15" s="381"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="381"/>
-      <c r="P15" s="382"/>
-      <c r="Q15" s="383"/>
-      <c r="R15" s="384"/>
-      <c r="S15" s="384"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="384"/>
-      <c r="V15" s="384"/>
-      <c r="W15" s="384"/>
-      <c r="X15" s="384"/>
-      <c r="Y15" s="384"/>
-      <c r="Z15" s="384"/>
-      <c r="AA15" s="384"/>
-      <c r="AB15" s="384"/>
-      <c r="AC15" s="384"/>
-      <c r="AD15" s="384"/>
-      <c r="AE15" s="385"/>
-      <c r="AF15" s="380"/>
-      <c r="AG15" s="381"/>
-      <c r="AH15" s="381"/>
-      <c r="AI15" s="382"/>
+      <c r="B15" s="325"/>
+      <c r="C15" s="326"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="329"/>
+      <c r="G15" s="325"/>
+      <c r="H15" s="330"/>
+      <c r="I15" s="326"/>
+      <c r="J15" s="331"/>
+      <c r="K15" s="332"/>
+      <c r="L15" s="332"/>
+      <c r="M15" s="332"/>
+      <c r="N15" s="332"/>
+      <c r="O15" s="332"/>
+      <c r="P15" s="333"/>
+      <c r="Q15" s="334"/>
+      <c r="R15" s="335"/>
+      <c r="S15" s="335"/>
+      <c r="T15" s="335"/>
+      <c r="U15" s="335"/>
+      <c r="V15" s="335"/>
+      <c r="W15" s="335"/>
+      <c r="X15" s="335"/>
+      <c r="Y15" s="335"/>
+      <c r="Z15" s="335"/>
+      <c r="AA15" s="335"/>
+      <c r="AB15" s="335"/>
+      <c r="AC15" s="335"/>
+      <c r="AD15" s="335"/>
+      <c r="AE15" s="336"/>
+      <c r="AF15" s="331"/>
+      <c r="AG15" s="332"/>
+      <c r="AH15" s="332"/>
+      <c r="AI15" s="333"/>
     </row>
     <row r="16" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="23"/>
-      <c r="B16" s="374"/>
-      <c r="C16" s="375"/>
-      <c r="D16" s="376"/>
-      <c r="E16" s="377"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="374"/>
-      <c r="H16" s="379"/>
-      <c r="I16" s="375"/>
-      <c r="J16" s="380"/>
-      <c r="K16" s="381"/>
-      <c r="L16" s="381"/>
-      <c r="M16" s="381"/>
-      <c r="N16" s="381"/>
-      <c r="O16" s="381"/>
-      <c r="P16" s="382"/>
-      <c r="Q16" s="383"/>
-      <c r="R16" s="384"/>
-      <c r="S16" s="384"/>
-      <c r="T16" s="384"/>
-      <c r="U16" s="384"/>
-      <c r="V16" s="384"/>
-      <c r="W16" s="384"/>
-      <c r="X16" s="384"/>
-      <c r="Y16" s="384"/>
-      <c r="Z16" s="384"/>
-      <c r="AA16" s="384"/>
-      <c r="AB16" s="384"/>
-      <c r="AC16" s="384"/>
-      <c r="AD16" s="384"/>
-      <c r="AE16" s="385"/>
-      <c r="AF16" s="380"/>
-      <c r="AG16" s="381"/>
-      <c r="AH16" s="381"/>
-      <c r="AI16" s="382"/>
+      <c r="B16" s="325"/>
+      <c r="C16" s="326"/>
+      <c r="D16" s="327"/>
+      <c r="E16" s="328"/>
+      <c r="F16" s="329"/>
+      <c r="G16" s="325"/>
+      <c r="H16" s="330"/>
+      <c r="I16" s="326"/>
+      <c r="J16" s="331"/>
+      <c r="K16" s="332"/>
+      <c r="L16" s="332"/>
+      <c r="M16" s="332"/>
+      <c r="N16" s="332"/>
+      <c r="O16" s="332"/>
+      <c r="P16" s="333"/>
+      <c r="Q16" s="334"/>
+      <c r="R16" s="335"/>
+      <c r="S16" s="335"/>
+      <c r="T16" s="335"/>
+      <c r="U16" s="335"/>
+      <c r="V16" s="335"/>
+      <c r="W16" s="335"/>
+      <c r="X16" s="335"/>
+      <c r="Y16" s="335"/>
+      <c r="Z16" s="335"/>
+      <c r="AA16" s="335"/>
+      <c r="AB16" s="335"/>
+      <c r="AC16" s="335"/>
+      <c r="AD16" s="335"/>
+      <c r="AE16" s="336"/>
+      <c r="AF16" s="331"/>
+      <c r="AG16" s="332"/>
+      <c r="AH16" s="332"/>
+      <c r="AI16" s="333"/>
     </row>
     <row r="17" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="374"/>
-      <c r="C17" s="375"/>
-      <c r="D17" s="376"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="378"/>
-      <c r="G17" s="374"/>
-      <c r="H17" s="379"/>
-      <c r="I17" s="375"/>
-      <c r="J17" s="380"/>
-      <c r="K17" s="381"/>
-      <c r="L17" s="381"/>
-      <c r="M17" s="381"/>
-      <c r="N17" s="381"/>
-      <c r="O17" s="381"/>
-      <c r="P17" s="382"/>
-      <c r="Q17" s="383"/>
-      <c r="R17" s="384"/>
-      <c r="S17" s="384"/>
-      <c r="T17" s="384"/>
-      <c r="U17" s="384"/>
-      <c r="V17" s="384"/>
-      <c r="W17" s="384"/>
-      <c r="X17" s="384"/>
-      <c r="Y17" s="384"/>
-      <c r="Z17" s="384"/>
-      <c r="AA17" s="384"/>
-      <c r="AB17" s="384"/>
-      <c r="AC17" s="384"/>
-      <c r="AD17" s="384"/>
-      <c r="AE17" s="385"/>
-      <c r="AF17" s="380"/>
-      <c r="AG17" s="381"/>
-      <c r="AH17" s="381"/>
-      <c r="AI17" s="382"/>
+      <c r="B17" s="325"/>
+      <c r="C17" s="326"/>
+      <c r="D17" s="327"/>
+      <c r="E17" s="328"/>
+      <c r="F17" s="329"/>
+      <c r="G17" s="325"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="326"/>
+      <c r="J17" s="331"/>
+      <c r="K17" s="332"/>
+      <c r="L17" s="332"/>
+      <c r="M17" s="332"/>
+      <c r="N17" s="332"/>
+      <c r="O17" s="332"/>
+      <c r="P17" s="333"/>
+      <c r="Q17" s="334"/>
+      <c r="R17" s="335"/>
+      <c r="S17" s="335"/>
+      <c r="T17" s="335"/>
+      <c r="U17" s="335"/>
+      <c r="V17" s="335"/>
+      <c r="W17" s="335"/>
+      <c r="X17" s="335"/>
+      <c r="Y17" s="335"/>
+      <c r="Z17" s="335"/>
+      <c r="AA17" s="335"/>
+      <c r="AB17" s="335"/>
+      <c r="AC17" s="335"/>
+      <c r="AD17" s="335"/>
+      <c r="AE17" s="336"/>
+      <c r="AF17" s="331"/>
+      <c r="AG17" s="332"/>
+      <c r="AH17" s="332"/>
+      <c r="AI17" s="333"/>
     </row>
     <row r="18" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="23"/>
-      <c r="B18" s="374"/>
-      <c r="C18" s="375"/>
-      <c r="D18" s="376"/>
-      <c r="E18" s="377"/>
-      <c r="F18" s="378"/>
-      <c r="G18" s="374"/>
-      <c r="H18" s="379"/>
-      <c r="I18" s="375"/>
-      <c r="J18" s="380"/>
-      <c r="K18" s="381"/>
-      <c r="L18" s="381"/>
-      <c r="M18" s="381"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="381"/>
-      <c r="P18" s="382"/>
-      <c r="Q18" s="383"/>
-      <c r="R18" s="384"/>
-      <c r="S18" s="384"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="384"/>
-      <c r="V18" s="384"/>
-      <c r="W18" s="384"/>
-      <c r="X18" s="384"/>
-      <c r="Y18" s="384"/>
-      <c r="Z18" s="384"/>
-      <c r="AA18" s="384"/>
-      <c r="AB18" s="384"/>
-      <c r="AC18" s="384"/>
-      <c r="AD18" s="384"/>
-      <c r="AE18" s="385"/>
-      <c r="AF18" s="380"/>
-      <c r="AG18" s="381"/>
-      <c r="AH18" s="381"/>
-      <c r="AI18" s="382"/>
+      <c r="B18" s="325"/>
+      <c r="C18" s="326"/>
+      <c r="D18" s="327"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="329"/>
+      <c r="G18" s="325"/>
+      <c r="H18" s="330"/>
+      <c r="I18" s="326"/>
+      <c r="J18" s="331"/>
+      <c r="K18" s="332"/>
+      <c r="L18" s="332"/>
+      <c r="M18" s="332"/>
+      <c r="N18" s="332"/>
+      <c r="O18" s="332"/>
+      <c r="P18" s="333"/>
+      <c r="Q18" s="334"/>
+      <c r="R18" s="335"/>
+      <c r="S18" s="335"/>
+      <c r="T18" s="335"/>
+      <c r="U18" s="335"/>
+      <c r="V18" s="335"/>
+      <c r="W18" s="335"/>
+      <c r="X18" s="335"/>
+      <c r="Y18" s="335"/>
+      <c r="Z18" s="335"/>
+      <c r="AA18" s="335"/>
+      <c r="AB18" s="335"/>
+      <c r="AC18" s="335"/>
+      <c r="AD18" s="335"/>
+      <c r="AE18" s="336"/>
+      <c r="AF18" s="331"/>
+      <c r="AG18" s="332"/>
+      <c r="AH18" s="332"/>
+      <c r="AI18" s="333"/>
     </row>
     <row r="19" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="23"/>
-      <c r="B19" s="374"/>
-      <c r="C19" s="375"/>
-      <c r="D19" s="376"/>
-      <c r="E19" s="377"/>
-      <c r="F19" s="378"/>
-      <c r="G19" s="374"/>
-      <c r="H19" s="379"/>
-      <c r="I19" s="375"/>
-      <c r="J19" s="380"/>
-      <c r="K19" s="381"/>
-      <c r="L19" s="381"/>
-      <c r="M19" s="381"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="381"/>
-      <c r="P19" s="382"/>
-      <c r="Q19" s="383"/>
-      <c r="R19" s="384"/>
-      <c r="S19" s="384"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="384"/>
-      <c r="V19" s="384"/>
-      <c r="W19" s="384"/>
-      <c r="X19" s="384"/>
-      <c r="Y19" s="384"/>
-      <c r="Z19" s="384"/>
-      <c r="AA19" s="384"/>
-      <c r="AB19" s="384"/>
-      <c r="AC19" s="384"/>
-      <c r="AD19" s="384"/>
-      <c r="AE19" s="385"/>
-      <c r="AF19" s="380"/>
-      <c r="AG19" s="381"/>
-      <c r="AH19" s="381"/>
-      <c r="AI19" s="382"/>
+      <c r="B19" s="325"/>
+      <c r="C19" s="326"/>
+      <c r="D19" s="327"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="329"/>
+      <c r="G19" s="325"/>
+      <c r="H19" s="330"/>
+      <c r="I19" s="326"/>
+      <c r="J19" s="331"/>
+      <c r="K19" s="332"/>
+      <c r="L19" s="332"/>
+      <c r="M19" s="332"/>
+      <c r="N19" s="332"/>
+      <c r="O19" s="332"/>
+      <c r="P19" s="333"/>
+      <c r="Q19" s="334"/>
+      <c r="R19" s="335"/>
+      <c r="S19" s="335"/>
+      <c r="T19" s="335"/>
+      <c r="U19" s="335"/>
+      <c r="V19" s="335"/>
+      <c r="W19" s="335"/>
+      <c r="X19" s="335"/>
+      <c r="Y19" s="335"/>
+      <c r="Z19" s="335"/>
+      <c r="AA19" s="335"/>
+      <c r="AB19" s="335"/>
+      <c r="AC19" s="335"/>
+      <c r="AD19" s="335"/>
+      <c r="AE19" s="336"/>
+      <c r="AF19" s="331"/>
+      <c r="AG19" s="332"/>
+      <c r="AH19" s="332"/>
+      <c r="AI19" s="333"/>
     </row>
     <row r="20" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
-      <c r="D20" s="376"/>
-      <c r="E20" s="377"/>
-      <c r="F20" s="378"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="379"/>
-      <c r="I20" s="375"/>
-      <c r="J20" s="380"/>
-      <c r="K20" s="381"/>
-      <c r="L20" s="381"/>
-      <c r="M20" s="381"/>
-      <c r="N20" s="381"/>
-      <c r="O20" s="381"/>
-      <c r="P20" s="382"/>
-      <c r="Q20" s="383"/>
-      <c r="R20" s="384"/>
-      <c r="S20" s="384"/>
-      <c r="T20" s="384"/>
-      <c r="U20" s="384"/>
-      <c r="V20" s="384"/>
-      <c r="W20" s="384"/>
-      <c r="X20" s="384"/>
-      <c r="Y20" s="384"/>
-      <c r="Z20" s="384"/>
-      <c r="AA20" s="384"/>
-      <c r="AB20" s="384"/>
-      <c r="AC20" s="384"/>
-      <c r="AD20" s="384"/>
-      <c r="AE20" s="385"/>
-      <c r="AF20" s="380"/>
-      <c r="AG20" s="381"/>
-      <c r="AH20" s="381"/>
-      <c r="AI20" s="382"/>
+      <c r="B20" s="325"/>
+      <c r="C20" s="326"/>
+      <c r="D20" s="327"/>
+      <c r="E20" s="328"/>
+      <c r="F20" s="329"/>
+      <c r="G20" s="325"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="326"/>
+      <c r="J20" s="331"/>
+      <c r="K20" s="332"/>
+      <c r="L20" s="332"/>
+      <c r="M20" s="332"/>
+      <c r="N20" s="332"/>
+      <c r="O20" s="332"/>
+      <c r="P20" s="333"/>
+      <c r="Q20" s="334"/>
+      <c r="R20" s="335"/>
+      <c r="S20" s="335"/>
+      <c r="T20" s="335"/>
+      <c r="U20" s="335"/>
+      <c r="V20" s="335"/>
+      <c r="W20" s="335"/>
+      <c r="X20" s="335"/>
+      <c r="Y20" s="335"/>
+      <c r="Z20" s="335"/>
+      <c r="AA20" s="335"/>
+      <c r="AB20" s="335"/>
+      <c r="AC20" s="335"/>
+      <c r="AD20" s="335"/>
+      <c r="AE20" s="336"/>
+      <c r="AF20" s="331"/>
+      <c r="AG20" s="332"/>
+      <c r="AH20" s="332"/>
+      <c r="AI20" s="333"/>
     </row>
     <row r="21" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="23"/>
-      <c r="B21" s="374"/>
-      <c r="C21" s="375"/>
-      <c r="D21" s="376"/>
-      <c r="E21" s="377"/>
-      <c r="F21" s="378"/>
-      <c r="G21" s="374"/>
-      <c r="H21" s="379"/>
-      <c r="I21" s="375"/>
-      <c r="J21" s="380"/>
-      <c r="K21" s="381"/>
-      <c r="L21" s="381"/>
-      <c r="M21" s="381"/>
-      <c r="N21" s="381"/>
-      <c r="O21" s="381"/>
-      <c r="P21" s="382"/>
-      <c r="Q21" s="383"/>
-      <c r="R21" s="384"/>
-      <c r="S21" s="384"/>
-      <c r="T21" s="384"/>
-      <c r="U21" s="384"/>
-      <c r="V21" s="384"/>
-      <c r="W21" s="384"/>
-      <c r="X21" s="384"/>
-      <c r="Y21" s="384"/>
-      <c r="Z21" s="384"/>
-      <c r="AA21" s="384"/>
-      <c r="AB21" s="384"/>
-      <c r="AC21" s="384"/>
-      <c r="AD21" s="384"/>
-      <c r="AE21" s="385"/>
-      <c r="AF21" s="380"/>
-      <c r="AG21" s="381"/>
-      <c r="AH21" s="381"/>
-      <c r="AI21" s="382"/>
+      <c r="B21" s="325"/>
+      <c r="C21" s="326"/>
+      <c r="D21" s="327"/>
+      <c r="E21" s="328"/>
+      <c r="F21" s="329"/>
+      <c r="G21" s="325"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="326"/>
+      <c r="J21" s="331"/>
+      <c r="K21" s="332"/>
+      <c r="L21" s="332"/>
+      <c r="M21" s="332"/>
+      <c r="N21" s="332"/>
+      <c r="O21" s="332"/>
+      <c r="P21" s="333"/>
+      <c r="Q21" s="334"/>
+      <c r="R21" s="335"/>
+      <c r="S21" s="335"/>
+      <c r="T21" s="335"/>
+      <c r="U21" s="335"/>
+      <c r="V21" s="335"/>
+      <c r="W21" s="335"/>
+      <c r="X21" s="335"/>
+      <c r="Y21" s="335"/>
+      <c r="Z21" s="335"/>
+      <c r="AA21" s="335"/>
+      <c r="AB21" s="335"/>
+      <c r="AC21" s="335"/>
+      <c r="AD21" s="335"/>
+      <c r="AE21" s="336"/>
+      <c r="AF21" s="331"/>
+      <c r="AG21" s="332"/>
+      <c r="AH21" s="332"/>
+      <c r="AI21" s="333"/>
     </row>
     <row r="22" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="374"/>
-      <c r="C22" s="375"/>
-      <c r="D22" s="376"/>
-      <c r="E22" s="377"/>
-      <c r="F22" s="378"/>
-      <c r="G22" s="374"/>
-      <c r="H22" s="379"/>
-      <c r="I22" s="375"/>
-      <c r="J22" s="380"/>
-      <c r="K22" s="381"/>
-      <c r="L22" s="381"/>
-      <c r="M22" s="381"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="381"/>
-      <c r="P22" s="382"/>
-      <c r="Q22" s="383"/>
-      <c r="R22" s="384"/>
-      <c r="S22" s="384"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="384"/>
-      <c r="V22" s="384"/>
-      <c r="W22" s="384"/>
-      <c r="X22" s="384"/>
-      <c r="Y22" s="384"/>
-      <c r="Z22" s="384"/>
-      <c r="AA22" s="384"/>
-      <c r="AB22" s="384"/>
-      <c r="AC22" s="384"/>
-      <c r="AD22" s="384"/>
-      <c r="AE22" s="385"/>
-      <c r="AF22" s="380"/>
-      <c r="AG22" s="381"/>
-      <c r="AH22" s="381"/>
-      <c r="AI22" s="382"/>
+      <c r="B22" s="325"/>
+      <c r="C22" s="326"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="328"/>
+      <c r="F22" s="329"/>
+      <c r="G22" s="325"/>
+      <c r="H22" s="330"/>
+      <c r="I22" s="326"/>
+      <c r="J22" s="331"/>
+      <c r="K22" s="332"/>
+      <c r="L22" s="332"/>
+      <c r="M22" s="332"/>
+      <c r="N22" s="332"/>
+      <c r="O22" s="332"/>
+      <c r="P22" s="333"/>
+      <c r="Q22" s="334"/>
+      <c r="R22" s="335"/>
+      <c r="S22" s="335"/>
+      <c r="T22" s="335"/>
+      <c r="U22" s="335"/>
+      <c r="V22" s="335"/>
+      <c r="W22" s="335"/>
+      <c r="X22" s="335"/>
+      <c r="Y22" s="335"/>
+      <c r="Z22" s="335"/>
+      <c r="AA22" s="335"/>
+      <c r="AB22" s="335"/>
+      <c r="AC22" s="335"/>
+      <c r="AD22" s="335"/>
+      <c r="AE22" s="336"/>
+      <c r="AF22" s="331"/>
+      <c r="AG22" s="332"/>
+      <c r="AH22" s="332"/>
+      <c r="AI22" s="333"/>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="23"/>
-      <c r="B23" s="374"/>
-      <c r="C23" s="375"/>
-      <c r="D23" s="376"/>
-      <c r="E23" s="377"/>
-      <c r="F23" s="378"/>
-      <c r="G23" s="374"/>
-      <c r="H23" s="379"/>
-      <c r="I23" s="375"/>
-      <c r="J23" s="380"/>
-      <c r="K23" s="381"/>
-      <c r="L23" s="381"/>
-      <c r="M23" s="381"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="381"/>
-      <c r="P23" s="382"/>
-      <c r="Q23" s="383"/>
-      <c r="R23" s="384"/>
-      <c r="S23" s="384"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="384"/>
-      <c r="V23" s="384"/>
-      <c r="W23" s="384"/>
-      <c r="X23" s="384"/>
-      <c r="Y23" s="384"/>
-      <c r="Z23" s="384"/>
-      <c r="AA23" s="384"/>
-      <c r="AB23" s="384"/>
-      <c r="AC23" s="384"/>
-      <c r="AD23" s="384"/>
-      <c r="AE23" s="385"/>
-      <c r="AF23" s="380"/>
-      <c r="AG23" s="381"/>
-      <c r="AH23" s="381"/>
-      <c r="AI23" s="382"/>
+      <c r="B23" s="325"/>
+      <c r="C23" s="326"/>
+      <c r="D23" s="327"/>
+      <c r="E23" s="328"/>
+      <c r="F23" s="329"/>
+      <c r="G23" s="325"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="326"/>
+      <c r="J23" s="331"/>
+      <c r="K23" s="332"/>
+      <c r="L23" s="332"/>
+      <c r="M23" s="332"/>
+      <c r="N23" s="332"/>
+      <c r="O23" s="332"/>
+      <c r="P23" s="333"/>
+      <c r="Q23" s="334"/>
+      <c r="R23" s="335"/>
+      <c r="S23" s="335"/>
+      <c r="T23" s="335"/>
+      <c r="U23" s="335"/>
+      <c r="V23" s="335"/>
+      <c r="W23" s="335"/>
+      <c r="X23" s="335"/>
+      <c r="Y23" s="335"/>
+      <c r="Z23" s="335"/>
+      <c r="AA23" s="335"/>
+      <c r="AB23" s="335"/>
+      <c r="AC23" s="335"/>
+      <c r="AD23" s="335"/>
+      <c r="AE23" s="336"/>
+      <c r="AF23" s="331"/>
+      <c r="AG23" s="332"/>
+      <c r="AH23" s="332"/>
+      <c r="AI23" s="333"/>
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="374"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="376"/>
-      <c r="E24" s="377"/>
-      <c r="F24" s="378"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="379"/>
-      <c r="I24" s="375"/>
-      <c r="J24" s="380"/>
-      <c r="K24" s="381"/>
-      <c r="L24" s="381"/>
-      <c r="M24" s="381"/>
-      <c r="N24" s="381"/>
-      <c r="O24" s="381"/>
-      <c r="P24" s="382"/>
-      <c r="Q24" s="383"/>
-      <c r="R24" s="384"/>
-      <c r="S24" s="384"/>
-      <c r="T24" s="384"/>
-      <c r="U24" s="384"/>
-      <c r="V24" s="384"/>
-      <c r="W24" s="384"/>
-      <c r="X24" s="384"/>
-      <c r="Y24" s="384"/>
-      <c r="Z24" s="384"/>
-      <c r="AA24" s="384"/>
-      <c r="AB24" s="384"/>
-      <c r="AC24" s="384"/>
-      <c r="AD24" s="384"/>
-      <c r="AE24" s="385"/>
-      <c r="AF24" s="380"/>
-      <c r="AG24" s="381"/>
-      <c r="AH24" s="381"/>
-      <c r="AI24" s="382"/>
+      <c r="B24" s="325"/>
+      <c r="C24" s="326"/>
+      <c r="D24" s="327"/>
+      <c r="E24" s="328"/>
+      <c r="F24" s="329"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="330"/>
+      <c r="I24" s="326"/>
+      <c r="J24" s="331"/>
+      <c r="K24" s="332"/>
+      <c r="L24" s="332"/>
+      <c r="M24" s="332"/>
+      <c r="N24" s="332"/>
+      <c r="O24" s="332"/>
+      <c r="P24" s="333"/>
+      <c r="Q24" s="334"/>
+      <c r="R24" s="335"/>
+      <c r="S24" s="335"/>
+      <c r="T24" s="335"/>
+      <c r="U24" s="335"/>
+      <c r="V24" s="335"/>
+      <c r="W24" s="335"/>
+      <c r="X24" s="335"/>
+      <c r="Y24" s="335"/>
+      <c r="Z24" s="335"/>
+      <c r="AA24" s="335"/>
+      <c r="AB24" s="335"/>
+      <c r="AC24" s="335"/>
+      <c r="AD24" s="335"/>
+      <c r="AE24" s="336"/>
+      <c r="AF24" s="331"/>
+      <c r="AG24" s="332"/>
+      <c r="AH24" s="332"/>
+      <c r="AI24" s="333"/>
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="23"/>
-      <c r="B25" s="374"/>
-      <c r="C25" s="375"/>
-      <c r="D25" s="376"/>
-      <c r="E25" s="377"/>
-      <c r="F25" s="378"/>
-      <c r="G25" s="374"/>
-      <c r="H25" s="379"/>
-      <c r="I25" s="375"/>
-      <c r="J25" s="380"/>
-      <c r="K25" s="381"/>
-      <c r="L25" s="381"/>
-      <c r="M25" s="381"/>
-      <c r="N25" s="381"/>
-      <c r="O25" s="381"/>
-      <c r="P25" s="382"/>
-      <c r="Q25" s="383"/>
-      <c r="R25" s="384"/>
-      <c r="S25" s="384"/>
-      <c r="T25" s="384"/>
-      <c r="U25" s="384"/>
-      <c r="V25" s="384"/>
-      <c r="W25" s="384"/>
-      <c r="X25" s="384"/>
-      <c r="Y25" s="384"/>
-      <c r="Z25" s="384"/>
-      <c r="AA25" s="384"/>
-      <c r="AB25" s="384"/>
-      <c r="AC25" s="384"/>
-      <c r="AD25" s="384"/>
-      <c r="AE25" s="385"/>
-      <c r="AF25" s="380"/>
-      <c r="AG25" s="381"/>
-      <c r="AH25" s="381"/>
-      <c r="AI25" s="382"/>
+      <c r="B25" s="325"/>
+      <c r="C25" s="326"/>
+      <c r="D25" s="327"/>
+      <c r="E25" s="328"/>
+      <c r="F25" s="329"/>
+      <c r="G25" s="325"/>
+      <c r="H25" s="330"/>
+      <c r="I25" s="326"/>
+      <c r="J25" s="331"/>
+      <c r="K25" s="332"/>
+      <c r="L25" s="332"/>
+      <c r="M25" s="332"/>
+      <c r="N25" s="332"/>
+      <c r="O25" s="332"/>
+      <c r="P25" s="333"/>
+      <c r="Q25" s="334"/>
+      <c r="R25" s="335"/>
+      <c r="S25" s="335"/>
+      <c r="T25" s="335"/>
+      <c r="U25" s="335"/>
+      <c r="V25" s="335"/>
+      <c r="W25" s="335"/>
+      <c r="X25" s="335"/>
+      <c r="Y25" s="335"/>
+      <c r="Z25" s="335"/>
+      <c r="AA25" s="335"/>
+      <c r="AB25" s="335"/>
+      <c r="AC25" s="335"/>
+      <c r="AD25" s="335"/>
+      <c r="AE25" s="336"/>
+      <c r="AF25" s="331"/>
+      <c r="AG25" s="332"/>
+      <c r="AH25" s="332"/>
+      <c r="AI25" s="333"/>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="374"/>
-      <c r="C26" s="375"/>
-      <c r="D26" s="376"/>
-      <c r="E26" s="377"/>
-      <c r="F26" s="378"/>
-      <c r="G26" s="374"/>
-      <c r="H26" s="379"/>
-      <c r="I26" s="375"/>
-      <c r="J26" s="380"/>
-      <c r="K26" s="381"/>
-      <c r="L26" s="381"/>
-      <c r="M26" s="381"/>
-      <c r="N26" s="381"/>
-      <c r="O26" s="381"/>
-      <c r="P26" s="382"/>
-      <c r="Q26" s="383"/>
-      <c r="R26" s="384"/>
-      <c r="S26" s="384"/>
-      <c r="T26" s="384"/>
-      <c r="U26" s="384"/>
-      <c r="V26" s="384"/>
-      <c r="W26" s="384"/>
-      <c r="X26" s="384"/>
-      <c r="Y26" s="384"/>
-      <c r="Z26" s="384"/>
-      <c r="AA26" s="384"/>
-      <c r="AB26" s="384"/>
-      <c r="AC26" s="384"/>
-      <c r="AD26" s="384"/>
-      <c r="AE26" s="385"/>
-      <c r="AF26" s="380"/>
-      <c r="AG26" s="381"/>
-      <c r="AH26" s="381"/>
-      <c r="AI26" s="382"/>
+      <c r="B26" s="325"/>
+      <c r="C26" s="326"/>
+      <c r="D26" s="327"/>
+      <c r="E26" s="328"/>
+      <c r="F26" s="329"/>
+      <c r="G26" s="325"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="326"/>
+      <c r="J26" s="331"/>
+      <c r="K26" s="332"/>
+      <c r="L26" s="332"/>
+      <c r="M26" s="332"/>
+      <c r="N26" s="332"/>
+      <c r="O26" s="332"/>
+      <c r="P26" s="333"/>
+      <c r="Q26" s="334"/>
+      <c r="R26" s="335"/>
+      <c r="S26" s="335"/>
+      <c r="T26" s="335"/>
+      <c r="U26" s="335"/>
+      <c r="V26" s="335"/>
+      <c r="W26" s="335"/>
+      <c r="X26" s="335"/>
+      <c r="Y26" s="335"/>
+      <c r="Z26" s="335"/>
+      <c r="AA26" s="335"/>
+      <c r="AB26" s="335"/>
+      <c r="AC26" s="335"/>
+      <c r="AD26" s="335"/>
+      <c r="AE26" s="336"/>
+      <c r="AF26" s="331"/>
+      <c r="AG26" s="332"/>
+      <c r="AH26" s="332"/>
+      <c r="AI26" s="333"/>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="23"/>
-      <c r="B27" s="374"/>
-      <c r="C27" s="375"/>
-      <c r="D27" s="376"/>
-      <c r="E27" s="377"/>
-      <c r="F27" s="378"/>
-      <c r="G27" s="374"/>
-      <c r="H27" s="379"/>
-      <c r="I27" s="375"/>
-      <c r="J27" s="380"/>
-      <c r="K27" s="381"/>
-      <c r="L27" s="381"/>
-      <c r="M27" s="381"/>
-      <c r="N27" s="381"/>
-      <c r="O27" s="381"/>
-      <c r="P27" s="382"/>
-      <c r="Q27" s="383"/>
-      <c r="R27" s="384"/>
-      <c r="S27" s="384"/>
-      <c r="T27" s="384"/>
-      <c r="U27" s="384"/>
-      <c r="V27" s="384"/>
-      <c r="W27" s="384"/>
-      <c r="X27" s="384"/>
-      <c r="Y27" s="384"/>
-      <c r="Z27" s="384"/>
-      <c r="AA27" s="384"/>
-      <c r="AB27" s="384"/>
-      <c r="AC27" s="384"/>
-      <c r="AD27" s="384"/>
-      <c r="AE27" s="385"/>
-      <c r="AF27" s="380"/>
-      <c r="AG27" s="381"/>
-      <c r="AH27" s="381"/>
-      <c r="AI27" s="382"/>
+      <c r="B27" s="325"/>
+      <c r="C27" s="326"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="329"/>
+      <c r="G27" s="325"/>
+      <c r="H27" s="330"/>
+      <c r="I27" s="326"/>
+      <c r="J27" s="331"/>
+      <c r="K27" s="332"/>
+      <c r="L27" s="332"/>
+      <c r="M27" s="332"/>
+      <c r="N27" s="332"/>
+      <c r="O27" s="332"/>
+      <c r="P27" s="333"/>
+      <c r="Q27" s="334"/>
+      <c r="R27" s="335"/>
+      <c r="S27" s="335"/>
+      <c r="T27" s="335"/>
+      <c r="U27" s="335"/>
+      <c r="V27" s="335"/>
+      <c r="W27" s="335"/>
+      <c r="X27" s="335"/>
+      <c r="Y27" s="335"/>
+      <c r="Z27" s="335"/>
+      <c r="AA27" s="335"/>
+      <c r="AB27" s="335"/>
+      <c r="AC27" s="335"/>
+      <c r="AD27" s="335"/>
+      <c r="AE27" s="336"/>
+      <c r="AF27" s="331"/>
+      <c r="AG27" s="332"/>
+      <c r="AH27" s="332"/>
+      <c r="AI27" s="333"/>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="23"/>
-      <c r="B28" s="374"/>
-      <c r="C28" s="375"/>
-      <c r="D28" s="376"/>
-      <c r="E28" s="377"/>
-      <c r="F28" s="378"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="379"/>
-      <c r="I28" s="375"/>
-      <c r="J28" s="380"/>
-      <c r="K28" s="381"/>
-      <c r="L28" s="381"/>
-      <c r="M28" s="381"/>
-      <c r="N28" s="381"/>
-      <c r="O28" s="381"/>
-      <c r="P28" s="382"/>
-      <c r="Q28" s="383"/>
-      <c r="R28" s="384"/>
-      <c r="S28" s="384"/>
-      <c r="T28" s="384"/>
-      <c r="U28" s="384"/>
-      <c r="V28" s="384"/>
-      <c r="W28" s="384"/>
-      <c r="X28" s="384"/>
-      <c r="Y28" s="384"/>
-      <c r="Z28" s="384"/>
-      <c r="AA28" s="384"/>
-      <c r="AB28" s="384"/>
-      <c r="AC28" s="384"/>
-      <c r="AD28" s="384"/>
-      <c r="AE28" s="385"/>
-      <c r="AF28" s="380"/>
-      <c r="AG28" s="381"/>
-      <c r="AH28" s="381"/>
-      <c r="AI28" s="382"/>
+      <c r="B28" s="325"/>
+      <c r="C28" s="326"/>
+      <c r="D28" s="327"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="329"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="330"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="331"/>
+      <c r="K28" s="332"/>
+      <c r="L28" s="332"/>
+      <c r="M28" s="332"/>
+      <c r="N28" s="332"/>
+      <c r="O28" s="332"/>
+      <c r="P28" s="333"/>
+      <c r="Q28" s="334"/>
+      <c r="R28" s="335"/>
+      <c r="S28" s="335"/>
+      <c r="T28" s="335"/>
+      <c r="U28" s="335"/>
+      <c r="V28" s="335"/>
+      <c r="W28" s="335"/>
+      <c r="X28" s="335"/>
+      <c r="Y28" s="335"/>
+      <c r="Z28" s="335"/>
+      <c r="AA28" s="335"/>
+      <c r="AB28" s="335"/>
+      <c r="AC28" s="335"/>
+      <c r="AD28" s="335"/>
+      <c r="AE28" s="336"/>
+      <c r="AF28" s="331"/>
+      <c r="AG28" s="332"/>
+      <c r="AH28" s="332"/>
+      <c r="AI28" s="333"/>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="374"/>
-      <c r="C29" s="375"/>
-      <c r="D29" s="376"/>
-      <c r="E29" s="377"/>
-      <c r="F29" s="378"/>
-      <c r="G29" s="374"/>
-      <c r="H29" s="379"/>
-      <c r="I29" s="375"/>
-      <c r="J29" s="380"/>
-      <c r="K29" s="381"/>
-      <c r="L29" s="381"/>
-      <c r="M29" s="381"/>
-      <c r="N29" s="381"/>
-      <c r="O29" s="381"/>
-      <c r="P29" s="382"/>
-      <c r="Q29" s="383"/>
-      <c r="R29" s="384"/>
-      <c r="S29" s="384"/>
-      <c r="T29" s="384"/>
-      <c r="U29" s="384"/>
-      <c r="V29" s="384"/>
-      <c r="W29" s="384"/>
-      <c r="X29" s="384"/>
-      <c r="Y29" s="384"/>
-      <c r="Z29" s="384"/>
-      <c r="AA29" s="384"/>
-      <c r="AB29" s="384"/>
-      <c r="AC29" s="384"/>
-      <c r="AD29" s="384"/>
-      <c r="AE29" s="385"/>
-      <c r="AF29" s="380"/>
-      <c r="AG29" s="381"/>
-      <c r="AH29" s="381"/>
-      <c r="AI29" s="382"/>
+      <c r="B29" s="325"/>
+      <c r="C29" s="326"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="329"/>
+      <c r="G29" s="325"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="326"/>
+      <c r="J29" s="331"/>
+      <c r="K29" s="332"/>
+      <c r="L29" s="332"/>
+      <c r="M29" s="332"/>
+      <c r="N29" s="332"/>
+      <c r="O29" s="332"/>
+      <c r="P29" s="333"/>
+      <c r="Q29" s="334"/>
+      <c r="R29" s="335"/>
+      <c r="S29" s="335"/>
+      <c r="T29" s="335"/>
+      <c r="U29" s="335"/>
+      <c r="V29" s="335"/>
+      <c r="W29" s="335"/>
+      <c r="X29" s="335"/>
+      <c r="Y29" s="335"/>
+      <c r="Z29" s="335"/>
+      <c r="AA29" s="335"/>
+      <c r="AB29" s="335"/>
+      <c r="AC29" s="335"/>
+      <c r="AD29" s="335"/>
+      <c r="AE29" s="336"/>
+      <c r="AF29" s="331"/>
+      <c r="AG29" s="332"/>
+      <c r="AH29" s="332"/>
+      <c r="AI29" s="333"/>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="23"/>
-      <c r="B30" s="374"/>
-      <c r="C30" s="375"/>
-      <c r="D30" s="376"/>
-      <c r="E30" s="377"/>
-      <c r="F30" s="378"/>
-      <c r="G30" s="374"/>
-      <c r="H30" s="379"/>
-      <c r="I30" s="375"/>
-      <c r="J30" s="380"/>
-      <c r="K30" s="381"/>
-      <c r="L30" s="381"/>
-      <c r="M30" s="381"/>
-      <c r="N30" s="381"/>
-      <c r="O30" s="381"/>
-      <c r="P30" s="382"/>
-      <c r="Q30" s="383"/>
-      <c r="R30" s="384"/>
-      <c r="S30" s="384"/>
-      <c r="T30" s="384"/>
-      <c r="U30" s="384"/>
-      <c r="V30" s="384"/>
-      <c r="W30" s="384"/>
-      <c r="X30" s="384"/>
-      <c r="Y30" s="384"/>
-      <c r="Z30" s="384"/>
-      <c r="AA30" s="384"/>
-      <c r="AB30" s="384"/>
-      <c r="AC30" s="384"/>
-      <c r="AD30" s="384"/>
-      <c r="AE30" s="385"/>
-      <c r="AF30" s="380"/>
-      <c r="AG30" s="381"/>
-      <c r="AH30" s="381"/>
-      <c r="AI30" s="382"/>
+      <c r="B30" s="325"/>
+      <c r="C30" s="326"/>
+      <c r="D30" s="327"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="329"/>
+      <c r="G30" s="325"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="326"/>
+      <c r="J30" s="331"/>
+      <c r="K30" s="332"/>
+      <c r="L30" s="332"/>
+      <c r="M30" s="332"/>
+      <c r="N30" s="332"/>
+      <c r="O30" s="332"/>
+      <c r="P30" s="333"/>
+      <c r="Q30" s="334"/>
+      <c r="R30" s="335"/>
+      <c r="S30" s="335"/>
+      <c r="T30" s="335"/>
+      <c r="U30" s="335"/>
+      <c r="V30" s="335"/>
+      <c r="W30" s="335"/>
+      <c r="X30" s="335"/>
+      <c r="Y30" s="335"/>
+      <c r="Z30" s="335"/>
+      <c r="AA30" s="335"/>
+      <c r="AB30" s="335"/>
+      <c r="AC30" s="335"/>
+      <c r="AD30" s="335"/>
+      <c r="AE30" s="336"/>
+      <c r="AF30" s="331"/>
+      <c r="AG30" s="332"/>
+      <c r="AH30" s="332"/>
+      <c r="AI30" s="333"/>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="374"/>
-      <c r="C31" s="375"/>
-      <c r="D31" s="376"/>
-      <c r="E31" s="377"/>
-      <c r="F31" s="378"/>
-      <c r="G31" s="374"/>
-      <c r="H31" s="379"/>
-      <c r="I31" s="375"/>
-      <c r="J31" s="380"/>
-      <c r="K31" s="381"/>
-      <c r="L31" s="381"/>
-      <c r="M31" s="381"/>
-      <c r="N31" s="381"/>
-      <c r="O31" s="381"/>
-      <c r="P31" s="382"/>
-      <c r="Q31" s="383"/>
-      <c r="R31" s="384"/>
-      <c r="S31" s="384"/>
-      <c r="T31" s="384"/>
-      <c r="U31" s="384"/>
-      <c r="V31" s="384"/>
-      <c r="W31" s="384"/>
-      <c r="X31" s="384"/>
-      <c r="Y31" s="384"/>
-      <c r="Z31" s="384"/>
-      <c r="AA31" s="384"/>
-      <c r="AB31" s="384"/>
-      <c r="AC31" s="384"/>
-      <c r="AD31" s="384"/>
-      <c r="AE31" s="385"/>
-      <c r="AF31" s="380"/>
-      <c r="AG31" s="381"/>
-      <c r="AH31" s="381"/>
-      <c r="AI31" s="382"/>
+      <c r="B31" s="325"/>
+      <c r="C31" s="326"/>
+      <c r="D31" s="327"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="329"/>
+      <c r="G31" s="325"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="326"/>
+      <c r="J31" s="331"/>
+      <c r="K31" s="332"/>
+      <c r="L31" s="332"/>
+      <c r="M31" s="332"/>
+      <c r="N31" s="332"/>
+      <c r="O31" s="332"/>
+      <c r="P31" s="333"/>
+      <c r="Q31" s="334"/>
+      <c r="R31" s="335"/>
+      <c r="S31" s="335"/>
+      <c r="T31" s="335"/>
+      <c r="U31" s="335"/>
+      <c r="V31" s="335"/>
+      <c r="W31" s="335"/>
+      <c r="X31" s="335"/>
+      <c r="Y31" s="335"/>
+      <c r="Z31" s="335"/>
+      <c r="AA31" s="335"/>
+      <c r="AB31" s="335"/>
+      <c r="AC31" s="335"/>
+      <c r="AD31" s="335"/>
+      <c r="AE31" s="336"/>
+      <c r="AF31" s="331"/>
+      <c r="AG31" s="332"/>
+      <c r="AH31" s="332"/>
+      <c r="AI31" s="333"/>
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="23"/>
-      <c r="B32" s="374"/>
-      <c r="C32" s="375"/>
-      <c r="D32" s="376"/>
-      <c r="E32" s="377"/>
-      <c r="F32" s="378"/>
-      <c r="G32" s="374"/>
-      <c r="H32" s="379"/>
-      <c r="I32" s="375"/>
-      <c r="J32" s="380"/>
-      <c r="K32" s="386"/>
-      <c r="L32" s="381"/>
-      <c r="M32" s="381"/>
-      <c r="N32" s="381"/>
-      <c r="O32" s="381"/>
-      <c r="P32" s="382"/>
-      <c r="Q32" s="383"/>
-      <c r="R32" s="384"/>
-      <c r="S32" s="384"/>
-      <c r="T32" s="384"/>
-      <c r="U32" s="384"/>
-      <c r="V32" s="384"/>
-      <c r="W32" s="384"/>
-      <c r="X32" s="384"/>
-      <c r="Y32" s="384"/>
-      <c r="Z32" s="384"/>
-      <c r="AA32" s="384"/>
-      <c r="AB32" s="384"/>
-      <c r="AC32" s="384"/>
-      <c r="AD32" s="384"/>
-      <c r="AE32" s="385"/>
-      <c r="AF32" s="380"/>
-      <c r="AG32" s="381"/>
-      <c r="AH32" s="381"/>
-      <c r="AI32" s="382"/>
+      <c r="B32" s="325"/>
+      <c r="C32" s="326"/>
+      <c r="D32" s="327"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="329"/>
+      <c r="G32" s="325"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="326"/>
+      <c r="J32" s="331"/>
+      <c r="K32" s="337"/>
+      <c r="L32" s="332"/>
+      <c r="M32" s="332"/>
+      <c r="N32" s="332"/>
+      <c r="O32" s="332"/>
+      <c r="P32" s="333"/>
+      <c r="Q32" s="334"/>
+      <c r="R32" s="335"/>
+      <c r="S32" s="335"/>
+      <c r="T32" s="335"/>
+      <c r="U32" s="335"/>
+      <c r="V32" s="335"/>
+      <c r="W32" s="335"/>
+      <c r="X32" s="335"/>
+      <c r="Y32" s="335"/>
+      <c r="Z32" s="335"/>
+      <c r="AA32" s="335"/>
+      <c r="AB32" s="335"/>
+      <c r="AC32" s="335"/>
+      <c r="AD32" s="335"/>
+      <c r="AE32" s="336"/>
+      <c r="AF32" s="331"/>
+      <c r="AG32" s="332"/>
+      <c r="AH32" s="332"/>
+      <c r="AI32" s="333"/>
     </row>
     <row r="33" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="23"/>
-      <c r="B33" s="374"/>
-      <c r="C33" s="375"/>
-      <c r="D33" s="376"/>
-      <c r="E33" s="377"/>
-      <c r="F33" s="378"/>
-      <c r="G33" s="374"/>
-      <c r="H33" s="379"/>
-      <c r="I33" s="375"/>
-      <c r="J33" s="380"/>
-      <c r="K33" s="381"/>
-      <c r="L33" s="381"/>
-      <c r="M33" s="381"/>
-      <c r="N33" s="381"/>
-      <c r="O33" s="381"/>
-      <c r="P33" s="382"/>
-      <c r="Q33" s="383"/>
-      <c r="R33" s="384"/>
-      <c r="S33" s="384"/>
-      <c r="T33" s="384"/>
-      <c r="U33" s="384"/>
-      <c r="V33" s="384"/>
-      <c r="W33" s="384"/>
-      <c r="X33" s="384"/>
-      <c r="Y33" s="384"/>
-      <c r="Z33" s="384"/>
-      <c r="AA33" s="384"/>
-      <c r="AB33" s="384"/>
-      <c r="AC33" s="384"/>
-      <c r="AD33" s="384"/>
-      <c r="AE33" s="385"/>
-      <c r="AF33" s="380"/>
-      <c r="AG33" s="381"/>
-      <c r="AH33" s="381"/>
-      <c r="AI33" s="382"/>
+      <c r="B33" s="325"/>
+      <c r="C33" s="326"/>
+      <c r="D33" s="327"/>
+      <c r="E33" s="328"/>
+      <c r="F33" s="329"/>
+      <c r="G33" s="325"/>
+      <c r="H33" s="330"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="331"/>
+      <c r="K33" s="332"/>
+      <c r="L33" s="332"/>
+      <c r="M33" s="332"/>
+      <c r="N33" s="332"/>
+      <c r="O33" s="332"/>
+      <c r="P33" s="333"/>
+      <c r="Q33" s="334"/>
+      <c r="R33" s="335"/>
+      <c r="S33" s="335"/>
+      <c r="T33" s="335"/>
+      <c r="U33" s="335"/>
+      <c r="V33" s="335"/>
+      <c r="W33" s="335"/>
+      <c r="X33" s="335"/>
+      <c r="Y33" s="335"/>
+      <c r="Z33" s="335"/>
+      <c r="AA33" s="335"/>
+      <c r="AB33" s="335"/>
+      <c r="AC33" s="335"/>
+      <c r="AD33" s="335"/>
+      <c r="AE33" s="336"/>
+      <c r="AF33" s="331"/>
+      <c r="AG33" s="332"/>
+      <c r="AH33" s="332"/>
+      <c r="AI33" s="333"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -19078,6 +18948,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -19235,164 +19260,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="395" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="326" t="str">
+      <c r="B1" s="396"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="368" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="328"/>
-      <c r="O1" s="393" t="s">
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
+      <c r="I1" s="369"/>
+      <c r="J1" s="369"/>
+      <c r="K1" s="369"/>
+      <c r="L1" s="369"/>
+      <c r="M1" s="369"/>
+      <c r="N1" s="370"/>
+      <c r="O1" s="398" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="394"/>
-      <c r="Q1" s="394"/>
-      <c r="R1" s="395"/>
-      <c r="S1" s="341" t="str">
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="400"/>
+      <c r="S1" s="383" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト仕様書(画面)
 サンプル取引/WXXXXXXX</v>
       </c>
-      <c r="T1" s="342"/>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
-      <c r="X1" s="342"/>
-      <c r="Y1" s="342"/>
-      <c r="Z1" s="343"/>
-      <c r="AA1" s="390" t="s">
+      <c r="T1" s="384"/>
+      <c r="U1" s="384"/>
+      <c r="V1" s="384"/>
+      <c r="W1" s="384"/>
+      <c r="X1" s="384"/>
+      <c r="Y1" s="384"/>
+      <c r="Z1" s="385"/>
+      <c r="AA1" s="395" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="391"/>
-      <c r="AC1" s="350" t="str">
+      <c r="AB1" s="397"/>
+      <c r="AC1" s="392" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="351"/>
-      <c r="AE1" s="351"/>
-      <c r="AF1" s="352"/>
-      <c r="AG1" s="387">
+      <c r="AD1" s="393"/>
+      <c r="AE1" s="393"/>
+      <c r="AF1" s="394"/>
+      <c r="AG1" s="407">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="388"/>
-      <c r="AI1" s="389"/>
+      <c r="AH1" s="408"/>
+      <c r="AI1" s="409"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="390" t="s">
+      <c r="A2" s="395" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="391"/>
-      <c r="E2" s="326" t="str">
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="368" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="396"/>
-      <c r="P2" s="397"/>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="398"/>
-      <c r="S2" s="344"/>
-      <c r="T2" s="345"/>
-      <c r="U2" s="345"/>
-      <c r="V2" s="345"/>
-      <c r="W2" s="345"/>
-      <c r="X2" s="345"/>
-      <c r="Y2" s="345"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="390" t="s">
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="370"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402"/>
+      <c r="Q2" s="402"/>
+      <c r="R2" s="403"/>
+      <c r="S2" s="386"/>
+      <c r="T2" s="387"/>
+      <c r="U2" s="387"/>
+      <c r="V2" s="387"/>
+      <c r="W2" s="387"/>
+      <c r="X2" s="387"/>
+      <c r="Y2" s="387"/>
+      <c r="Z2" s="388"/>
+      <c r="AA2" s="395" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="391"/>
-      <c r="AC2" s="350" t="str">
+      <c r="AB2" s="397"/>
+      <c r="AC2" s="392" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="351"/>
-      <c r="AE2" s="351"/>
-      <c r="AF2" s="352"/>
-      <c r="AG2" s="387">
+      <c r="AD2" s="393"/>
+      <c r="AE2" s="393"/>
+      <c r="AF2" s="394"/>
+      <c r="AG2" s="407">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44852</v>
       </c>
-      <c r="AH2" s="388"/>
-      <c r="AI2" s="389"/>
+      <c r="AH2" s="408"/>
+      <c r="AI2" s="409"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="395" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="392"/>
-      <c r="C3" s="392"/>
-      <c r="D3" s="391"/>
-      <c r="E3" s="326" t="str">
+      <c r="B3" s="396"/>
+      <c r="C3" s="396"/>
+      <c r="D3" s="397"/>
+      <c r="E3" s="368" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="328"/>
-      <c r="O3" s="399"/>
-      <c r="P3" s="400"/>
-      <c r="Q3" s="400"/>
-      <c r="R3" s="401"/>
-      <c r="S3" s="347"/>
-      <c r="T3" s="348"/>
-      <c r="U3" s="348"/>
-      <c r="V3" s="348"/>
-      <c r="W3" s="348"/>
-      <c r="X3" s="348"/>
-      <c r="Y3" s="348"/>
-      <c r="Z3" s="349"/>
-      <c r="AA3" s="390"/>
-      <c r="AB3" s="391"/>
-      <c r="AC3" s="350" t="str">
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
+      <c r="K3" s="369"/>
+      <c r="L3" s="369"/>
+      <c r="M3" s="369"/>
+      <c r="N3" s="370"/>
+      <c r="O3" s="404"/>
+      <c r="P3" s="405"/>
+      <c r="Q3" s="405"/>
+      <c r="R3" s="406"/>
+      <c r="S3" s="389"/>
+      <c r="T3" s="390"/>
+      <c r="U3" s="390"/>
+      <c r="V3" s="390"/>
+      <c r="W3" s="390"/>
+      <c r="X3" s="390"/>
+      <c r="Y3" s="390"/>
+      <c r="Z3" s="391"/>
+      <c r="AA3" s="395"/>
+      <c r="AB3" s="397"/>
+      <c r="AC3" s="392" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="351"/>
-      <c r="AE3" s="351"/>
-      <c r="AF3" s="352"/>
-      <c r="AG3" s="387" t="str">
+      <c r="AD3" s="393"/>
+      <c r="AE3" s="393"/>
+      <c r="AF3" s="394"/>
+      <c r="AG3" s="407" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="388"/>
-      <c r="AI3" s="389"/>
+      <c r="AH3" s="408"/>
+      <c r="AI3" s="409"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -20861,6 +20886,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -20870,14 +20903,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -24192,7 +24217,7 @@
         <v>23-5-1</v>
       </c>
       <c r="B93" s="224"/>
-      <c r="C93" s="404"/>
+      <c r="C93" s="316"/>
       <c r="D93" s="222"/>
       <c r="E93" s="222"/>
       <c r="F93" s="132" t="s">
@@ -24584,7 +24609,7 @@
         <v>31-1-1</v>
       </c>
       <c r="B103" s="217"/>
-      <c r="C103" s="405"/>
+      <c r="C103" s="317"/>
       <c r="D103" s="222"/>
       <c r="E103" s="135" t="s">
         <v>219</v>
@@ -24725,7 +24750,7 @@
         <v>515</v>
       </c>
       <c r="H106" s="132"/>
-      <c r="I106" s="406"/>
+      <c r="I106" s="318"/>
       <c r="J106" s="187"/>
       <c r="K106" s="160"/>
       <c r="L106" s="173"/>
@@ -24869,7 +24894,7 @@
         <v>35-1-1</v>
       </c>
       <c r="B110" s="217"/>
-      <c r="C110" s="405"/>
+      <c r="C110" s="317"/>
       <c r="D110" s="222"/>
       <c r="E110" s="135" t="s">
         <v>219</v>
@@ -25283,8 +25308,8 @@
 )</f>
         <v>38-1-1</v>
       </c>
-      <c r="B121" s="407"/>
-      <c r="C121" s="408"/>
+      <c r="B121" s="319"/>
+      <c r="C121" s="320"/>
       <c r="D121" s="211"/>
       <c r="E121" s="132" t="s">
         <v>219</v>
@@ -25599,7 +25624,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B129" s="402" t="s">
+      <c r="B129" s="410" t="s">
         <v>256</v>
       </c>
       <c r="C129" s="137"/>
@@ -25636,7 +25661,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B130" s="402"/>
+      <c r="B130" s="410"/>
       <c r="C130" s="137"/>
       <c r="D130" s="124"/>
       <c r="E130" s="162"/>
@@ -26327,7 +26352,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B149" s="402" t="s">
+      <c r="B149" s="410" t="s">
         <v>283</v>
       </c>
       <c r="C149" s="137"/>
@@ -26364,7 +26389,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B150" s="402"/>
+      <c r="B150" s="410"/>
       <c r="C150" s="137"/>
       <c r="D150" s="124"/>
       <c r="E150" s="124"/>
@@ -36100,7 +36125,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="403" t="s">
+      <c r="B112" s="411" t="s">
         <v>492</v>
       </c>
       <c r="C112" s="194"/>
@@ -36137,7 +36162,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="403"/>
+      <c r="B113" s="411"/>
       <c r="C113" s="194"/>
       <c r="D113" s="203"/>
       <c r="E113" s="200"/>
@@ -36828,7 +36853,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="403" t="s">
+      <c r="B132" s="411" t="s">
         <v>283</v>
       </c>
       <c r="C132" s="194"/>
@@ -36865,7 +36890,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="403"/>
+      <c r="B133" s="411"/>
       <c r="C133" s="194"/>
       <c r="D133" s="191"/>
       <c r="E133" s="194"/>
@@ -42740,10 +42765,10 @@
 )</f>
         <v>101-1-1</v>
       </c>
-      <c r="B296" s="409" t="s">
+      <c r="B296" s="321" t="s">
         <v>529</v>
       </c>
-      <c r="C296" s="410" t="s">
+      <c r="C296" s="322" t="s">
         <v>530</v>
       </c>
       <c r="D296" s="277" t="s">
@@ -48218,7 +48243,7 @@
 )</f>
         <v>112-7-1</v>
       </c>
-      <c r="B428" s="411"/>
+      <c r="B428" s="323"/>
       <c r="C428" s="294"/>
       <c r="D428" s="287"/>
       <c r="E428" s="287"/>
